--- a/docs/reverse_engineering.xlsx
+++ b/docs/reverse_engineering.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Training\Cpp\new\libLNKTemp\libLNK-master\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7905"/>
   </bookViews>
@@ -159,11 +154,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="00"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -792,7 +787,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -802,12 +797,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -847,11 +836,36 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="36" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="35" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="36" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="36" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="43" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
@@ -868,81 +882,59 @@
     <xf numFmtId="0" fontId="0" fillId="44" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="35" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="44" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="36" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="36" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
     <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
     <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Avertissement" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Calcul" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Cellule liée" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Commentaire" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Entrée" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Insatisfaisant" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Neutre" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Satisfaisant" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Sortie" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Texte explicatif" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Titre" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Titre 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Titre 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Titre 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Titre 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Vérification" xfId="13" builtinId="23" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1005,7 +997,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1040,7 +1032,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1217,21 +1209,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:FG79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="BT11" sqref="BT11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="9" width="3" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="3.140625" bestFit="1" customWidth="1"/>
@@ -1262,7 +1254,7 @@
     <col min="109" max="109" width="62.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:109" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:109" ht="15" customHeight="1">
       <c r="A1" t="s">
         <v>44</v>
       </c>
@@ -1585,13 +1577,13 @@
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+    <row r="2" spans="1:109">
+      <c r="A2" s="33" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A3" s="27"/>
+    <row r="3" spans="1:109">
+      <c r="A3" s="34"/>
       <c r="B3" t="str">
         <f t="shared" ref="B3:AG3" si="0">MID($DE$4,B1+1,1)</f>
         <v>&lt;</v>
@@ -1849,186 +1841,186 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A4" s="27"/>
-      <c r="B4" s="8" t="s">
+    <row r="4" spans="1:109">
+      <c r="A4" s="34"/>
+      <c r="B4" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="6">
         <v>0</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="7">
         <v>31</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="7">
         <v>0</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="7">
         <v>0</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="7">
         <v>0</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="7">
         <v>0</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="7">
         <v>0</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="7">
         <v>34</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="K4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="L4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="M4" s="9">
+      <c r="M4" s="7">
         <v>60</v>
       </c>
-      <c r="N4" s="21">
+      <c r="N4" s="19">
         <v>10</v>
       </c>
-      <c r="O4" s="21">
+      <c r="O4" s="19">
         <v>0</v>
       </c>
-      <c r="P4" s="10">
+      <c r="P4" s="8">
         <v>57</v>
       </c>
-      <c r="Q4" s="10">
+      <c r="Q4" s="8">
         <v>49</v>
       </c>
-      <c r="R4" s="10" t="s">
+      <c r="R4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="S4" s="10">
+      <c r="S4" s="8">
         <v>44</v>
       </c>
-      <c r="T4" s="10" t="s">
+      <c r="T4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="U4" s="10">
+      <c r="U4" s="8">
         <v>57</v>
       </c>
-      <c r="V4" s="10">
+      <c r="V4" s="8">
         <v>53</v>
       </c>
-      <c r="W4" s="10">
+      <c r="W4" s="8">
         <v>0</v>
       </c>
-      <c r="X4" s="11">
+      <c r="X4" s="9">
         <v>26</v>
       </c>
-      <c r="Y4" s="11">
+      <c r="Y4" s="9">
         <v>0</v>
       </c>
-      <c r="Z4" s="12">
+      <c r="Z4" s="10">
         <v>3</v>
       </c>
-      <c r="AA4" s="12">
+      <c r="AA4" s="10">
         <v>0</v>
       </c>
-      <c r="AB4" s="12">
+      <c r="AB4" s="10">
         <v>4</v>
       </c>
-      <c r="AC4" s="12">
+      <c r="AC4" s="10">
         <v>0</v>
       </c>
-      <c r="AD4" s="12" t="s">
+      <c r="AD4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="AE4" s="12" t="s">
+      <c r="AE4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="AF4" s="12">
+      <c r="AF4" s="10">
         <v>77</v>
       </c>
-      <c r="AG4" s="12">
+      <c r="AG4" s="10">
         <v>35</v>
       </c>
-      <c r="AH4" s="12" t="s">
+      <c r="AH4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="AI4" s="12">
+      <c r="AI4" s="10">
         <v>37</v>
       </c>
-      <c r="AJ4" s="12">
+      <c r="AJ4" s="10">
         <v>34</v>
       </c>
-      <c r="AK4" s="12" t="s">
+      <c r="AK4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="AL4" s="13" t="s">
+      <c r="AL4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="AM4" s="13">
+      <c r="AM4" s="11">
         <v>60</v>
       </c>
-      <c r="AN4" s="13">
+      <c r="AN4" s="11">
         <v>14</v>
       </c>
-      <c r="AO4" s="13">
+      <c r="AO4" s="11">
         <v>0</v>
       </c>
-      <c r="AP4" s="13">
+      <c r="AP4" s="11">
         <v>0</v>
       </c>
-      <c r="AQ4" s="13">
+      <c r="AQ4" s="11">
         <v>0</v>
       </c>
-      <c r="AR4" s="10">
+      <c r="AR4" s="8">
         <v>57</v>
       </c>
-      <c r="AS4" s="10">
+      <c r="AS4" s="8">
         <v>0</v>
       </c>
-      <c r="AT4" s="10">
+      <c r="AT4" s="8">
         <v>49</v>
       </c>
-      <c r="AU4" s="10">
+      <c r="AU4" s="8">
         <v>0</v>
       </c>
-      <c r="AV4" s="10" t="s">
+      <c r="AV4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="AW4" s="10">
+      <c r="AW4" s="8">
         <v>0</v>
       </c>
-      <c r="AX4" s="10">
+      <c r="AX4" s="8">
         <v>44</v>
       </c>
-      <c r="AY4" s="10">
+      <c r="AY4" s="8">
         <v>0</v>
       </c>
-      <c r="AZ4" s="10" t="s">
+      <c r="AZ4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="BA4" s="10">
+      <c r="BA4" s="8">
         <v>0</v>
       </c>
-      <c r="BB4" s="10">
+      <c r="BB4" s="8">
         <v>57</v>
       </c>
-      <c r="BC4" s="10">
+      <c r="BC4" s="8">
         <v>0</v>
       </c>
-      <c r="BD4" s="10">
+      <c r="BD4" s="8">
         <v>53</v>
       </c>
-      <c r="BE4" s="10">
+      <c r="BE4" s="8">
         <v>0</v>
       </c>
-      <c r="BF4" s="10">
+      <c r="BF4" s="8">
         <v>0</v>
       </c>
-      <c r="BG4" s="10">
+      <c r="BG4" s="8">
         <v>0</v>
       </c>
-      <c r="BH4" s="8">
+      <c r="BH4" s="6">
         <v>16</v>
       </c>
-      <c r="BI4" s="8">
+      <c r="BI4" s="6">
         <v>0</v>
       </c>
       <c r="BJ4" s="1"/>
@@ -2067,70 +2059,70 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A5" s="27"/>
-      <c r="B5" s="38" t="s">
+    <row r="5" spans="1:109">
+      <c r="A5" s="34"/>
+      <c r="B5" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="33"/>
-      <c r="P5" s="33"/>
-      <c r="Q5" s="33"/>
-      <c r="R5" s="33"/>
-      <c r="S5" s="33"/>
-      <c r="T5" s="33"/>
-      <c r="U5" s="33"/>
-      <c r="V5" s="33"/>
-      <c r="W5" s="33"/>
-      <c r="X5" s="33"/>
-      <c r="Y5" s="33"/>
-      <c r="Z5" s="33"/>
-      <c r="AA5" s="33"/>
-      <c r="AB5" s="33"/>
-      <c r="AC5" s="33"/>
-      <c r="AD5" s="33"/>
-      <c r="AE5" s="33"/>
-      <c r="AF5" s="33"/>
-      <c r="AG5" s="33"/>
-      <c r="AH5" s="33"/>
-      <c r="AI5" s="33"/>
-      <c r="AJ5" s="33"/>
-      <c r="AK5" s="33"/>
-      <c r="AL5" s="33"/>
-      <c r="AM5" s="33"/>
-      <c r="AN5" s="33"/>
-      <c r="AO5" s="33"/>
-      <c r="AP5" s="33"/>
-      <c r="AQ5" s="33"/>
-      <c r="AR5" s="33"/>
-      <c r="AS5" s="33"/>
-      <c r="AT5" s="33"/>
-      <c r="AU5" s="33"/>
-      <c r="AV5" s="33"/>
-      <c r="AW5" s="33"/>
-      <c r="AX5" s="33"/>
-      <c r="AY5" s="33"/>
-      <c r="AZ5" s="33"/>
-      <c r="BA5" s="33"/>
-      <c r="BB5" s="33"/>
-      <c r="BC5" s="33"/>
-      <c r="BD5" s="33"/>
-      <c r="BE5" s="33"/>
-      <c r="BF5" s="33"/>
-      <c r="BG5" s="33"/>
-      <c r="BH5" s="33"/>
-      <c r="BI5" s="33"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="26"/>
+      <c r="S5" s="26"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="26"/>
+      <c r="V5" s="26"/>
+      <c r="W5" s="26"/>
+      <c r="X5" s="26"/>
+      <c r="Y5" s="26"/>
+      <c r="Z5" s="26"/>
+      <c r="AA5" s="26"/>
+      <c r="AB5" s="26"/>
+      <c r="AC5" s="26"/>
+      <c r="AD5" s="26"/>
+      <c r="AE5" s="26"/>
+      <c r="AF5" s="26"/>
+      <c r="AG5" s="26"/>
+      <c r="AH5" s="26"/>
+      <c r="AI5" s="26"/>
+      <c r="AJ5" s="26"/>
+      <c r="AK5" s="26"/>
+      <c r="AL5" s="26"/>
+      <c r="AM5" s="26"/>
+      <c r="AN5" s="26"/>
+      <c r="AO5" s="26"/>
+      <c r="AP5" s="26"/>
+      <c r="AQ5" s="26"/>
+      <c r="AR5" s="26"/>
+      <c r="AS5" s="26"/>
+      <c r="AT5" s="26"/>
+      <c r="AU5" s="26"/>
+      <c r="AV5" s="26"/>
+      <c r="AW5" s="26"/>
+      <c r="AX5" s="26"/>
+      <c r="AY5" s="26"/>
+      <c r="AZ5" s="26"/>
+      <c r="BA5" s="26"/>
+      <c r="BB5" s="26"/>
+      <c r="BC5" s="26"/>
+      <c r="BD5" s="26"/>
+      <c r="BE5" s="26"/>
+      <c r="BF5" s="26"/>
+      <c r="BG5" s="26"/>
+      <c r="BH5" s="26"/>
+      <c r="BI5" s="26"/>
       <c r="BJ5" s="1"/>
       <c r="BK5" s="1"/>
       <c r="BL5" s="1"/>
@@ -2164,72 +2156,72 @@
       <c r="CN5" s="1"/>
       <c r="CO5" s="1"/>
     </row>
-    <row r="6" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A6" s="27"/>
-      <c r="B6" s="31" t="s">
+    <row r="6" spans="1:109">
+      <c r="A6" s="34"/>
+      <c r="B6" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32" t="s">
+      <c r="C6" s="24"/>
+      <c r="D6" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="32"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="32"/>
-      <c r="N6" s="32"/>
-      <c r="O6" s="32"/>
-      <c r="P6" s="32"/>
-      <c r="Q6" s="32"/>
-      <c r="R6" s="32"/>
-      <c r="S6" s="32"/>
-      <c r="T6" s="32"/>
-      <c r="U6" s="32"/>
-      <c r="V6" s="32"/>
-      <c r="W6" s="32"/>
-      <c r="X6" s="32"/>
-      <c r="Y6" s="32"/>
-      <c r="Z6" s="32"/>
-      <c r="AA6" s="32"/>
-      <c r="AB6" s="32"/>
-      <c r="AC6" s="32"/>
-      <c r="AD6" s="32"/>
-      <c r="AE6" s="32"/>
-      <c r="AF6" s="32"/>
-      <c r="AG6" s="32"/>
-      <c r="AH6" s="32"/>
-      <c r="AI6" s="32"/>
-      <c r="AJ6" s="32"/>
-      <c r="AK6" s="32"/>
-      <c r="AL6" s="32"/>
-      <c r="AM6" s="32"/>
-      <c r="AN6" s="32"/>
-      <c r="AO6" s="32"/>
-      <c r="AP6" s="32"/>
-      <c r="AQ6" s="32"/>
-      <c r="AR6" s="32"/>
-      <c r="AS6" s="32"/>
-      <c r="AT6" s="32"/>
-      <c r="AU6" s="32"/>
-      <c r="AV6" s="32"/>
-      <c r="AW6" s="32"/>
-      <c r="AX6" s="32"/>
-      <c r="AY6" s="32"/>
-      <c r="AZ6" s="32"/>
-      <c r="BA6" s="32"/>
-      <c r="BB6" s="32"/>
-      <c r="BC6" s="32"/>
-      <c r="BD6" s="32"/>
-      <c r="BE6" s="32"/>
-      <c r="BF6" s="32"/>
-      <c r="BG6" s="32"/>
-      <c r="BH6" s="32"/>
-      <c r="BI6" s="32"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="24"/>
+      <c r="S6" s="24"/>
+      <c r="T6" s="24"/>
+      <c r="U6" s="24"/>
+      <c r="V6" s="24"/>
+      <c r="W6" s="24"/>
+      <c r="X6" s="24"/>
+      <c r="Y6" s="24"/>
+      <c r="Z6" s="24"/>
+      <c r="AA6" s="24"/>
+      <c r="AB6" s="24"/>
+      <c r="AC6" s="24"/>
+      <c r="AD6" s="24"/>
+      <c r="AE6" s="24"/>
+      <c r="AF6" s="24"/>
+      <c r="AG6" s="24"/>
+      <c r="AH6" s="24"/>
+      <c r="AI6" s="24"/>
+      <c r="AJ6" s="24"/>
+      <c r="AK6" s="24"/>
+      <c r="AL6" s="24"/>
+      <c r="AM6" s="24"/>
+      <c r="AN6" s="24"/>
+      <c r="AO6" s="24"/>
+      <c r="AP6" s="24"/>
+      <c r="AQ6" s="24"/>
+      <c r="AR6" s="24"/>
+      <c r="AS6" s="24"/>
+      <c r="AT6" s="24"/>
+      <c r="AU6" s="24"/>
+      <c r="AV6" s="24"/>
+      <c r="AW6" s="24"/>
+      <c r="AX6" s="24"/>
+      <c r="AY6" s="24"/>
+      <c r="AZ6" s="24"/>
+      <c r="BA6" s="24"/>
+      <c r="BB6" s="24"/>
+      <c r="BC6" s="24"/>
+      <c r="BD6" s="24"/>
+      <c r="BE6" s="24"/>
+      <c r="BF6" s="24"/>
+      <c r="BG6" s="24"/>
+      <c r="BH6" s="24"/>
+      <c r="BI6" s="24"/>
       <c r="BJ6" s="1"/>
       <c r="BK6" s="1"/>
       <c r="BL6" s="1"/>
@@ -2263,8 +2255,8 @@
       <c r="CN6" s="1"/>
       <c r="CO6" s="1"/>
     </row>
-    <row r="7" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A7" s="27"/>
+    <row r="7" spans="1:109">
+      <c r="A7" s="34"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="2"/>
@@ -2287,48 +2279,48 @@
       <c r="U7" s="2"/>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
-      <c r="X7" s="25" t="s">
+      <c r="X7" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="Y7" s="25"/>
-      <c r="Z7" s="25" t="s">
+      <c r="Y7" s="27"/>
+      <c r="Z7" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="AA7" s="25"/>
-      <c r="AB7" s="25"/>
-      <c r="AC7" s="25"/>
-      <c r="AD7" s="25"/>
-      <c r="AE7" s="25"/>
-      <c r="AF7" s="25"/>
-      <c r="AG7" s="25"/>
-      <c r="AH7" s="25"/>
-      <c r="AI7" s="25"/>
-      <c r="AJ7" s="25"/>
-      <c r="AK7" s="25"/>
-      <c r="AL7" s="25"/>
-      <c r="AM7" s="25"/>
-      <c r="AN7" s="25"/>
-      <c r="AO7" s="25"/>
-      <c r="AP7" s="25"/>
-      <c r="AQ7" s="25"/>
-      <c r="AR7" s="25"/>
-      <c r="AS7" s="25"/>
-      <c r="AT7" s="25"/>
-      <c r="AU7" s="25"/>
-      <c r="AV7" s="25"/>
-      <c r="AW7" s="25"/>
-      <c r="AX7" s="25"/>
-      <c r="AY7" s="25"/>
-      <c r="AZ7" s="25"/>
-      <c r="BA7" s="25"/>
-      <c r="BB7" s="25"/>
-      <c r="BC7" s="25"/>
-      <c r="BD7" s="25"/>
-      <c r="BE7" s="25"/>
-      <c r="BF7" s="25"/>
-      <c r="BG7" s="25"/>
-      <c r="BH7" s="25"/>
-      <c r="BI7" s="25"/>
+      <c r="AA7" s="27"/>
+      <c r="AB7" s="27"/>
+      <c r="AC7" s="27"/>
+      <c r="AD7" s="27"/>
+      <c r="AE7" s="27"/>
+      <c r="AF7" s="27"/>
+      <c r="AG7" s="27"/>
+      <c r="AH7" s="27"/>
+      <c r="AI7" s="27"/>
+      <c r="AJ7" s="27"/>
+      <c r="AK7" s="27"/>
+      <c r="AL7" s="27"/>
+      <c r="AM7" s="27"/>
+      <c r="AN7" s="27"/>
+      <c r="AO7" s="27"/>
+      <c r="AP7" s="27"/>
+      <c r="AQ7" s="27"/>
+      <c r="AR7" s="27"/>
+      <c r="AS7" s="27"/>
+      <c r="AT7" s="27"/>
+      <c r="AU7" s="27"/>
+      <c r="AV7" s="27"/>
+      <c r="AW7" s="27"/>
+      <c r="AX7" s="27"/>
+      <c r="AY7" s="27"/>
+      <c r="AZ7" s="27"/>
+      <c r="BA7" s="27"/>
+      <c r="BB7" s="27"/>
+      <c r="BC7" s="27"/>
+      <c r="BD7" s="27"/>
+      <c r="BE7" s="27"/>
+      <c r="BF7" s="27"/>
+      <c r="BG7" s="27"/>
+      <c r="BH7" s="27"/>
+      <c r="BI7" s="27"/>
       <c r="BJ7" s="1"/>
       <c r="BK7" s="1"/>
       <c r="BL7" s="1"/>
@@ -2362,8 +2354,8 @@
       <c r="CN7" s="1"/>
       <c r="CO7" s="1"/>
     </row>
-    <row r="8" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A8" s="27"/>
+    <row r="8" spans="1:109">
+      <c r="A8" s="34"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="2"/>
@@ -2402,30 +2394,30 @@
       <c r="AK8" s="2"/>
       <c r="AL8" s="2"/>
       <c r="AM8" s="2"/>
-      <c r="AN8" s="37" t="s">
+      <c r="AN8" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="AO8" s="37"/>
-      <c r="AP8" s="37" t="s">
+      <c r="AO8" s="28"/>
+      <c r="AP8" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="AQ8" s="37"/>
-      <c r="AR8" s="37"/>
-      <c r="AS8" s="37"/>
-      <c r="AT8" s="37"/>
-      <c r="AU8" s="37"/>
-      <c r="AV8" s="37"/>
-      <c r="AW8" s="37"/>
-      <c r="AX8" s="37"/>
-      <c r="AY8" s="37"/>
-      <c r="AZ8" s="37"/>
-      <c r="BA8" s="37"/>
-      <c r="BB8" s="37"/>
-      <c r="BC8" s="37"/>
-      <c r="BD8" s="37"/>
-      <c r="BE8" s="37"/>
-      <c r="BF8" s="37"/>
-      <c r="BG8" s="37"/>
+      <c r="AQ8" s="28"/>
+      <c r="AR8" s="28"/>
+      <c r="AS8" s="28"/>
+      <c r="AT8" s="28"/>
+      <c r="AU8" s="28"/>
+      <c r="AV8" s="28"/>
+      <c r="AW8" s="28"/>
+      <c r="AX8" s="28"/>
+      <c r="AY8" s="28"/>
+      <c r="AZ8" s="28"/>
+      <c r="BA8" s="28"/>
+      <c r="BB8" s="28"/>
+      <c r="BC8" s="28"/>
+      <c r="BD8" s="28"/>
+      <c r="BE8" s="28"/>
+      <c r="BF8" s="28"/>
+      <c r="BG8" s="28"/>
       <c r="BH8" s="3"/>
       <c r="BI8" s="3"/>
       <c r="BJ8" s="1"/>
@@ -2461,8 +2453,8 @@
       <c r="CN8" s="1"/>
       <c r="CO8" s="1"/>
     </row>
-    <row r="9" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A9" s="27"/>
+    <row r="9" spans="1:109">
+      <c r="A9" s="34"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="2"/>
@@ -2475,26 +2467,26 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
-      <c r="N9" s="33" t="s">
+      <c r="N9" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="O9" s="33"/>
-      <c r="P9" s="33" t="s">
+      <c r="O9" s="26"/>
+      <c r="P9" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="Q9" s="33"/>
-      <c r="R9" s="33"/>
-      <c r="S9" s="33"/>
-      <c r="T9" s="33"/>
-      <c r="U9" s="33"/>
-      <c r="V9" s="33"/>
-      <c r="W9" s="33"/>
-      <c r="X9" s="33"/>
-      <c r="Y9" s="33"/>
-      <c r="Z9" s="33"/>
-      <c r="AA9" s="33"/>
-      <c r="AB9" s="33"/>
-      <c r="AC9" s="33"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="26"/>
+      <c r="S9" s="26"/>
+      <c r="T9" s="26"/>
+      <c r="U9" s="26"/>
+      <c r="V9" s="26"/>
+      <c r="W9" s="26"/>
+      <c r="X9" s="26"/>
+      <c r="Y9" s="26"/>
+      <c r="Z9" s="26"/>
+      <c r="AA9" s="26"/>
+      <c r="AB9" s="26"/>
+      <c r="AC9" s="26"/>
       <c r="AD9" s="2"/>
       <c r="AE9" s="2"/>
       <c r="AF9" s="2"/>
@@ -2560,8 +2552,8 @@
       <c r="CN9" s="1"/>
       <c r="CO9" s="1"/>
     </row>
-    <row r="10" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A10" s="27"/>
+    <row r="10" spans="1:109">
+      <c r="A10" s="34"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="2"/>
@@ -2655,8 +2647,8 @@
       <c r="CN10" s="1"/>
       <c r="CO10" s="1"/>
     </row>
-    <row r="11" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A11" s="27"/>
+    <row r="11" spans="1:109">
+      <c r="A11" s="34"/>
       <c r="B11" s="1" t="str">
         <f t="shared" ref="B11:AG11" si="2">MID($DE$12,B1+1,1)</f>
         <v>@</v>
@@ -2942,198 +2934,198 @@
       <c r="CN11" s="1"/>
       <c r="CO11" s="1"/>
     </row>
-    <row r="12" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A12" s="27"/>
-      <c r="B12" s="8">
+    <row r="12" spans="1:109">
+      <c r="A12" s="34"/>
+      <c r="B12" s="6">
         <v>40</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="6">
         <v>0</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="12">
         <v>31</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="12">
         <v>0</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="12">
         <v>0</v>
       </c>
-      <c r="G12" s="14">
+      <c r="G12" s="12">
         <v>0</v>
       </c>
-      <c r="H12" s="14">
+      <c r="H12" s="12">
         <v>0</v>
       </c>
-      <c r="I12" s="14">
+      <c r="I12" s="12">
         <v>0</v>
       </c>
-      <c r="J12" s="14">
+      <c r="J12" s="12">
         <v>32</v>
       </c>
-      <c r="K12" s="14" t="s">
+      <c r="K12" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="L12" s="14" t="s">
+      <c r="L12" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="M12" s="14" t="s">
+      <c r="M12" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="N12" s="21">
+      <c r="N12" s="19">
         <v>10</v>
       </c>
-      <c r="O12" s="21">
+      <c r="O12" s="19">
         <v>0</v>
       </c>
-      <c r="P12" s="10">
+      <c r="P12" s="8">
         <v>73</v>
       </c>
-      <c r="Q12" s="10">
+      <c r="Q12" s="8">
         <v>79</v>
       </c>
-      <c r="R12" s="10">
+      <c r="R12" s="8">
         <v>73</v>
       </c>
-      <c r="S12" s="10">
+      <c r="S12" s="8">
         <v>74</v>
       </c>
-      <c r="T12" s="10">
+      <c r="T12" s="8">
         <v>65</v>
       </c>
-      <c r="U12" s="10" t="s">
+      <c r="U12" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="V12" s="10">
+      <c r="V12" s="8">
         <v>33</v>
       </c>
-      <c r="W12" s="10">
+      <c r="W12" s="8">
         <v>32</v>
       </c>
-      <c r="X12" s="10">
+      <c r="X12" s="8">
         <v>0</v>
       </c>
-      <c r="Y12" s="15">
+      <c r="Y12" s="13">
         <v>0</v>
       </c>
-      <c r="Z12" s="11">
+      <c r="Z12" s="9">
         <v>28</v>
       </c>
-      <c r="AA12" s="11">
+      <c r="AA12" s="9">
         <v>0</v>
       </c>
-      <c r="AB12" s="12">
+      <c r="AB12" s="10">
         <v>3</v>
       </c>
-      <c r="AC12" s="12">
+      <c r="AC12" s="10">
         <v>0</v>
       </c>
-      <c r="AD12" s="12">
+      <c r="AD12" s="10">
         <v>4</v>
       </c>
-      <c r="AE12" s="12">
+      <c r="AE12" s="10">
         <v>0</v>
       </c>
-      <c r="AF12" s="12" t="s">
+      <c r="AF12" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="AG12" s="12" t="s">
+      <c r="AG12" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="AH12" s="12">
+      <c r="AH12" s="10">
         <v>77</v>
       </c>
-      <c r="AI12" s="12">
+      <c r="AI12" s="10">
         <v>35</v>
       </c>
-      <c r="AJ12" s="12" t="s">
+      <c r="AJ12" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="AK12" s="12">
+      <c r="AK12" s="10">
         <v>37</v>
       </c>
-      <c r="AL12" s="12">
+      <c r="AL12" s="10">
         <v>34</v>
       </c>
-      <c r="AM12" s="12" t="s">
+      <c r="AM12" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="AN12" s="13">
+      <c r="AN12" s="11">
         <v>33</v>
       </c>
-      <c r="AO12" s="13" t="s">
+      <c r="AO12" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="AP12" s="13">
+      <c r="AP12" s="11">
         <v>14</v>
       </c>
-      <c r="AQ12" s="13">
+      <c r="AQ12" s="11">
         <v>0</v>
       </c>
-      <c r="AR12" s="13">
+      <c r="AR12" s="11">
         <v>0</v>
       </c>
-      <c r="AS12" s="13">
+      <c r="AS12" s="11">
         <v>0</v>
       </c>
-      <c r="AT12" s="10">
+      <c r="AT12" s="8">
         <v>73</v>
       </c>
-      <c r="AU12" s="10">
+      <c r="AU12" s="8">
         <v>0</v>
       </c>
-      <c r="AV12" s="10">
+      <c r="AV12" s="8">
         <v>79</v>
       </c>
-      <c r="AW12" s="10">
+      <c r="AW12" s="8">
         <v>0</v>
       </c>
-      <c r="AX12" s="10">
+      <c r="AX12" s="8">
         <v>73</v>
       </c>
-      <c r="AY12" s="10">
+      <c r="AY12" s="8">
         <v>0</v>
       </c>
-      <c r="AZ12" s="10">
+      <c r="AZ12" s="8">
         <v>74</v>
       </c>
-      <c r="BA12" s="10">
+      <c r="BA12" s="8">
         <v>0</v>
       </c>
-      <c r="BB12" s="10">
+      <c r="BB12" s="8">
         <v>65</v>
       </c>
-      <c r="BC12" s="10">
+      <c r="BC12" s="8">
         <v>0</v>
       </c>
-      <c r="BD12" s="10" t="s">
+      <c r="BD12" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="BE12" s="10">
+      <c r="BE12" s="8">
         <v>0</v>
       </c>
-      <c r="BF12" s="10">
+      <c r="BF12" s="8">
         <v>33</v>
       </c>
-      <c r="BG12" s="10">
+      <c r="BG12" s="8">
         <v>0</v>
       </c>
-      <c r="BH12" s="10">
+      <c r="BH12" s="8">
         <v>32</v>
       </c>
-      <c r="BI12" s="10">
+      <c r="BI12" s="8">
         <v>0</v>
       </c>
-      <c r="BJ12" s="10">
+      <c r="BJ12" s="8">
         <v>0</v>
       </c>
-      <c r="BK12" s="10">
+      <c r="BK12" s="8">
         <v>0</v>
       </c>
-      <c r="BL12" s="8">
+      <c r="BL12" s="6">
         <v>18</v>
       </c>
-      <c r="BM12" s="8">
+      <c r="BM12" s="6">
         <v>0</v>
       </c>
       <c r="BN12" s="1"/>
@@ -3168,107 +3160,107 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A13" s="27"/>
-      <c r="B13" s="31" t="s">
+    <row r="13" spans="1:109">
+      <c r="A13" s="34"/>
+      <c r="B13" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32" t="s">
+      <c r="C13" s="24"/>
+      <c r="D13" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="32"/>
-      <c r="M13" s="32"/>
-      <c r="N13" s="32"/>
-      <c r="O13" s="32"/>
-      <c r="P13" s="32"/>
-      <c r="Q13" s="32"/>
-      <c r="R13" s="32"/>
-      <c r="S13" s="32"/>
-      <c r="T13" s="32"/>
-      <c r="U13" s="32"/>
-      <c r="V13" s="32"/>
-      <c r="W13" s="32"/>
-      <c r="X13" s="32"/>
-      <c r="Y13" s="32"/>
-      <c r="Z13" s="32"/>
-      <c r="AA13" s="32"/>
-      <c r="AB13" s="32"/>
-      <c r="AC13" s="32"/>
-      <c r="AD13" s="32"/>
-      <c r="AE13" s="32"/>
-      <c r="AF13" s="32"/>
-      <c r="AG13" s="32"/>
-      <c r="AH13" s="32"/>
-      <c r="AI13" s="32"/>
-      <c r="AJ13" s="32"/>
-      <c r="AK13" s="32"/>
-      <c r="AL13" s="32"/>
-      <c r="AM13" s="32"/>
-      <c r="AN13" s="32"/>
-      <c r="AO13" s="32"/>
-      <c r="AP13" s="32"/>
-      <c r="AQ13" s="32"/>
-      <c r="AR13" s="32"/>
-      <c r="AS13" s="32"/>
-      <c r="AT13" s="32"/>
-      <c r="AU13" s="32"/>
-      <c r="AV13" s="32"/>
-      <c r="AW13" s="32"/>
-      <c r="AX13" s="32"/>
-      <c r="AY13" s="32"/>
-      <c r="AZ13" s="32"/>
-      <c r="BA13" s="32"/>
-      <c r="BB13" s="32"/>
-      <c r="BC13" s="32"/>
-      <c r="BD13" s="32"/>
-      <c r="BE13" s="32"/>
-      <c r="BF13" s="32"/>
-      <c r="BG13" s="32"/>
-      <c r="BH13" s="32"/>
-      <c r="BI13" s="32"/>
-      <c r="BJ13" s="32"/>
-      <c r="BK13" s="32"/>
-      <c r="BL13" s="32"/>
-      <c r="BM13" s="32"/>
-      <c r="BN13" s="5"/>
-      <c r="BO13" s="5"/>
-      <c r="BP13" s="5"/>
-      <c r="BQ13" s="5"/>
-      <c r="BR13" s="5"/>
-      <c r="BS13" s="5"/>
-      <c r="BT13" s="5"/>
-      <c r="BU13" s="5"/>
-      <c r="BV13" s="5"/>
-      <c r="BW13" s="5"/>
-      <c r="BX13" s="5"/>
-      <c r="BY13" s="5"/>
-      <c r="BZ13" s="5"/>
-      <c r="CA13" s="5"/>
-      <c r="CB13" s="5"/>
-      <c r="CC13" s="5"/>
-      <c r="CD13" s="5"/>
-      <c r="CE13" s="5"/>
-      <c r="CF13" s="5"/>
-      <c r="CG13" s="5"/>
-      <c r="CH13" s="5"/>
-      <c r="CI13" s="5"/>
-      <c r="CJ13" s="5"/>
-      <c r="CK13" s="5"/>
-      <c r="CL13" s="5"/>
-      <c r="CM13" s="5"/>
-      <c r="CN13" s="5"/>
-      <c r="CO13" s="5"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="24"/>
+      <c r="S13" s="24"/>
+      <c r="T13" s="24"/>
+      <c r="U13" s="24"/>
+      <c r="V13" s="24"/>
+      <c r="W13" s="24"/>
+      <c r="X13" s="24"/>
+      <c r="Y13" s="24"/>
+      <c r="Z13" s="24"/>
+      <c r="AA13" s="24"/>
+      <c r="AB13" s="24"/>
+      <c r="AC13" s="24"/>
+      <c r="AD13" s="24"/>
+      <c r="AE13" s="24"/>
+      <c r="AF13" s="24"/>
+      <c r="AG13" s="24"/>
+      <c r="AH13" s="24"/>
+      <c r="AI13" s="24"/>
+      <c r="AJ13" s="24"/>
+      <c r="AK13" s="24"/>
+      <c r="AL13" s="24"/>
+      <c r="AM13" s="24"/>
+      <c r="AN13" s="24"/>
+      <c r="AO13" s="24"/>
+      <c r="AP13" s="24"/>
+      <c r="AQ13" s="24"/>
+      <c r="AR13" s="24"/>
+      <c r="AS13" s="24"/>
+      <c r="AT13" s="24"/>
+      <c r="AU13" s="24"/>
+      <c r="AV13" s="24"/>
+      <c r="AW13" s="24"/>
+      <c r="AX13" s="24"/>
+      <c r="AY13" s="24"/>
+      <c r="AZ13" s="24"/>
+      <c r="BA13" s="24"/>
+      <c r="BB13" s="24"/>
+      <c r="BC13" s="24"/>
+      <c r="BD13" s="24"/>
+      <c r="BE13" s="24"/>
+      <c r="BF13" s="24"/>
+      <c r="BG13" s="24"/>
+      <c r="BH13" s="24"/>
+      <c r="BI13" s="24"/>
+      <c r="BJ13" s="24"/>
+      <c r="BK13" s="24"/>
+      <c r="BL13" s="24"/>
+      <c r="BM13" s="24"/>
+      <c r="BN13" s="40"/>
+      <c r="BO13" s="40"/>
+      <c r="BP13" s="40"/>
+      <c r="BQ13" s="40"/>
+      <c r="BR13" s="40"/>
+      <c r="BS13" s="40"/>
+      <c r="BT13" s="40"/>
+      <c r="BU13" s="40"/>
+      <c r="BV13" s="40"/>
+      <c r="BW13" s="40"/>
+      <c r="BX13" s="40"/>
+      <c r="BY13" s="40"/>
+      <c r="BZ13" s="40"/>
+      <c r="CA13" s="40"/>
+      <c r="CB13" s="40"/>
+      <c r="CC13" s="40"/>
+      <c r="CD13" s="40"/>
+      <c r="CE13" s="40"/>
+      <c r="CF13" s="40"/>
+      <c r="CG13" s="40"/>
+      <c r="CH13" s="40"/>
+      <c r="CI13" s="40"/>
+      <c r="CJ13" s="40"/>
+      <c r="CK13" s="40"/>
+      <c r="CL13" s="40"/>
+      <c r="CM13" s="40"/>
+      <c r="CN13" s="40"/>
+      <c r="CO13" s="40"/>
     </row>
-    <row r="14" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
+    <row r="14" spans="1:109">
+      <c r="A14" s="34"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -3281,26 +3273,26 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
-      <c r="N14" s="33" t="s">
+      <c r="N14" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="O14" s="33"/>
-      <c r="P14" s="33" t="s">
+      <c r="O14" s="26"/>
+      <c r="P14" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="Q14" s="33"/>
-      <c r="R14" s="33"/>
-      <c r="S14" s="33"/>
-      <c r="T14" s="33"/>
-      <c r="U14" s="33"/>
-      <c r="V14" s="33"/>
-      <c r="W14" s="33"/>
-      <c r="X14" s="33"/>
-      <c r="Y14" s="33"/>
-      <c r="Z14" s="33"/>
-      <c r="AA14" s="33"/>
-      <c r="AB14" s="36"/>
-      <c r="AC14" s="36"/>
+      <c r="Q14" s="26"/>
+      <c r="R14" s="26"/>
+      <c r="S14" s="26"/>
+      <c r="T14" s="26"/>
+      <c r="U14" s="26"/>
+      <c r="V14" s="26"/>
+      <c r="W14" s="26"/>
+      <c r="X14" s="26"/>
+      <c r="Y14" s="26"/>
+      <c r="Z14" s="26"/>
+      <c r="AA14" s="26"/>
+      <c r="AB14" s="29"/>
+      <c r="AC14" s="29"/>
       <c r="AD14" s="1"/>
       <c r="AE14" s="1"/>
       <c r="AF14" s="1"/>
@@ -3313,65 +3305,65 @@
       <c r="AM14" s="1"/>
       <c r="AN14" s="1"/>
       <c r="AO14" s="1"/>
-      <c r="AP14" s="36" t="s">
+      <c r="AP14" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="AQ14" s="36"/>
-      <c r="AR14" s="36" t="s">
+      <c r="AQ14" s="29"/>
+      <c r="AR14" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="AS14" s="36"/>
-      <c r="AT14" s="36"/>
-      <c r="AU14" s="36"/>
-      <c r="AV14" s="36"/>
-      <c r="AW14" s="36"/>
-      <c r="AX14" s="36"/>
-      <c r="AY14" s="36"/>
-      <c r="AZ14" s="36"/>
-      <c r="BA14" s="36"/>
-      <c r="BB14" s="36"/>
-      <c r="BC14" s="36"/>
-      <c r="BD14" s="36"/>
-      <c r="BE14" s="36"/>
-      <c r="BF14" s="36"/>
-      <c r="BG14" s="36"/>
-      <c r="BH14" s="36"/>
-      <c r="BI14" s="36"/>
+      <c r="AS14" s="29"/>
+      <c r="AT14" s="29"/>
+      <c r="AU14" s="29"/>
+      <c r="AV14" s="29"/>
+      <c r="AW14" s="29"/>
+      <c r="AX14" s="29"/>
+      <c r="AY14" s="29"/>
+      <c r="AZ14" s="29"/>
+      <c r="BA14" s="29"/>
+      <c r="BB14" s="29"/>
+      <c r="BC14" s="29"/>
+      <c r="BD14" s="29"/>
+      <c r="BE14" s="29"/>
+      <c r="BF14" s="29"/>
+      <c r="BG14" s="29"/>
+      <c r="BH14" s="29"/>
+      <c r="BI14" s="29"/>
       <c r="BJ14" s="1"/>
       <c r="BK14" s="1"/>
       <c r="BL14" s="1"/>
       <c r="BM14" s="1"/>
-      <c r="BN14" s="1"/>
-      <c r="BO14" s="1"/>
-      <c r="BP14" s="1"/>
-      <c r="BQ14" s="1"/>
-      <c r="BR14" s="1"/>
-      <c r="BS14" s="1"/>
-      <c r="BT14" s="1"/>
-      <c r="BU14" s="1"/>
-      <c r="BV14" s="1"/>
-      <c r="BW14" s="1"/>
-      <c r="BX14" s="1"/>
-      <c r="BY14" s="1"/>
-      <c r="BZ14" s="1"/>
-      <c r="CA14" s="1"/>
-      <c r="CB14" s="1"/>
-      <c r="CC14" s="1"/>
-      <c r="CD14" s="1"/>
-      <c r="CE14" s="1"/>
-      <c r="CF14" s="1"/>
-      <c r="CG14" s="1"/>
-      <c r="CH14" s="1"/>
-      <c r="CI14" s="1"/>
-      <c r="CJ14" s="1"/>
-      <c r="CK14" s="1"/>
-      <c r="CL14" s="1"/>
-      <c r="CM14" s="1"/>
-      <c r="CN14" s="1"/>
-      <c r="CO14" s="1"/>
+      <c r="BN14" s="14"/>
+      <c r="BO14" s="14"/>
+      <c r="BP14" s="14"/>
+      <c r="BQ14" s="14"/>
+      <c r="BR14" s="14"/>
+      <c r="BS14" s="14"/>
+      <c r="BT14" s="14"/>
+      <c r="BU14" s="14"/>
+      <c r="BV14" s="14"/>
+      <c r="BW14" s="14"/>
+      <c r="BX14" s="14"/>
+      <c r="BY14" s="14"/>
+      <c r="BZ14" s="14"/>
+      <c r="CA14" s="14"/>
+      <c r="CB14" s="14"/>
+      <c r="CC14" s="14"/>
+      <c r="CD14" s="14"/>
+      <c r="CE14" s="14"/>
+      <c r="CF14" s="14"/>
+      <c r="CG14" s="14"/>
+      <c r="CH14" s="14"/>
+      <c r="CI14" s="14"/>
+      <c r="CJ14" s="14"/>
+      <c r="CK14" s="14"/>
+      <c r="CL14" s="14"/>
+      <c r="CM14" s="14"/>
+      <c r="CN14" s="14"/>
+      <c r="CO14" s="14"/>
     </row>
-    <row r="15" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A15" s="27"/>
+    <row r="15" spans="1:109">
+      <c r="A15" s="34"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -3396,81 +3388,81 @@
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
-      <c r="Z15" s="25" t="s">
+      <c r="Z15" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="AA15" s="25"/>
-      <c r="AB15" s="25" t="s">
+      <c r="AA15" s="27"/>
+      <c r="AB15" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="AC15" s="25"/>
-      <c r="AD15" s="25"/>
-      <c r="AE15" s="25"/>
-      <c r="AF15" s="25"/>
-      <c r="AG15" s="25"/>
-      <c r="AH15" s="25"/>
-      <c r="AI15" s="25"/>
-      <c r="AJ15" s="25"/>
-      <c r="AK15" s="25"/>
-      <c r="AL15" s="25"/>
-      <c r="AM15" s="25"/>
-      <c r="AN15" s="25"/>
-      <c r="AO15" s="25"/>
-      <c r="AP15" s="25"/>
-      <c r="AQ15" s="25"/>
-      <c r="AR15" s="25"/>
-      <c r="AS15" s="25"/>
-      <c r="AT15" s="25"/>
-      <c r="AU15" s="25"/>
-      <c r="AV15" s="25"/>
-      <c r="AW15" s="25"/>
-      <c r="AX15" s="25"/>
-      <c r="AY15" s="25"/>
-      <c r="AZ15" s="25"/>
-      <c r="BA15" s="25"/>
-      <c r="BB15" s="25"/>
-      <c r="BC15" s="25"/>
-      <c r="BD15" s="25"/>
-      <c r="BE15" s="25"/>
-      <c r="BF15" s="25"/>
-      <c r="BG15" s="25"/>
-      <c r="BH15" s="25"/>
-      <c r="BI15" s="25"/>
-      <c r="BJ15" s="25"/>
-      <c r="BK15" s="25"/>
-      <c r="BL15" s="25"/>
-      <c r="BM15" s="25"/>
-      <c r="BN15" s="6"/>
-      <c r="BO15" s="6"/>
-      <c r="BP15" s="6"/>
-      <c r="BQ15" s="6"/>
-      <c r="BR15" s="6"/>
-      <c r="BS15" s="6"/>
-      <c r="BT15" s="6"/>
-      <c r="BU15" s="6"/>
-      <c r="BV15" s="6"/>
-      <c r="BW15" s="6"/>
-      <c r="BX15" s="6"/>
-      <c r="BY15" s="6"/>
-      <c r="BZ15" s="6"/>
-      <c r="CA15" s="6"/>
-      <c r="CB15" s="6"/>
-      <c r="CC15" s="6"/>
-      <c r="CD15" s="6"/>
-      <c r="CE15" s="6"/>
-      <c r="CF15" s="6"/>
-      <c r="CG15" s="6"/>
-      <c r="CH15" s="6"/>
-      <c r="CI15" s="6"/>
-      <c r="CJ15" s="6"/>
-      <c r="CK15" s="6"/>
-      <c r="CL15" s="6"/>
-      <c r="CM15" s="6"/>
-      <c r="CN15" s="6"/>
-      <c r="CO15" s="6"/>
+      <c r="AC15" s="27"/>
+      <c r="AD15" s="27"/>
+      <c r="AE15" s="27"/>
+      <c r="AF15" s="27"/>
+      <c r="AG15" s="27"/>
+      <c r="AH15" s="27"/>
+      <c r="AI15" s="27"/>
+      <c r="AJ15" s="27"/>
+      <c r="AK15" s="27"/>
+      <c r="AL15" s="27"/>
+      <c r="AM15" s="27"/>
+      <c r="AN15" s="27"/>
+      <c r="AO15" s="27"/>
+      <c r="AP15" s="27"/>
+      <c r="AQ15" s="27"/>
+      <c r="AR15" s="27"/>
+      <c r="AS15" s="27"/>
+      <c r="AT15" s="27"/>
+      <c r="AU15" s="27"/>
+      <c r="AV15" s="27"/>
+      <c r="AW15" s="27"/>
+      <c r="AX15" s="27"/>
+      <c r="AY15" s="27"/>
+      <c r="AZ15" s="27"/>
+      <c r="BA15" s="27"/>
+      <c r="BB15" s="27"/>
+      <c r="BC15" s="27"/>
+      <c r="BD15" s="27"/>
+      <c r="BE15" s="27"/>
+      <c r="BF15" s="27"/>
+      <c r="BG15" s="27"/>
+      <c r="BH15" s="27"/>
+      <c r="BI15" s="27"/>
+      <c r="BJ15" s="27"/>
+      <c r="BK15" s="27"/>
+      <c r="BL15" s="27"/>
+      <c r="BM15" s="27"/>
+      <c r="BN15" s="40"/>
+      <c r="BO15" s="40"/>
+      <c r="BP15" s="40"/>
+      <c r="BQ15" s="40"/>
+      <c r="BR15" s="40"/>
+      <c r="BS15" s="40"/>
+      <c r="BT15" s="40"/>
+      <c r="BU15" s="40"/>
+      <c r="BV15" s="40"/>
+      <c r="BW15" s="40"/>
+      <c r="BX15" s="40"/>
+      <c r="BY15" s="40"/>
+      <c r="BZ15" s="40"/>
+      <c r="CA15" s="40"/>
+      <c r="CB15" s="40"/>
+      <c r="CC15" s="40"/>
+      <c r="CD15" s="40"/>
+      <c r="CE15" s="40"/>
+      <c r="CF15" s="40"/>
+      <c r="CG15" s="40"/>
+      <c r="CH15" s="40"/>
+      <c r="CI15" s="40"/>
+      <c r="CJ15" s="40"/>
+      <c r="CK15" s="40"/>
+      <c r="CL15" s="40"/>
+      <c r="CM15" s="40"/>
+      <c r="CN15" s="40"/>
+      <c r="CO15" s="40"/>
     </row>
-    <row r="16" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A16" s="27"/>
+    <row r="16" spans="1:109">
+      <c r="A16" s="34"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -3564,8 +3556,8 @@
       <c r="CN16" s="1"/>
       <c r="CO16" s="1"/>
     </row>
-    <row r="17" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A17" s="27"/>
+    <row r="17" spans="1:109">
+      <c r="A17" s="34"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -3659,8 +3651,8 @@
       <c r="CN17" s="1"/>
       <c r="CO17" s="1"/>
     </row>
-    <row r="18" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A18" s="27"/>
+    <row r="18" spans="1:109">
+      <c r="A18" s="34"/>
       <c r="B18" s="1" t="str">
         <f t="shared" ref="B18:AG18" si="4">MID($DE$19,B1+1,1)</f>
         <v>&lt;</v>
@@ -3946,186 +3938,186 @@
       <c r="CN18" s="1"/>
       <c r="CO18" s="1"/>
     </row>
-    <row r="19" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A19" s="27"/>
-      <c r="B19" s="8" t="s">
+    <row r="19" spans="1:109">
+      <c r="A19" s="34"/>
+      <c r="B19" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="6">
         <v>0</v>
       </c>
-      <c r="D19" s="14">
+      <c r="D19" s="12">
         <v>32</v>
       </c>
-      <c r="E19" s="14">
+      <c r="E19" s="12">
         <v>0</v>
       </c>
-      <c r="F19" s="14">
+      <c r="F19" s="12">
         <v>0</v>
       </c>
-      <c r="G19" s="14" t="s">
+      <c r="G19" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H19" s="14">
+      <c r="H19" s="12">
         <v>5</v>
       </c>
-      <c r="I19" s="14">
+      <c r="I19" s="12">
         <v>0</v>
       </c>
-      <c r="J19" s="14" t="s">
+      <c r="J19" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="K19" s="14">
+      <c r="K19" s="12">
         <v>38</v>
       </c>
-      <c r="L19" s="14">
+      <c r="L19" s="12">
         <v>48</v>
       </c>
-      <c r="M19" s="14" t="s">
+      <c r="M19" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="N19" s="21">
+      <c r="N19" s="19">
         <v>20</v>
       </c>
-      <c r="O19" s="21">
+      <c r="O19" s="19">
         <v>0</v>
       </c>
-      <c r="P19" s="10">
+      <c r="P19" s="8">
         <v>63</v>
       </c>
-      <c r="Q19" s="10" t="s">
+      <c r="Q19" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="R19" s="10">
+      <c r="R19" s="8">
         <v>64</v>
       </c>
-      <c r="S19" s="10" t="s">
+      <c r="S19" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="T19" s="10">
+      <c r="T19" s="8">
         <v>65</v>
       </c>
-      <c r="U19" s="10">
+      <c r="U19" s="8">
         <v>78</v>
       </c>
-      <c r="V19" s="10">
+      <c r="V19" s="8">
         <v>65</v>
       </c>
-      <c r="W19" s="10">
+      <c r="W19" s="8">
         <v>0</v>
       </c>
-      <c r="X19" s="11">
+      <c r="X19" s="9">
         <v>26</v>
       </c>
-      <c r="Y19" s="11">
+      <c r="Y19" s="9">
         <v>0</v>
       </c>
-      <c r="Z19" s="12">
+      <c r="Z19" s="10">
         <v>3</v>
       </c>
-      <c r="AA19" s="12">
+      <c r="AA19" s="10">
         <v>0</v>
       </c>
-      <c r="AB19" s="12">
+      <c r="AB19" s="10">
         <v>4</v>
       </c>
-      <c r="AC19" s="12">
+      <c r="AC19" s="10">
         <v>0</v>
       </c>
-      <c r="AD19" s="12" t="s">
+      <c r="AD19" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="AE19" s="12" t="s">
+      <c r="AE19" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="AF19" s="12">
+      <c r="AF19" s="10">
         <v>3</v>
       </c>
-      <c r="AG19" s="12">
+      <c r="AG19" s="10">
         <v>31</v>
       </c>
-      <c r="AH19" s="12">
+      <c r="AH19" s="10">
         <v>19</v>
       </c>
-      <c r="AI19" s="12" t="s">
+      <c r="AI19" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="AJ19" s="12">
+      <c r="AJ19" s="10">
         <v>34</v>
       </c>
-      <c r="AK19" s="12" t="s">
+      <c r="AK19" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="AL19" s="13">
+      <c r="AL19" s="11">
         <v>43</v>
       </c>
-      <c r="AM19" s="13">
+      <c r="AM19" s="11">
         <v>61</v>
       </c>
-      <c r="AN19" s="13">
+      <c r="AN19" s="11">
         <v>14</v>
       </c>
-      <c r="AO19" s="13">
+      <c r="AO19" s="11">
         <v>0</v>
       </c>
-      <c r="AP19" s="13">
+      <c r="AP19" s="11">
         <v>0</v>
       </c>
-      <c r="AQ19" s="13">
+      <c r="AQ19" s="11">
         <v>0</v>
       </c>
-      <c r="AR19" s="10">
+      <c r="AR19" s="8">
         <v>63</v>
       </c>
-      <c r="AS19" s="10">
+      <c r="AS19" s="8">
         <v>0</v>
       </c>
-      <c r="AT19" s="10" t="s">
+      <c r="AT19" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AU19" s="10">
+      <c r="AU19" s="8">
         <v>0</v>
       </c>
-      <c r="AV19" s="10">
+      <c r="AV19" s="8">
         <v>64</v>
       </c>
-      <c r="AW19" s="10">
+      <c r="AW19" s="8">
         <v>0</v>
       </c>
-      <c r="AX19" s="10" t="s">
+      <c r="AX19" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="AY19" s="10">
+      <c r="AY19" s="8">
         <v>0</v>
       </c>
-      <c r="AZ19" s="10">
+      <c r="AZ19" s="8">
         <v>65</v>
       </c>
-      <c r="BA19" s="10">
+      <c r="BA19" s="8">
         <v>0</v>
       </c>
-      <c r="BB19" s="10">
+      <c r="BB19" s="8">
         <v>78</v>
       </c>
-      <c r="BC19" s="10">
+      <c r="BC19" s="8">
         <v>0</v>
       </c>
-      <c r="BD19" s="10">
+      <c r="BD19" s="8">
         <v>65</v>
       </c>
-      <c r="BE19" s="10">
+      <c r="BE19" s="8">
         <v>0</v>
       </c>
-      <c r="BF19" s="10">
+      <c r="BF19" s="8">
         <v>0</v>
       </c>
-      <c r="BG19" s="10">
+      <c r="BG19" s="8">
         <v>0</v>
       </c>
-      <c r="BH19" s="8">
+      <c r="BH19" s="6">
         <v>16</v>
       </c>
-      <c r="BI19" s="8">
+      <c r="BI19" s="6">
         <v>0</v>
       </c>
       <c r="BJ19" s="1"/>
@@ -4164,72 +4156,72 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A20" s="27"/>
-      <c r="B20" s="31" t="s">
+    <row r="20" spans="1:109">
+      <c r="A20" s="34"/>
+      <c r="B20" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32" t="s">
+      <c r="C20" s="24"/>
+      <c r="D20" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="32"/>
-      <c r="M20" s="32"/>
-      <c r="N20" s="32"/>
-      <c r="O20" s="32"/>
-      <c r="P20" s="32"/>
-      <c r="Q20" s="32"/>
-      <c r="R20" s="32"/>
-      <c r="S20" s="32"/>
-      <c r="T20" s="32"/>
-      <c r="U20" s="32"/>
-      <c r="V20" s="32"/>
-      <c r="W20" s="32"/>
-      <c r="X20" s="32"/>
-      <c r="Y20" s="32"/>
-      <c r="Z20" s="32"/>
-      <c r="AA20" s="32"/>
-      <c r="AB20" s="32"/>
-      <c r="AC20" s="32"/>
-      <c r="AD20" s="32"/>
-      <c r="AE20" s="32"/>
-      <c r="AF20" s="32"/>
-      <c r="AG20" s="32"/>
-      <c r="AH20" s="32"/>
-      <c r="AI20" s="32"/>
-      <c r="AJ20" s="32"/>
-      <c r="AK20" s="32"/>
-      <c r="AL20" s="32"/>
-      <c r="AM20" s="32"/>
-      <c r="AN20" s="32"/>
-      <c r="AO20" s="32"/>
-      <c r="AP20" s="32"/>
-      <c r="AQ20" s="32"/>
-      <c r="AR20" s="32"/>
-      <c r="AS20" s="32"/>
-      <c r="AT20" s="32"/>
-      <c r="AU20" s="32"/>
-      <c r="AV20" s="32"/>
-      <c r="AW20" s="32"/>
-      <c r="AX20" s="32"/>
-      <c r="AY20" s="32"/>
-      <c r="AZ20" s="32"/>
-      <c r="BA20" s="32"/>
-      <c r="BB20" s="32"/>
-      <c r="BC20" s="32"/>
-      <c r="BD20" s="32"/>
-      <c r="BE20" s="32"/>
-      <c r="BF20" s="32"/>
-      <c r="BG20" s="32"/>
-      <c r="BH20" s="32"/>
-      <c r="BI20" s="32"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="24"/>
+      <c r="O20" s="24"/>
+      <c r="P20" s="24"/>
+      <c r="Q20" s="24"/>
+      <c r="R20" s="24"/>
+      <c r="S20" s="24"/>
+      <c r="T20" s="24"/>
+      <c r="U20" s="24"/>
+      <c r="V20" s="24"/>
+      <c r="W20" s="24"/>
+      <c r="X20" s="24"/>
+      <c r="Y20" s="24"/>
+      <c r="Z20" s="24"/>
+      <c r="AA20" s="24"/>
+      <c r="AB20" s="24"/>
+      <c r="AC20" s="24"/>
+      <c r="AD20" s="24"/>
+      <c r="AE20" s="24"/>
+      <c r="AF20" s="24"/>
+      <c r="AG20" s="24"/>
+      <c r="AH20" s="24"/>
+      <c r="AI20" s="24"/>
+      <c r="AJ20" s="24"/>
+      <c r="AK20" s="24"/>
+      <c r="AL20" s="24"/>
+      <c r="AM20" s="24"/>
+      <c r="AN20" s="24"/>
+      <c r="AO20" s="24"/>
+      <c r="AP20" s="24"/>
+      <c r="AQ20" s="24"/>
+      <c r="AR20" s="24"/>
+      <c r="AS20" s="24"/>
+      <c r="AT20" s="24"/>
+      <c r="AU20" s="24"/>
+      <c r="AV20" s="24"/>
+      <c r="AW20" s="24"/>
+      <c r="AX20" s="24"/>
+      <c r="AY20" s="24"/>
+      <c r="AZ20" s="24"/>
+      <c r="BA20" s="24"/>
+      <c r="BB20" s="24"/>
+      <c r="BC20" s="24"/>
+      <c r="BD20" s="24"/>
+      <c r="BE20" s="24"/>
+      <c r="BF20" s="24"/>
+      <c r="BG20" s="24"/>
+      <c r="BH20" s="24"/>
+      <c r="BI20" s="24"/>
       <c r="BJ20" s="1"/>
       <c r="BK20" s="1"/>
       <c r="BL20" s="1"/>
@@ -4263,101 +4255,101 @@
       <c r="CN20" s="1"/>
       <c r="CO20" s="1"/>
     </row>
-    <row r="21" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A21" s="27"/>
-      <c r="X21" s="24" t="s">
+    <row r="21" spans="1:109">
+      <c r="A21" s="34"/>
+      <c r="X21" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="Y21" s="24"/>
-      <c r="Z21" s="24" t="s">
+      <c r="Y21" s="30"/>
+      <c r="Z21" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="AA21" s="24"/>
-      <c r="AB21" s="24"/>
-      <c r="AC21" s="24"/>
-      <c r="AD21" s="24"/>
-      <c r="AE21" s="24"/>
-      <c r="AF21" s="24"/>
-      <c r="AG21" s="24"/>
-      <c r="AH21" s="24"/>
-      <c r="AI21" s="24"/>
-      <c r="AJ21" s="24"/>
-      <c r="AK21" s="24"/>
-      <c r="AL21" s="24"/>
-      <c r="AM21" s="24"/>
-      <c r="AN21" s="24"/>
-      <c r="AO21" s="24"/>
-      <c r="AP21" s="24"/>
-      <c r="AQ21" s="24"/>
-      <c r="AR21" s="24"/>
-      <c r="AS21" s="24"/>
-      <c r="AT21" s="25"/>
-      <c r="AU21" s="25"/>
-      <c r="AV21" s="25"/>
-      <c r="AW21" s="25"/>
-      <c r="AX21" s="25"/>
-      <c r="AY21" s="25"/>
-      <c r="AZ21" s="25"/>
-      <c r="BA21" s="25"/>
-      <c r="BB21" s="25"/>
-      <c r="BC21" s="25"/>
-      <c r="BD21" s="25"/>
-      <c r="BE21" s="25"/>
-      <c r="BF21" s="25"/>
-      <c r="BG21" s="25"/>
-      <c r="BH21" s="25"/>
-      <c r="BI21" s="25"/>
+      <c r="AA21" s="30"/>
+      <c r="AB21" s="30"/>
+      <c r="AC21" s="30"/>
+      <c r="AD21" s="30"/>
+      <c r="AE21" s="30"/>
+      <c r="AF21" s="30"/>
+      <c r="AG21" s="30"/>
+      <c r="AH21" s="30"/>
+      <c r="AI21" s="30"/>
+      <c r="AJ21" s="30"/>
+      <c r="AK21" s="30"/>
+      <c r="AL21" s="30"/>
+      <c r="AM21" s="30"/>
+      <c r="AN21" s="30"/>
+      <c r="AO21" s="30"/>
+      <c r="AP21" s="30"/>
+      <c r="AQ21" s="30"/>
+      <c r="AR21" s="30"/>
+      <c r="AS21" s="30"/>
+      <c r="AT21" s="27"/>
+      <c r="AU21" s="27"/>
+      <c r="AV21" s="27"/>
+      <c r="AW21" s="27"/>
+      <c r="AX21" s="27"/>
+      <c r="AY21" s="27"/>
+      <c r="AZ21" s="27"/>
+      <c r="BA21" s="27"/>
+      <c r="BB21" s="27"/>
+      <c r="BC21" s="27"/>
+      <c r="BD21" s="27"/>
+      <c r="BE21" s="27"/>
+      <c r="BF21" s="27"/>
+      <c r="BG21" s="27"/>
+      <c r="BH21" s="27"/>
+      <c r="BI21" s="27"/>
     </row>
-    <row r="22" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A22" s="27"/>
-      <c r="N22" s="33" t="s">
+    <row r="22" spans="1:109">
+      <c r="A22" s="34"/>
+      <c r="N22" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="O22" s="33"/>
-      <c r="P22" s="34" t="s">
+      <c r="O22" s="26"/>
+      <c r="P22" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="Q22" s="34"/>
-      <c r="R22" s="34"/>
-      <c r="S22" s="34"/>
-      <c r="T22" s="34"/>
-      <c r="U22" s="34"/>
-      <c r="V22" s="34"/>
-      <c r="W22" s="34"/>
-      <c r="X22" s="34"/>
-      <c r="Y22" s="34"/>
-      <c r="Z22" s="34"/>
-      <c r="AA22" s="34"/>
-      <c r="AB22" s="34"/>
-      <c r="AC22" s="34"/>
-      <c r="AD22" s="34"/>
-      <c r="AE22" s="34"/>
-      <c r="AF22" s="34"/>
-      <c r="AG22" s="34"/>
-      <c r="AH22" s="34"/>
-      <c r="AI22" s="34"/>
-      <c r="AJ22" s="34"/>
-      <c r="AK22" s="34"/>
-      <c r="AL22" s="34"/>
-      <c r="AM22" s="34"/>
-      <c r="AN22" s="34"/>
-      <c r="AO22" s="34"/>
-      <c r="AP22" s="34"/>
-      <c r="AQ22" s="34"/>
-      <c r="AR22" s="34"/>
-      <c r="AS22" s="34"/>
+      <c r="Q22" s="31"/>
+      <c r="R22" s="31"/>
+      <c r="S22" s="31"/>
+      <c r="T22" s="31"/>
+      <c r="U22" s="31"/>
+      <c r="V22" s="31"/>
+      <c r="W22" s="31"/>
+      <c r="X22" s="31"/>
+      <c r="Y22" s="31"/>
+      <c r="Z22" s="31"/>
+      <c r="AA22" s="31"/>
+      <c r="AB22" s="31"/>
+      <c r="AC22" s="31"/>
+      <c r="AD22" s="31"/>
+      <c r="AE22" s="31"/>
+      <c r="AF22" s="31"/>
+      <c r="AG22" s="31"/>
+      <c r="AH22" s="31"/>
+      <c r="AI22" s="31"/>
+      <c r="AJ22" s="31"/>
+      <c r="AK22" s="31"/>
+      <c r="AL22" s="31"/>
+      <c r="AM22" s="31"/>
+      <c r="AN22" s="31"/>
+      <c r="AO22" s="31"/>
+      <c r="AP22" s="31"/>
+      <c r="AQ22" s="31"/>
+      <c r="AR22" s="31"/>
+      <c r="AS22" s="31"/>
     </row>
-    <row r="23" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A23" s="28"/>
+    <row r="23" spans="1:109">
+      <c r="A23" s="35"/>
     </row>
-    <row r="24" spans="1:109" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:109" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="35" t="s">
+    <row r="24" spans="1:109" s="5" customFormat="1" ht="15" customHeight="1"/>
+    <row r="25" spans="1:109" ht="15" customHeight="1">
+      <c r="A25" s="32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A26" s="35"/>
+    <row r="26" spans="1:109">
+      <c r="A26" s="32"/>
       <c r="B26" t="str">
         <f>MID($DE$27,B1+1,1)</f>
         <v>R</v>
@@ -4743,333 +4735,333 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A27" s="35"/>
-      <c r="B27" s="18" t="str">
+    <row r="27" spans="1:109">
+      <c r="A27" s="32"/>
+      <c r="B27" s="16" t="str">
         <f t="shared" ref="B27:Q27" si="8">MID($DD$27,(B1*3)+1,2)</f>
         <v>52</v>
       </c>
-      <c r="C27" s="18" t="str">
+      <c r="C27" s="16" t="str">
         <f t="shared" si="8"/>
         <v>00</v>
       </c>
-      <c r="D27" s="14" t="str">
+      <c r="D27" s="12" t="str">
         <f t="shared" si="8"/>
         <v>31</v>
       </c>
-      <c r="E27" s="14" t="str">
+      <c r="E27" s="12" t="str">
         <f t="shared" si="8"/>
         <v>00</v>
       </c>
-      <c r="F27" s="14" t="str">
+      <c r="F27" s="12" t="str">
         <f t="shared" si="8"/>
         <v>00</v>
       </c>
-      <c r="G27" s="14" t="str">
+      <c r="G27" s="12" t="str">
         <f t="shared" si="8"/>
         <v>00</v>
       </c>
-      <c r="H27" s="14" t="str">
+      <c r="H27" s="12" t="str">
         <f t="shared" si="8"/>
         <v>00</v>
       </c>
-      <c r="I27" s="14" t="str">
+      <c r="I27" s="12" t="str">
         <f t="shared" si="8"/>
         <v>00</v>
       </c>
-      <c r="J27" s="14" t="str">
+      <c r="J27" s="12" t="str">
         <f t="shared" si="8"/>
         <v>29</v>
       </c>
-      <c r="K27" s="14" t="str">
+      <c r="K27" s="12" t="str">
         <f t="shared" si="8"/>
         <v>4c</v>
       </c>
-      <c r="L27" s="14" t="str">
+      <c r="L27" s="12" t="str">
         <f t="shared" si="8"/>
         <v>19</v>
       </c>
-      <c r="M27" s="14" t="str">
+      <c r="M27" s="12" t="str">
         <f t="shared" si="8"/>
         <v>64</v>
       </c>
-      <c r="N27" s="21" t="str">
+      <c r="N27" s="19" t="str">
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
-      <c r="O27" s="21" t="str">
+      <c r="O27" s="19" t="str">
         <f t="shared" si="8"/>
         <v>00</v>
       </c>
-      <c r="P27" s="10" t="str">
+      <c r="P27" s="8" t="str">
         <f t="shared" si="8"/>
         <v>57</v>
       </c>
-      <c r="Q27" s="10" t="str">
+      <c r="Q27" s="8" t="str">
         <f t="shared" si="8"/>
         <v>69</v>
       </c>
-      <c r="R27" s="10" t="str">
+      <c r="R27" s="8" t="str">
         <f t="shared" ref="R27:CC27" si="9">MID($DD$27,(R1*3)+1,2)</f>
         <v>6e</v>
       </c>
-      <c r="S27" s="10" t="str">
+      <c r="S27" s="8" t="str">
         <f t="shared" si="9"/>
         <v>64</v>
       </c>
-      <c r="T27" s="10" t="str">
+      <c r="T27" s="8" t="str">
         <f t="shared" si="9"/>
         <v>6f</v>
       </c>
-      <c r="U27" s="10" t="str">
+      <c r="U27" s="8" t="str">
         <f t="shared" si="9"/>
         <v>77</v>
       </c>
-      <c r="V27" s="10" t="str">
+      <c r="V27" s="8" t="str">
         <f t="shared" si="9"/>
         <v>73</v>
       </c>
-      <c r="W27" s="10" t="str">
+      <c r="W27" s="8" t="str">
         <f t="shared" si="9"/>
         <v>00</v>
       </c>
-      <c r="X27" s="11" t="str">
+      <c r="X27" s="9" t="str">
         <f t="shared" si="9"/>
         <v>3c</v>
       </c>
-      <c r="Y27" s="11" t="str">
+      <c r="Y27" s="9" t="str">
         <f t="shared" si="9"/>
         <v>00</v>
       </c>
-      <c r="Z27" s="20" t="str">
+      <c r="Z27" s="18" t="str">
         <f t="shared" si="9"/>
         <v>08</v>
       </c>
-      <c r="AA27" s="20" t="str">
+      <c r="AA27" s="18" t="str">
         <f t="shared" si="9"/>
         <v>00</v>
       </c>
-      <c r="AB27" s="20" t="str">
+      <c r="AB27" s="18" t="str">
         <f t="shared" si="9"/>
         <v>04</v>
       </c>
-      <c r="AC27" s="20" t="str">
+      <c r="AC27" s="18" t="str">
         <f t="shared" si="9"/>
         <v>00</v>
       </c>
-      <c r="AD27" s="20" t="str">
+      <c r="AD27" s="18" t="str">
         <f t="shared" si="9"/>
         <v>ef</v>
       </c>
-      <c r="AE27" s="20" t="str">
+      <c r="AE27" s="18" t="str">
         <f t="shared" si="9"/>
         <v>be</v>
       </c>
-      <c r="AF27" s="20" t="str">
+      <c r="AF27" s="18" t="str">
         <f t="shared" si="9"/>
         <v>ee</v>
       </c>
-      <c r="AG27" s="20" t="str">
+      <c r="AG27" s="18" t="str">
         <f t="shared" si="9"/>
         <v>3a</v>
       </c>
-      <c r="AH27" s="18" t="str">
+      <c r="AH27" s="16" t="str">
         <f t="shared" si="9"/>
         <v>85</v>
       </c>
-      <c r="AI27" s="18" t="str">
+      <c r="AI27" s="16" t="str">
         <f t="shared" si="9"/>
         <v>1a</v>
       </c>
-      <c r="AJ27" s="18" t="str">
+      <c r="AJ27" s="16" t="str">
         <f t="shared" si="9"/>
         <v>29</v>
       </c>
-      <c r="AK27" s="18" t="str">
+      <c r="AK27" s="16" t="str">
         <f t="shared" si="9"/>
         <v>4c</v>
       </c>
-      <c r="AL27" s="18" t="str">
+      <c r="AL27" s="16" t="str">
         <f t="shared" si="9"/>
         <v>19</v>
       </c>
-      <c r="AM27" s="18" t="str">
+      <c r="AM27" s="16" t="str">
         <f t="shared" si="9"/>
         <v>64</v>
       </c>
-      <c r="AN27" s="18" t="str">
+      <c r="AN27" s="16" t="str">
         <f t="shared" si="9"/>
         <v>2a</v>
       </c>
-      <c r="AO27" s="18" t="str">
+      <c r="AO27" s="16" t="str">
         <f t="shared" si="9"/>
         <v>00</v>
       </c>
-      <c r="AP27" s="18" t="str">
+      <c r="AP27" s="16" t="str">
         <f t="shared" si="9"/>
         <v>00</v>
       </c>
-      <c r="AQ27" s="18" t="str">
+      <c r="AQ27" s="16" t="str">
         <f t="shared" si="9"/>
         <v>00</v>
       </c>
-      <c r="AR27" s="18" t="str">
+      <c r="AR27" s="16" t="str">
         <f t="shared" si="9"/>
         <v>e4</v>
       </c>
-      <c r="AS27" s="18" t="str">
+      <c r="AS27" s="16" t="str">
         <f t="shared" si="9"/>
         <v>29</v>
       </c>
-      <c r="AT27" s="18" t="str">
+      <c r="AT27" s="16" t="str">
         <f t="shared" si="9"/>
         <v>00</v>
       </c>
-      <c r="AU27" s="18" t="str">
+      <c r="AU27" s="16" t="str">
         <f t="shared" si="9"/>
         <v>00</v>
       </c>
-      <c r="AV27" s="18" t="str">
+      <c r="AV27" s="16" t="str">
         <f t="shared" si="9"/>
         <v>00</v>
       </c>
-      <c r="AW27" s="18" t="str">
+      <c r="AW27" s="16" t="str">
         <f t="shared" si="9"/>
         <v>00</v>
       </c>
-      <c r="AX27" s="18" t="str">
+      <c r="AX27" s="16" t="str">
         <f t="shared" si="9"/>
         <v>01</v>
       </c>
-      <c r="AY27" s="18" t="str">
+      <c r="AY27" s="16" t="str">
         <f t="shared" si="9"/>
         <v>00</v>
       </c>
-      <c r="AZ27" s="18" t="str">
+      <c r="AZ27" s="16" t="str">
         <f t="shared" si="9"/>
         <v>00</v>
       </c>
-      <c r="BA27" s="18" t="str">
+      <c r="BA27" s="16" t="str">
         <f t="shared" si="9"/>
         <v>00</v>
       </c>
-      <c r="BB27" s="18" t="str">
+      <c r="BB27" s="16" t="str">
         <f t="shared" si="9"/>
         <v>00</v>
       </c>
-      <c r="BC27" s="18" t="str">
+      <c r="BC27" s="16" t="str">
         <f t="shared" si="9"/>
         <v>00</v>
       </c>
-      <c r="BD27" s="18" t="str">
+      <c r="BD27" s="16" t="str">
         <f t="shared" si="9"/>
         <v>00</v>
       </c>
-      <c r="BE27" s="18" t="str">
+      <c r="BE27" s="16" t="str">
         <f t="shared" si="9"/>
         <v>00</v>
       </c>
-      <c r="BF27" s="18" t="str">
+      <c r="BF27" s="16" t="str">
         <f t="shared" si="9"/>
         <v>00</v>
       </c>
-      <c r="BG27" s="18" t="str">
+      <c r="BG27" s="16" t="str">
         <f t="shared" si="9"/>
         <v>00</v>
       </c>
-      <c r="BH27" s="18" t="str">
+      <c r="BH27" s="16" t="str">
         <f t="shared" si="9"/>
         <v>00</v>
       </c>
-      <c r="BI27" s="18" t="str">
+      <c r="BI27" s="16" t="str">
         <f t="shared" si="9"/>
         <v>00</v>
       </c>
-      <c r="BJ27" s="18" t="str">
+      <c r="BJ27" s="16" t="str">
         <f t="shared" si="9"/>
         <v>00</v>
       </c>
-      <c r="BK27" s="18" t="str">
+      <c r="BK27" s="16" t="str">
         <f t="shared" si="9"/>
         <v>00</v>
       </c>
-      <c r="BL27" s="18" t="str">
+      <c r="BL27" s="16" t="str">
         <f t="shared" si="9"/>
         <v>00</v>
       </c>
-      <c r="BM27" s="18" t="str">
+      <c r="BM27" s="16" t="str">
         <f t="shared" si="9"/>
         <v>00</v>
       </c>
-      <c r="BN27" s="10" t="str">
+      <c r="BN27" s="8" t="str">
         <f t="shared" si="9"/>
         <v>57</v>
       </c>
-      <c r="BO27" s="10" t="str">
+      <c r="BO27" s="8" t="str">
         <f t="shared" si="9"/>
         <v>00</v>
       </c>
-      <c r="BP27" s="10" t="str">
+      <c r="BP27" s="8" t="str">
         <f t="shared" si="9"/>
         <v>69</v>
       </c>
-      <c r="BQ27" s="10" t="str">
+      <c r="BQ27" s="8" t="str">
         <f t="shared" si="9"/>
         <v>00</v>
       </c>
-      <c r="BR27" s="10" t="str">
+      <c r="BR27" s="8" t="str">
         <f t="shared" si="9"/>
         <v>6e</v>
       </c>
-      <c r="BS27" s="10" t="str">
+      <c r="BS27" s="8" t="str">
         <f t="shared" si="9"/>
         <v>00</v>
       </c>
-      <c r="BT27" s="10" t="str">
+      <c r="BT27" s="8" t="str">
         <f t="shared" si="9"/>
         <v>64</v>
       </c>
-      <c r="BU27" s="10" t="str">
+      <c r="BU27" s="8" t="str">
         <f t="shared" si="9"/>
         <v>00</v>
       </c>
-      <c r="BV27" s="10" t="str">
+      <c r="BV27" s="8" t="str">
         <f t="shared" si="9"/>
         <v>6f</v>
       </c>
-      <c r="BW27" s="10" t="str">
+      <c r="BW27" s="8" t="str">
         <f t="shared" si="9"/>
         <v>00</v>
       </c>
-      <c r="BX27" s="10" t="str">
+      <c r="BX27" s="8" t="str">
         <f t="shared" si="9"/>
         <v>77</v>
       </c>
-      <c r="BY27" s="10" t="str">
+      <c r="BY27" s="8" t="str">
         <f t="shared" si="9"/>
         <v>00</v>
       </c>
-      <c r="BZ27" s="10" t="str">
+      <c r="BZ27" s="8" t="str">
         <f t="shared" si="9"/>
         <v>73</v>
       </c>
-      <c r="CA27" s="10" t="str">
+      <c r="CA27" s="8" t="str">
         <f t="shared" si="9"/>
         <v>00</v>
       </c>
-      <c r="CB27" s="10" t="str">
+      <c r="CB27" s="8" t="str">
         <f t="shared" si="9"/>
         <v>00</v>
       </c>
-      <c r="CC27" s="10" t="str">
+      <c r="CC27" s="8" t="str">
         <f t="shared" si="9"/>
         <v>00</v>
       </c>
-      <c r="CD27" s="18" t="str">
+      <c r="CD27" s="16" t="str">
         <f t="shared" ref="CD27:CS27" si="10">MID($DD$27,(CD1*3)+1,2)</f>
         <v>16</v>
       </c>
-      <c r="CE27" s="18" t="str">
+      <c r="CE27" s="16" t="str">
         <f t="shared" si="10"/>
         <v>00</v>
       </c>
@@ -5176,219 +5168,219 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A28" s="35"/>
-      <c r="B28" s="31" t="s">
+    <row r="28" spans="1:109">
+      <c r="A28" s="32"/>
+      <c r="B28" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32" t="s">
+      <c r="C28" s="24"/>
+      <c r="D28" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="32"/>
-      <c r="J28" s="32"/>
-      <c r="K28" s="32"/>
-      <c r="L28" s="32"/>
-      <c r="M28" s="32"/>
-      <c r="N28" s="32"/>
-      <c r="O28" s="32"/>
-      <c r="P28" s="32"/>
-      <c r="Q28" s="32"/>
-      <c r="R28" s="32"/>
-      <c r="S28" s="32"/>
-      <c r="T28" s="32"/>
-      <c r="U28" s="32"/>
-      <c r="V28" s="32"/>
-      <c r="W28" s="32"/>
-      <c r="X28" s="32"/>
-      <c r="Y28" s="32"/>
-      <c r="Z28" s="32"/>
-      <c r="AA28" s="32"/>
-      <c r="AB28" s="32"/>
-      <c r="AC28" s="32"/>
-      <c r="AD28" s="32"/>
-      <c r="AE28" s="32"/>
-      <c r="AF28" s="32"/>
-      <c r="AG28" s="32"/>
-      <c r="AH28" s="32"/>
-      <c r="AI28" s="32"/>
-      <c r="AJ28" s="32"/>
-      <c r="AK28" s="32"/>
-      <c r="AL28" s="32"/>
-      <c r="AM28" s="32"/>
-      <c r="AN28" s="32"/>
-      <c r="AO28" s="32"/>
-      <c r="AP28" s="32"/>
-      <c r="AQ28" s="32"/>
-      <c r="AR28" s="32"/>
-      <c r="AS28" s="32"/>
-      <c r="AT28" s="32"/>
-      <c r="AU28" s="32"/>
-      <c r="AV28" s="32"/>
-      <c r="AW28" s="32"/>
-      <c r="AX28" s="32"/>
-      <c r="AY28" s="32"/>
-      <c r="AZ28" s="32"/>
-      <c r="BA28" s="32"/>
-      <c r="BB28" s="32"/>
-      <c r="BC28" s="32"/>
-      <c r="BD28" s="32"/>
-      <c r="BE28" s="32"/>
-      <c r="BF28" s="32"/>
-      <c r="BG28" s="32"/>
-      <c r="BH28" s="32"/>
-      <c r="BI28" s="32"/>
-      <c r="BJ28" s="32"/>
-      <c r="BK28" s="32"/>
-      <c r="BL28" s="32"/>
-      <c r="BM28" s="32"/>
-      <c r="BN28" s="32"/>
-      <c r="BO28" s="32"/>
-      <c r="BP28" s="32"/>
-      <c r="BQ28" s="32"/>
-      <c r="BR28" s="32"/>
-      <c r="BS28" s="32"/>
-      <c r="BT28" s="32"/>
-      <c r="BU28" s="32"/>
-      <c r="BV28" s="32"/>
-      <c r="BW28" s="32"/>
-      <c r="BX28" s="32"/>
-      <c r="BY28" s="32"/>
-      <c r="BZ28" s="32"/>
-      <c r="CA28" s="32"/>
-      <c r="CB28" s="32"/>
-      <c r="CC28" s="32"/>
-      <c r="CD28" s="32"/>
-      <c r="CE28" s="32"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="24"/>
+      <c r="N28" s="24"/>
+      <c r="O28" s="24"/>
+      <c r="P28" s="24"/>
+      <c r="Q28" s="24"/>
+      <c r="R28" s="24"/>
+      <c r="S28" s="24"/>
+      <c r="T28" s="24"/>
+      <c r="U28" s="24"/>
+      <c r="V28" s="24"/>
+      <c r="W28" s="24"/>
+      <c r="X28" s="24"/>
+      <c r="Y28" s="24"/>
+      <c r="Z28" s="24"/>
+      <c r="AA28" s="24"/>
+      <c r="AB28" s="24"/>
+      <c r="AC28" s="24"/>
+      <c r="AD28" s="24"/>
+      <c r="AE28" s="24"/>
+      <c r="AF28" s="24"/>
+      <c r="AG28" s="24"/>
+      <c r="AH28" s="24"/>
+      <c r="AI28" s="24"/>
+      <c r="AJ28" s="24"/>
+      <c r="AK28" s="24"/>
+      <c r="AL28" s="24"/>
+      <c r="AM28" s="24"/>
+      <c r="AN28" s="24"/>
+      <c r="AO28" s="24"/>
+      <c r="AP28" s="24"/>
+      <c r="AQ28" s="24"/>
+      <c r="AR28" s="24"/>
+      <c r="AS28" s="24"/>
+      <c r="AT28" s="24"/>
+      <c r="AU28" s="24"/>
+      <c r="AV28" s="24"/>
+      <c r="AW28" s="24"/>
+      <c r="AX28" s="24"/>
+      <c r="AY28" s="24"/>
+      <c r="AZ28" s="24"/>
+      <c r="BA28" s="24"/>
+      <c r="BB28" s="24"/>
+      <c r="BC28" s="24"/>
+      <c r="BD28" s="24"/>
+      <c r="BE28" s="24"/>
+      <c r="BF28" s="24"/>
+      <c r="BG28" s="24"/>
+      <c r="BH28" s="24"/>
+      <c r="BI28" s="24"/>
+      <c r="BJ28" s="24"/>
+      <c r="BK28" s="24"/>
+      <c r="BL28" s="24"/>
+      <c r="BM28" s="24"/>
+      <c r="BN28" s="24"/>
+      <c r="BO28" s="24"/>
+      <c r="BP28" s="24"/>
+      <c r="BQ28" s="24"/>
+      <c r="BR28" s="24"/>
+      <c r="BS28" s="24"/>
+      <c r="BT28" s="24"/>
+      <c r="BU28" s="24"/>
+      <c r="BV28" s="24"/>
+      <c r="BW28" s="24"/>
+      <c r="BX28" s="24"/>
+      <c r="BY28" s="24"/>
+      <c r="BZ28" s="24"/>
+      <c r="CA28" s="24"/>
+      <c r="CB28" s="24"/>
+      <c r="CC28" s="24"/>
+      <c r="CD28" s="24"/>
+      <c r="CE28" s="24"/>
     </row>
-    <row r="29" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A29" s="35"/>
-      <c r="X29" s="24" t="s">
+    <row r="29" spans="1:109">
+      <c r="A29" s="32"/>
+      <c r="X29" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="Y29" s="24"/>
-      <c r="Z29" s="25" t="s">
+      <c r="Y29" s="30"/>
+      <c r="Z29" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="AA29" s="25"/>
-      <c r="AB29" s="25"/>
-      <c r="AC29" s="25"/>
-      <c r="AD29" s="25"/>
-      <c r="AE29" s="25"/>
-      <c r="AF29" s="25"/>
-      <c r="AG29" s="25"/>
-      <c r="AH29" s="25"/>
-      <c r="AI29" s="25"/>
-      <c r="AJ29" s="25"/>
-      <c r="AK29" s="25"/>
-      <c r="AL29" s="25"/>
-      <c r="AM29" s="25"/>
-      <c r="AN29" s="25"/>
-      <c r="AO29" s="25"/>
-      <c r="AP29" s="25"/>
-      <c r="AQ29" s="25"/>
-      <c r="AR29" s="25"/>
-      <c r="AS29" s="25"/>
-      <c r="AT29" s="25"/>
-      <c r="AU29" s="25"/>
-      <c r="AV29" s="25"/>
-      <c r="AW29" s="25"/>
-      <c r="AX29" s="25"/>
-      <c r="AY29" s="25"/>
-      <c r="AZ29" s="25"/>
-      <c r="BA29" s="25"/>
-      <c r="BB29" s="25"/>
-      <c r="BC29" s="25"/>
-      <c r="BD29" s="25"/>
-      <c r="BE29" s="25"/>
-      <c r="BF29" s="25"/>
-      <c r="BG29" s="25"/>
-      <c r="BH29" s="25"/>
-      <c r="BI29" s="25"/>
-      <c r="BJ29" s="25"/>
-      <c r="BK29" s="25"/>
-      <c r="BL29" s="25"/>
-      <c r="BM29" s="25"/>
-      <c r="BN29" s="25"/>
-      <c r="BO29" s="25"/>
-      <c r="BP29" s="25"/>
-      <c r="BQ29" s="25"/>
-      <c r="BR29" s="25"/>
-      <c r="BS29" s="25"/>
-      <c r="BT29" s="25"/>
-      <c r="BU29" s="25"/>
-      <c r="BV29" s="25"/>
-      <c r="BW29" s="25"/>
-      <c r="BX29" s="25"/>
-      <c r="BY29" s="25"/>
-      <c r="BZ29" s="25"/>
-      <c r="CA29" s="25"/>
-      <c r="CB29" s="25"/>
-      <c r="CC29" s="25"/>
-      <c r="CD29" s="25"/>
-      <c r="CE29" s="25"/>
+      <c r="AA29" s="27"/>
+      <c r="AB29" s="27"/>
+      <c r="AC29" s="27"/>
+      <c r="AD29" s="27"/>
+      <c r="AE29" s="27"/>
+      <c r="AF29" s="27"/>
+      <c r="AG29" s="27"/>
+      <c r="AH29" s="27"/>
+      <c r="AI29" s="27"/>
+      <c r="AJ29" s="27"/>
+      <c r="AK29" s="27"/>
+      <c r="AL29" s="27"/>
+      <c r="AM29" s="27"/>
+      <c r="AN29" s="27"/>
+      <c r="AO29" s="27"/>
+      <c r="AP29" s="27"/>
+      <c r="AQ29" s="27"/>
+      <c r="AR29" s="27"/>
+      <c r="AS29" s="27"/>
+      <c r="AT29" s="27"/>
+      <c r="AU29" s="27"/>
+      <c r="AV29" s="27"/>
+      <c r="AW29" s="27"/>
+      <c r="AX29" s="27"/>
+      <c r="AY29" s="27"/>
+      <c r="AZ29" s="27"/>
+      <c r="BA29" s="27"/>
+      <c r="BB29" s="27"/>
+      <c r="BC29" s="27"/>
+      <c r="BD29" s="27"/>
+      <c r="BE29" s="27"/>
+      <c r="BF29" s="27"/>
+      <c r="BG29" s="27"/>
+      <c r="BH29" s="27"/>
+      <c r="BI29" s="27"/>
+      <c r="BJ29" s="27"/>
+      <c r="BK29" s="27"/>
+      <c r="BL29" s="27"/>
+      <c r="BM29" s="27"/>
+      <c r="BN29" s="27"/>
+      <c r="BO29" s="27"/>
+      <c r="BP29" s="27"/>
+      <c r="BQ29" s="27"/>
+      <c r="BR29" s="27"/>
+      <c r="BS29" s="27"/>
+      <c r="BT29" s="27"/>
+      <c r="BU29" s="27"/>
+      <c r="BV29" s="27"/>
+      <c r="BW29" s="27"/>
+      <c r="BX29" s="27"/>
+      <c r="BY29" s="27"/>
+      <c r="BZ29" s="27"/>
+      <c r="CA29" s="27"/>
+      <c r="CB29" s="27"/>
+      <c r="CC29" s="27"/>
+      <c r="CD29" s="27"/>
+      <c r="CE29" s="27"/>
     </row>
-    <row r="30" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A30" s="35"/>
-      <c r="AN30" s="33" t="s">
+    <row r="30" spans="1:109">
+      <c r="A30" s="32"/>
+      <c r="AN30" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="AO30" s="33"/>
-      <c r="AP30" s="34" t="s">
+      <c r="AO30" s="26"/>
+      <c r="AP30" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="AQ30" s="34"/>
-      <c r="AR30" s="34"/>
-      <c r="AS30" s="34"/>
-      <c r="AT30" s="34"/>
-      <c r="AU30" s="34"/>
-      <c r="AV30" s="34"/>
-      <c r="AW30" s="34"/>
-      <c r="AX30" s="34"/>
-      <c r="AY30" s="34"/>
-      <c r="AZ30" s="34"/>
-      <c r="BA30" s="34"/>
-      <c r="BB30" s="34"/>
-      <c r="BC30" s="34"/>
-      <c r="BD30" s="34"/>
-      <c r="BE30" s="34"/>
-      <c r="BF30" s="34"/>
-      <c r="BG30" s="34"/>
-      <c r="BH30" s="34"/>
-      <c r="BI30" s="34"/>
-      <c r="BJ30" s="34"/>
-      <c r="BK30" s="34"/>
-      <c r="BL30" s="34"/>
-      <c r="BM30" s="34"/>
-      <c r="BN30" s="34"/>
-      <c r="BO30" s="34"/>
-      <c r="BP30" s="34"/>
-      <c r="BQ30" s="34"/>
-      <c r="BR30" s="34"/>
-      <c r="BS30" s="34"/>
-      <c r="BT30" s="34"/>
-      <c r="BU30" s="34"/>
-      <c r="BV30" s="34"/>
-      <c r="BW30" s="34"/>
-      <c r="BX30" s="34"/>
-      <c r="BY30" s="34"/>
-      <c r="BZ30" s="34"/>
-      <c r="CA30" s="34"/>
-      <c r="CB30" s="34"/>
-      <c r="CC30" s="34"/>
+      <c r="AQ30" s="31"/>
+      <c r="AR30" s="31"/>
+      <c r="AS30" s="31"/>
+      <c r="AT30" s="31"/>
+      <c r="AU30" s="31"/>
+      <c r="AV30" s="31"/>
+      <c r="AW30" s="31"/>
+      <c r="AX30" s="31"/>
+      <c r="AY30" s="31"/>
+      <c r="AZ30" s="31"/>
+      <c r="BA30" s="31"/>
+      <c r="BB30" s="31"/>
+      <c r="BC30" s="31"/>
+      <c r="BD30" s="31"/>
+      <c r="BE30" s="31"/>
+      <c r="BF30" s="31"/>
+      <c r="BG30" s="31"/>
+      <c r="BH30" s="31"/>
+      <c r="BI30" s="31"/>
+      <c r="BJ30" s="31"/>
+      <c r="BK30" s="31"/>
+      <c r="BL30" s="31"/>
+      <c r="BM30" s="31"/>
+      <c r="BN30" s="31"/>
+      <c r="BO30" s="31"/>
+      <c r="BP30" s="31"/>
+      <c r="BQ30" s="31"/>
+      <c r="BR30" s="31"/>
+      <c r="BS30" s="31"/>
+      <c r="BT30" s="31"/>
+      <c r="BU30" s="31"/>
+      <c r="BV30" s="31"/>
+      <c r="BW30" s="31"/>
+      <c r="BX30" s="31"/>
+      <c r="BY30" s="31"/>
+      <c r="BZ30" s="31"/>
+      <c r="CA30" s="31"/>
+      <c r="CB30" s="31"/>
+      <c r="CC30" s="31"/>
     </row>
-    <row r="31" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A31" s="35"/>
+    <row r="31" spans="1:109">
+      <c r="A31" s="32"/>
     </row>
-    <row r="32" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A32" s="35"/>
+    <row r="32" spans="1:109">
+      <c r="A32" s="32"/>
     </row>
-    <row r="33" spans="1:163" x14ac:dyDescent="0.25">
-      <c r="A33" s="35"/>
+    <row r="33" spans="1:163">
+      <c r="A33" s="32"/>
       <c r="B33" t="str">
         <f>MID($DE$33,B1+1,1)</f>
         <v>V</v>
@@ -5740,648 +5732,648 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:163" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="35"/>
-      <c r="B34" s="18" t="str">
+    <row r="34" spans="1:163" s="15" customFormat="1">
+      <c r="A34" s="32"/>
+      <c r="B34" s="16" t="str">
         <f>MID($DD$33,(B1*3)+1,2)</f>
         <v>56</v>
       </c>
-      <c r="C34" s="18" t="str">
+      <c r="C34" s="16" t="str">
         <f t="shared" ref="C34:BA34" si="14">MID($DD$33,(C1*3)+1,2)</f>
         <v>00</v>
       </c>
-      <c r="D34" s="14" t="str">
+      <c r="D34" s="12" t="str">
         <f t="shared" si="14"/>
         <v>31</v>
       </c>
-      <c r="E34" s="14" t="str">
+      <c r="E34" s="12" t="str">
         <f t="shared" si="14"/>
         <v>00</v>
       </c>
-      <c r="F34" s="14" t="str">
+      <c r="F34" s="12" t="str">
         <f t="shared" si="14"/>
         <v>00</v>
       </c>
-      <c r="G34" s="14" t="str">
+      <c r="G34" s="12" t="str">
         <f t="shared" si="14"/>
         <v>00</v>
       </c>
-      <c r="H34" s="14" t="str">
+      <c r="H34" s="12" t="str">
         <f t="shared" si="14"/>
         <v>00</v>
       </c>
-      <c r="I34" s="14" t="str">
+      <c r="I34" s="12" t="str">
         <f t="shared" si="14"/>
         <v>00</v>
       </c>
-      <c r="J34" s="14" t="str">
+      <c r="J34" s="12" t="str">
         <f t="shared" si="14"/>
         <v>4c</v>
       </c>
-      <c r="K34" s="14" t="str">
+      <c r="K34" s="12" t="str">
         <f t="shared" si="14"/>
         <v>4c</v>
       </c>
-      <c r="L34" s="14" t="str">
+      <c r="L34" s="12" t="str">
         <f t="shared" si="14"/>
         <v>1b</v>
       </c>
-      <c r="M34" s="14" t="str">
+      <c r="M34" s="12" t="str">
         <f t="shared" si="14"/>
         <v>70</v>
       </c>
-      <c r="N34" s="21" t="str">
+      <c r="N34" s="19" t="str">
         <f t="shared" si="14"/>
         <v>10</v>
       </c>
-      <c r="O34" s="21" t="str">
+      <c r="O34" s="19" t="str">
         <f t="shared" si="14"/>
         <v>00</v>
       </c>
-      <c r="P34" s="10" t="str">
+      <c r="P34" s="8" t="str">
         <f t="shared" si="14"/>
         <v>53</v>
       </c>
-      <c r="Q34" s="10" t="str">
+      <c r="Q34" s="8" t="str">
         <f t="shared" si="14"/>
         <v>79</v>
       </c>
-      <c r="R34" s="10" t="str">
+      <c r="R34" s="8" t="str">
         <f t="shared" si="14"/>
         <v>73</v>
       </c>
-      <c r="S34" s="10" t="str">
+      <c r="S34" s="8" t="str">
         <f t="shared" si="14"/>
         <v>74</v>
       </c>
-      <c r="T34" s="10" t="str">
+      <c r="T34" s="8" t="str">
         <f t="shared" si="14"/>
         <v>65</v>
       </c>
-      <c r="U34" s="10" t="str">
+      <c r="U34" s="8" t="str">
         <f t="shared" si="14"/>
         <v>6d</v>
       </c>
-      <c r="V34" s="10" t="str">
+      <c r="V34" s="8" t="str">
         <f t="shared" si="14"/>
         <v>33</v>
       </c>
-      <c r="W34" s="10" t="str">
+      <c r="W34" s="8" t="str">
         <f t="shared" si="14"/>
         <v>32</v>
       </c>
-      <c r="X34" s="10" t="str">
+      <c r="X34" s="8" t="str">
         <f t="shared" si="14"/>
         <v>00</v>
       </c>
-      <c r="Y34" s="19" t="str">
+      <c r="Y34" s="17" t="str">
         <f t="shared" si="14"/>
         <v>00</v>
       </c>
-      <c r="Z34" s="11" t="str">
+      <c r="Z34" s="9" t="str">
         <f t="shared" si="14"/>
         <v>3e</v>
       </c>
-      <c r="AA34" s="11" t="str">
+      <c r="AA34" s="9" t="str">
         <f t="shared" si="14"/>
         <v>00</v>
       </c>
-      <c r="AB34" s="20" t="str">
+      <c r="AB34" s="18" t="str">
         <f t="shared" si="14"/>
         <v>08</v>
       </c>
-      <c r="AC34" s="20" t="str">
+      <c r="AC34" s="18" t="str">
         <f t="shared" si="14"/>
         <v>00</v>
       </c>
-      <c r="AD34" s="20" t="str">
+      <c r="AD34" s="18" t="str">
         <f t="shared" si="14"/>
         <v>04</v>
       </c>
-      <c r="AE34" s="20" t="str">
+      <c r="AE34" s="18" t="str">
         <f t="shared" si="14"/>
         <v>00</v>
       </c>
-      <c r="AF34" s="20" t="str">
+      <c r="AF34" s="18" t="str">
         <f t="shared" si="14"/>
         <v>ef</v>
       </c>
-      <c r="AG34" s="20" t="str">
+      <c r="AG34" s="18" t="str">
         <f t="shared" si="14"/>
         <v>be</v>
       </c>
-      <c r="AH34" s="20" t="str">
+      <c r="AH34" s="18" t="str">
         <f t="shared" si="14"/>
         <v>ee</v>
       </c>
-      <c r="AI34" s="20" t="str">
+      <c r="AI34" s="18" t="str">
         <f t="shared" si="14"/>
         <v>3a</v>
       </c>
-      <c r="AJ34" s="18" t="str">
+      <c r="AJ34" s="16" t="str">
         <f t="shared" si="14"/>
         <v>86</v>
       </c>
-      <c r="AK34" s="18" t="str">
+      <c r="AK34" s="16" t="str">
         <f t="shared" si="14"/>
         <v>1a</v>
       </c>
-      <c r="AL34" s="18" t="str">
+      <c r="AL34" s="16" t="str">
         <f t="shared" si="14"/>
         <v>4c</v>
       </c>
-      <c r="AM34" s="18" t="str">
+      <c r="AM34" s="16" t="str">
         <f t="shared" si="14"/>
         <v>4c</v>
       </c>
-      <c r="AN34" s="18" t="str">
+      <c r="AN34" s="16" t="str">
         <f t="shared" si="14"/>
         <v>1b</v>
       </c>
-      <c r="AO34" s="18" t="str">
+      <c r="AO34" s="16" t="str">
         <f t="shared" si="14"/>
         <v>70</v>
       </c>
-      <c r="AP34" s="18" t="str">
+      <c r="AP34" s="16" t="str">
         <f t="shared" si="14"/>
         <v>2a</v>
       </c>
-      <c r="AQ34" s="18" t="str">
+      <c r="AQ34" s="16" t="str">
         <f t="shared" si="14"/>
         <v>00</v>
       </c>
-      <c r="AR34" s="18" t="str">
+      <c r="AR34" s="16" t="str">
         <f t="shared" si="14"/>
         <v>00</v>
       </c>
-      <c r="AS34" s="18" t="str">
+      <c r="AS34" s="16" t="str">
         <f t="shared" si="14"/>
         <v>00</v>
       </c>
-      <c r="AT34" s="18" t="str">
+      <c r="AT34" s="16" t="str">
         <f t="shared" si="14"/>
         <v>bc</v>
       </c>
-      <c r="AU34" s="18" t="str">
+      <c r="AU34" s="16" t="str">
         <f t="shared" si="14"/>
         <v>3b</v>
       </c>
-      <c r="AV34" s="18" t="str">
+      <c r="AV34" s="16" t="str">
         <f t="shared" si="14"/>
         <v>00</v>
       </c>
-      <c r="AW34" s="18" t="str">
+      <c r="AW34" s="16" t="str">
         <f t="shared" si="14"/>
         <v>00</v>
       </c>
-      <c r="AX34" s="18" t="str">
+      <c r="AX34" s="16" t="str">
         <f t="shared" si="14"/>
         <v>00</v>
       </c>
-      <c r="AY34" s="18" t="str">
+      <c r="AY34" s="16" t="str">
         <f t="shared" si="14"/>
         <v>00</v>
       </c>
-      <c r="AZ34" s="18" t="str">
+      <c r="AZ34" s="16" t="str">
         <f t="shared" si="14"/>
         <v>01</v>
       </c>
-      <c r="BA34" s="18" t="str">
+      <c r="BA34" s="16" t="str">
         <f t="shared" si="14"/>
         <v>00</v>
       </c>
-      <c r="BB34" s="18" t="str">
+      <c r="BB34" s="16" t="str">
         <f t="shared" ref="BB34:CI34" si="15">MID($DD$33,(BB1*3)+1,2)</f>
         <v>00</v>
       </c>
-      <c r="BC34" s="18" t="str">
+      <c r="BC34" s="16" t="str">
         <f t="shared" si="15"/>
         <v>00</v>
       </c>
-      <c r="BD34" s="18" t="str">
+      <c r="BD34" s="16" t="str">
         <f t="shared" si="15"/>
         <v>00</v>
       </c>
-      <c r="BE34" s="18" t="str">
+      <c r="BE34" s="16" t="str">
         <f t="shared" si="15"/>
         <v>00</v>
       </c>
-      <c r="BF34" s="18" t="str">
+      <c r="BF34" s="16" t="str">
         <f t="shared" si="15"/>
         <v>00</v>
       </c>
-      <c r="BG34" s="18" t="str">
+      <c r="BG34" s="16" t="str">
         <f t="shared" si="15"/>
         <v>00</v>
       </c>
-      <c r="BH34" s="18" t="str">
+      <c r="BH34" s="16" t="str">
         <f t="shared" si="15"/>
         <v>00</v>
       </c>
-      <c r="BI34" s="18" t="str">
+      <c r="BI34" s="16" t="str">
         <f t="shared" si="15"/>
         <v>00</v>
       </c>
-      <c r="BJ34" s="18" t="str">
+      <c r="BJ34" s="16" t="str">
         <f t="shared" si="15"/>
         <v>00</v>
       </c>
-      <c r="BK34" s="18" t="str">
+      <c r="BK34" s="16" t="str">
         <f t="shared" si="15"/>
         <v>00</v>
       </c>
-      <c r="BL34" s="18" t="str">
+      <c r="BL34" s="16" t="str">
         <f t="shared" si="15"/>
         <v>00</v>
       </c>
-      <c r="BM34" s="18" t="str">
+      <c r="BM34" s="16" t="str">
         <f t="shared" si="15"/>
         <v>00</v>
       </c>
-      <c r="BN34" s="18" t="str">
+      <c r="BN34" s="16" t="str">
         <f t="shared" si="15"/>
         <v>00</v>
       </c>
-      <c r="BO34" s="18" t="str">
+      <c r="BO34" s="16" t="str">
         <f t="shared" si="15"/>
         <v>00</v>
       </c>
-      <c r="BP34" s="10" t="str">
+      <c r="BP34" s="8" t="str">
         <f t="shared" si="15"/>
         <v>53</v>
       </c>
-      <c r="BQ34" s="10" t="str">
+      <c r="BQ34" s="8" t="str">
         <f t="shared" si="15"/>
         <v>00</v>
       </c>
-      <c r="BR34" s="10" t="str">
+      <c r="BR34" s="8" t="str">
         <f t="shared" si="15"/>
         <v>79</v>
       </c>
-      <c r="BS34" s="10" t="str">
+      <c r="BS34" s="8" t="str">
         <f t="shared" si="15"/>
         <v>00</v>
       </c>
-      <c r="BT34" s="10" t="str">
+      <c r="BT34" s="8" t="str">
         <f t="shared" si="15"/>
         <v>73</v>
       </c>
-      <c r="BU34" s="10" t="str">
+      <c r="BU34" s="8" t="str">
         <f t="shared" si="15"/>
         <v>00</v>
       </c>
-      <c r="BV34" s="10" t="str">
+      <c r="BV34" s="8" t="str">
         <f t="shared" si="15"/>
         <v>74</v>
       </c>
-      <c r="BW34" s="10" t="str">
+      <c r="BW34" s="8" t="str">
         <f t="shared" si="15"/>
         <v>00</v>
       </c>
-      <c r="BX34" s="10" t="str">
+      <c r="BX34" s="8" t="str">
         <f t="shared" si="15"/>
         <v>65</v>
       </c>
-      <c r="BY34" s="10" t="str">
+      <c r="BY34" s="8" t="str">
         <f t="shared" si="15"/>
         <v>00</v>
       </c>
-      <c r="BZ34" s="10" t="str">
+      <c r="BZ34" s="8" t="str">
         <f t="shared" si="15"/>
         <v>6d</v>
       </c>
-      <c r="CA34" s="10" t="str">
+      <c r="CA34" s="8" t="str">
         <f t="shared" si="15"/>
         <v>00</v>
       </c>
-      <c r="CB34" s="10" t="str">
+      <c r="CB34" s="8" t="str">
         <f t="shared" si="15"/>
         <v>33</v>
       </c>
-      <c r="CC34" s="10" t="str">
+      <c r="CC34" s="8" t="str">
         <f t="shared" si="15"/>
         <v>00</v>
       </c>
-      <c r="CD34" s="10" t="str">
+      <c r="CD34" s="8" t="str">
         <f t="shared" si="15"/>
         <v>32</v>
       </c>
-      <c r="CE34" s="10" t="str">
+      <c r="CE34" s="8" t="str">
         <f t="shared" si="15"/>
         <v>00</v>
       </c>
-      <c r="CF34" s="10" t="str">
+      <c r="CF34" s="8" t="str">
         <f t="shared" si="15"/>
         <v>00</v>
       </c>
-      <c r="CG34" s="10" t="str">
+      <c r="CG34" s="8" t="str">
         <f t="shared" si="15"/>
         <v>00</v>
       </c>
-      <c r="CH34" s="14" t="str">
+      <c r="CH34" s="12" t="str">
         <f t="shared" si="15"/>
         <v>18</v>
       </c>
-      <c r="CI34" s="14" t="str">
+      <c r="CI34" s="12" t="str">
         <f t="shared" si="15"/>
         <v>00</v>
       </c>
-      <c r="CJ34" s="16"/>
-      <c r="CK34" s="16"/>
-      <c r="CL34" s="16"/>
-      <c r="CM34" s="16"/>
-      <c r="CN34" s="16"/>
-      <c r="CO34" s="16"/>
-      <c r="CP34" s="16"/>
-      <c r="CQ34" s="16"/>
-      <c r="CT34" s="16"/>
-      <c r="CU34" s="16"/>
-      <c r="CV34" s="16"/>
-      <c r="CW34" s="16"/>
-      <c r="CX34" s="16"/>
-      <c r="CY34" s="16"/>
-      <c r="CZ34" s="16"/>
-      <c r="DA34" s="16"/>
-      <c r="DB34" s="16"/>
-      <c r="DC34" s="16"/>
-      <c r="ER34" s="16"/>
-      <c r="ES34" s="16"/>
-      <c r="ET34" s="16"/>
-      <c r="EU34" s="16"/>
-      <c r="EV34" s="16"/>
-      <c r="EW34" s="16"/>
-      <c r="EX34" s="16"/>
-      <c r="EY34" s="16"/>
-      <c r="EZ34" s="16"/>
-      <c r="FA34" s="16"/>
-      <c r="FB34" s="16"/>
-      <c r="FC34" s="16"/>
-      <c r="FD34" s="16"/>
-      <c r="FE34" s="16"/>
-      <c r="FF34" s="16"/>
-      <c r="FG34" s="16"/>
+      <c r="CJ34" s="14"/>
+      <c r="CK34" s="14"/>
+      <c r="CL34" s="14"/>
+      <c r="CM34" s="14"/>
+      <c r="CN34" s="14"/>
+      <c r="CO34" s="14"/>
+      <c r="CP34" s="14"/>
+      <c r="CQ34" s="14"/>
+      <c r="CT34" s="14"/>
+      <c r="CU34" s="14"/>
+      <c r="CV34" s="14"/>
+      <c r="CW34" s="14"/>
+      <c r="CX34" s="14"/>
+      <c r="CY34" s="14"/>
+      <c r="CZ34" s="14"/>
+      <c r="DA34" s="14"/>
+      <c r="DB34" s="14"/>
+      <c r="DC34" s="14"/>
+      <c r="ER34" s="14"/>
+      <c r="ES34" s="14"/>
+      <c r="ET34" s="14"/>
+      <c r="EU34" s="14"/>
+      <c r="EV34" s="14"/>
+      <c r="EW34" s="14"/>
+      <c r="EX34" s="14"/>
+      <c r="EY34" s="14"/>
+      <c r="EZ34" s="14"/>
+      <c r="FA34" s="14"/>
+      <c r="FB34" s="14"/>
+      <c r="FC34" s="14"/>
+      <c r="FD34" s="14"/>
+      <c r="FE34" s="14"/>
+      <c r="FF34" s="14"/>
+      <c r="FG34" s="14"/>
     </row>
-    <row r="35" spans="1:163" x14ac:dyDescent="0.25">
-      <c r="A35" s="35"/>
-      <c r="B35" s="31" t="s">
+    <row r="35" spans="1:163">
+      <c r="A35" s="32"/>
+      <c r="B35" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="32"/>
-      <c r="D35" s="32" t="s">
+      <c r="C35" s="24"/>
+      <c r="D35" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="E35" s="32"/>
-      <c r="F35" s="32"/>
-      <c r="G35" s="32"/>
-      <c r="H35" s="32"/>
-      <c r="I35" s="32"/>
-      <c r="J35" s="32"/>
-      <c r="K35" s="32"/>
-      <c r="L35" s="32"/>
-      <c r="M35" s="32"/>
-      <c r="N35" s="32"/>
-      <c r="O35" s="32"/>
-      <c r="P35" s="32"/>
-      <c r="Q35" s="32"/>
-      <c r="R35" s="32"/>
-      <c r="S35" s="32"/>
-      <c r="T35" s="32"/>
-      <c r="U35" s="32"/>
-      <c r="V35" s="32"/>
-      <c r="W35" s="32"/>
-      <c r="X35" s="32"/>
-      <c r="Y35" s="32"/>
-      <c r="Z35" s="32"/>
-      <c r="AA35" s="32"/>
-      <c r="AB35" s="32"/>
-      <c r="AC35" s="32"/>
-      <c r="AD35" s="32"/>
-      <c r="AE35" s="32"/>
-      <c r="AF35" s="32"/>
-      <c r="AG35" s="32"/>
-      <c r="AH35" s="32"/>
-      <c r="AI35" s="32"/>
-      <c r="AJ35" s="32"/>
-      <c r="AK35" s="32"/>
-      <c r="AL35" s="32"/>
-      <c r="AM35" s="32"/>
-      <c r="AN35" s="32"/>
-      <c r="AO35" s="32"/>
-      <c r="AP35" s="32"/>
-      <c r="AQ35" s="32"/>
-      <c r="AR35" s="32"/>
-      <c r="AS35" s="32"/>
-      <c r="AT35" s="32"/>
-      <c r="AU35" s="32"/>
-      <c r="AV35" s="32"/>
-      <c r="AW35" s="32"/>
-      <c r="AX35" s="32"/>
-      <c r="AY35" s="32"/>
-      <c r="AZ35" s="32"/>
-      <c r="BA35" s="32"/>
-      <c r="BB35" s="32"/>
-      <c r="BC35" s="32"/>
-      <c r="BD35" s="32"/>
-      <c r="BE35" s="32"/>
-      <c r="BF35" s="32"/>
-      <c r="BG35" s="32"/>
-      <c r="BH35" s="32"/>
-      <c r="BI35" s="32"/>
-      <c r="BJ35" s="32"/>
-      <c r="BK35" s="32"/>
-      <c r="BL35" s="32"/>
-      <c r="BM35" s="32"/>
-      <c r="BN35" s="32"/>
-      <c r="BO35" s="32"/>
-      <c r="BP35" s="32"/>
-      <c r="BQ35" s="32"/>
-      <c r="BR35" s="32"/>
-      <c r="BS35" s="32"/>
-      <c r="BT35" s="32"/>
-      <c r="BU35" s="32"/>
-      <c r="BV35" s="32"/>
-      <c r="BW35" s="32"/>
-      <c r="BX35" s="32"/>
-      <c r="BY35" s="32"/>
-      <c r="BZ35" s="32"/>
-      <c r="CA35" s="32"/>
-      <c r="CB35" s="32"/>
-      <c r="CC35" s="32"/>
-      <c r="CD35" s="32"/>
-      <c r="CE35" s="32"/>
-      <c r="CF35" s="32"/>
-      <c r="CG35" s="32"/>
-      <c r="CH35" s="32"/>
-      <c r="CI35" s="32"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="24"/>
+      <c r="J35" s="24"/>
+      <c r="K35" s="24"/>
+      <c r="L35" s="24"/>
+      <c r="M35" s="24"/>
+      <c r="N35" s="24"/>
+      <c r="O35" s="24"/>
+      <c r="P35" s="24"/>
+      <c r="Q35" s="24"/>
+      <c r="R35" s="24"/>
+      <c r="S35" s="24"/>
+      <c r="T35" s="24"/>
+      <c r="U35" s="24"/>
+      <c r="V35" s="24"/>
+      <c r="W35" s="24"/>
+      <c r="X35" s="24"/>
+      <c r="Y35" s="24"/>
+      <c r="Z35" s="24"/>
+      <c r="AA35" s="24"/>
+      <c r="AB35" s="24"/>
+      <c r="AC35" s="24"/>
+      <c r="AD35" s="24"/>
+      <c r="AE35" s="24"/>
+      <c r="AF35" s="24"/>
+      <c r="AG35" s="24"/>
+      <c r="AH35" s="24"/>
+      <c r="AI35" s="24"/>
+      <c r="AJ35" s="24"/>
+      <c r="AK35" s="24"/>
+      <c r="AL35" s="24"/>
+      <c r="AM35" s="24"/>
+      <c r="AN35" s="24"/>
+      <c r="AO35" s="24"/>
+      <c r="AP35" s="24"/>
+      <c r="AQ35" s="24"/>
+      <c r="AR35" s="24"/>
+      <c r="AS35" s="24"/>
+      <c r="AT35" s="24"/>
+      <c r="AU35" s="24"/>
+      <c r="AV35" s="24"/>
+      <c r="AW35" s="24"/>
+      <c r="AX35" s="24"/>
+      <c r="AY35" s="24"/>
+      <c r="AZ35" s="24"/>
+      <c r="BA35" s="24"/>
+      <c r="BB35" s="24"/>
+      <c r="BC35" s="24"/>
+      <c r="BD35" s="24"/>
+      <c r="BE35" s="24"/>
+      <c r="BF35" s="24"/>
+      <c r="BG35" s="24"/>
+      <c r="BH35" s="24"/>
+      <c r="BI35" s="24"/>
+      <c r="BJ35" s="24"/>
+      <c r="BK35" s="24"/>
+      <c r="BL35" s="24"/>
+      <c r="BM35" s="24"/>
+      <c r="BN35" s="24"/>
+      <c r="BO35" s="24"/>
+      <c r="BP35" s="24"/>
+      <c r="BQ35" s="24"/>
+      <c r="BR35" s="24"/>
+      <c r="BS35" s="24"/>
+      <c r="BT35" s="24"/>
+      <c r="BU35" s="24"/>
+      <c r="BV35" s="24"/>
+      <c r="BW35" s="24"/>
+      <c r="BX35" s="24"/>
+      <c r="BY35" s="24"/>
+      <c r="BZ35" s="24"/>
+      <c r="CA35" s="24"/>
+      <c r="CB35" s="24"/>
+      <c r="CC35" s="24"/>
+      <c r="CD35" s="24"/>
+      <c r="CE35" s="24"/>
+      <c r="CF35" s="24"/>
+      <c r="CG35" s="24"/>
+      <c r="CH35" s="24"/>
+      <c r="CI35" s="24"/>
     </row>
-    <row r="36" spans="1:163" x14ac:dyDescent="0.25">
-      <c r="A36" s="35"/>
-      <c r="Z36" s="24" t="s">
+    <row r="36" spans="1:163">
+      <c r="A36" s="32"/>
+      <c r="Z36" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="AA36" s="24"/>
-      <c r="AB36" s="25" t="s">
+      <c r="AA36" s="30"/>
+      <c r="AB36" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="AC36" s="25"/>
-      <c r="AD36" s="25"/>
-      <c r="AE36" s="25"/>
-      <c r="AF36" s="25"/>
-      <c r="AG36" s="25"/>
-      <c r="AH36" s="25"/>
-      <c r="AI36" s="25"/>
-      <c r="AJ36" s="25"/>
-      <c r="AK36" s="25"/>
-      <c r="AL36" s="25"/>
-      <c r="AM36" s="25"/>
-      <c r="AN36" s="25"/>
-      <c r="AO36" s="25"/>
-      <c r="AP36" s="25"/>
-      <c r="AQ36" s="25"/>
-      <c r="AR36" s="25"/>
-      <c r="AS36" s="25"/>
-      <c r="AT36" s="25"/>
-      <c r="AU36" s="25"/>
-      <c r="AV36" s="25"/>
-      <c r="AW36" s="25"/>
-      <c r="AX36" s="25"/>
-      <c r="AY36" s="25"/>
-      <c r="AZ36" s="25"/>
-      <c r="BA36" s="25"/>
-      <c r="BB36" s="25"/>
-      <c r="BC36" s="25"/>
-      <c r="BD36" s="25"/>
-      <c r="BE36" s="25"/>
-      <c r="BF36" s="25"/>
-      <c r="BG36" s="25"/>
-      <c r="BH36" s="25"/>
-      <c r="BI36" s="25"/>
-      <c r="BJ36" s="25"/>
-      <c r="BK36" s="25"/>
-      <c r="BL36" s="25"/>
-      <c r="BM36" s="25"/>
-      <c r="BN36" s="25"/>
-      <c r="BO36" s="25"/>
-      <c r="BP36" s="25"/>
-      <c r="BQ36" s="25"/>
-      <c r="BR36" s="25"/>
-      <c r="BS36" s="25"/>
-      <c r="BT36" s="25"/>
-      <c r="BU36" s="25"/>
-      <c r="BV36" s="25"/>
-      <c r="BW36" s="25"/>
-      <c r="BX36" s="25"/>
-      <c r="BY36" s="25"/>
-      <c r="BZ36" s="25"/>
-      <c r="CA36" s="25"/>
-      <c r="CB36" s="25"/>
-      <c r="CC36" s="25"/>
-      <c r="CD36" s="25"/>
-      <c r="CE36" s="25"/>
-      <c r="CF36" s="25"/>
-      <c r="CG36" s="25"/>
-      <c r="CH36" s="25"/>
-      <c r="CI36" s="25"/>
+      <c r="AC36" s="27"/>
+      <c r="AD36" s="27"/>
+      <c r="AE36" s="27"/>
+      <c r="AF36" s="27"/>
+      <c r="AG36" s="27"/>
+      <c r="AH36" s="27"/>
+      <c r="AI36" s="27"/>
+      <c r="AJ36" s="27"/>
+      <c r="AK36" s="27"/>
+      <c r="AL36" s="27"/>
+      <c r="AM36" s="27"/>
+      <c r="AN36" s="27"/>
+      <c r="AO36" s="27"/>
+      <c r="AP36" s="27"/>
+      <c r="AQ36" s="27"/>
+      <c r="AR36" s="27"/>
+      <c r="AS36" s="27"/>
+      <c r="AT36" s="27"/>
+      <c r="AU36" s="27"/>
+      <c r="AV36" s="27"/>
+      <c r="AW36" s="27"/>
+      <c r="AX36" s="27"/>
+      <c r="AY36" s="27"/>
+      <c r="AZ36" s="27"/>
+      <c r="BA36" s="27"/>
+      <c r="BB36" s="27"/>
+      <c r="BC36" s="27"/>
+      <c r="BD36" s="27"/>
+      <c r="BE36" s="27"/>
+      <c r="BF36" s="27"/>
+      <c r="BG36" s="27"/>
+      <c r="BH36" s="27"/>
+      <c r="BI36" s="27"/>
+      <c r="BJ36" s="27"/>
+      <c r="BK36" s="27"/>
+      <c r="BL36" s="27"/>
+      <c r="BM36" s="27"/>
+      <c r="BN36" s="27"/>
+      <c r="BO36" s="27"/>
+      <c r="BP36" s="27"/>
+      <c r="BQ36" s="27"/>
+      <c r="BR36" s="27"/>
+      <c r="BS36" s="27"/>
+      <c r="BT36" s="27"/>
+      <c r="BU36" s="27"/>
+      <c r="BV36" s="27"/>
+      <c r="BW36" s="27"/>
+      <c r="BX36" s="27"/>
+      <c r="BY36" s="27"/>
+      <c r="BZ36" s="27"/>
+      <c r="CA36" s="27"/>
+      <c r="CB36" s="27"/>
+      <c r="CC36" s="27"/>
+      <c r="CD36" s="27"/>
+      <c r="CE36" s="27"/>
+      <c r="CF36" s="27"/>
+      <c r="CG36" s="27"/>
+      <c r="CH36" s="27"/>
+      <c r="CI36" s="27"/>
     </row>
-    <row r="37" spans="1:163" x14ac:dyDescent="0.25">
-      <c r="A37" s="35"/>
-      <c r="AP37" s="33" t="s">
+    <row r="37" spans="1:163">
+      <c r="A37" s="32"/>
+      <c r="AP37" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="AQ37" s="33"/>
-      <c r="AR37" s="34" t="s">
+      <c r="AQ37" s="26"/>
+      <c r="AR37" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="AS37" s="34"/>
-      <c r="AT37" s="34"/>
-      <c r="AU37" s="34"/>
-      <c r="AV37" s="34"/>
-      <c r="AW37" s="34"/>
-      <c r="AX37" s="34"/>
-      <c r="AY37" s="34"/>
-      <c r="AZ37" s="34"/>
-      <c r="BA37" s="34"/>
-      <c r="BB37" s="34"/>
-      <c r="BC37" s="34"/>
-      <c r="BD37" s="34"/>
-      <c r="BE37" s="34"/>
-      <c r="BF37" s="34"/>
-      <c r="BG37" s="34"/>
-      <c r="BH37" s="34"/>
-      <c r="BI37" s="34"/>
-      <c r="BJ37" s="34"/>
-      <c r="BK37" s="34"/>
-      <c r="BL37" s="34"/>
-      <c r="BM37" s="34"/>
-      <c r="BN37" s="34"/>
-      <c r="BO37" s="34"/>
-      <c r="BP37" s="34"/>
-      <c r="BQ37" s="34"/>
-      <c r="BR37" s="34"/>
-      <c r="BS37" s="34"/>
-      <c r="BT37" s="34"/>
-      <c r="BU37" s="34"/>
-      <c r="BV37" s="34"/>
-      <c r="BW37" s="34"/>
-      <c r="BX37" s="34"/>
-      <c r="BY37" s="34"/>
-      <c r="BZ37" s="34"/>
-      <c r="CA37" s="34"/>
-      <c r="CB37" s="34"/>
-      <c r="CC37" s="34"/>
-      <c r="CD37" s="34"/>
-      <c r="CE37" s="34"/>
+      <c r="AS37" s="31"/>
+      <c r="AT37" s="31"/>
+      <c r="AU37" s="31"/>
+      <c r="AV37" s="31"/>
+      <c r="AW37" s="31"/>
+      <c r="AX37" s="31"/>
+      <c r="AY37" s="31"/>
+      <c r="AZ37" s="31"/>
+      <c r="BA37" s="31"/>
+      <c r="BB37" s="31"/>
+      <c r="BC37" s="31"/>
+      <c r="BD37" s="31"/>
+      <c r="BE37" s="31"/>
+      <c r="BF37" s="31"/>
+      <c r="BG37" s="31"/>
+      <c r="BH37" s="31"/>
+      <c r="BI37" s="31"/>
+      <c r="BJ37" s="31"/>
+      <c r="BK37" s="31"/>
+      <c r="BL37" s="31"/>
+      <c r="BM37" s="31"/>
+      <c r="BN37" s="31"/>
+      <c r="BO37" s="31"/>
+      <c r="BP37" s="31"/>
+      <c r="BQ37" s="31"/>
+      <c r="BR37" s="31"/>
+      <c r="BS37" s="31"/>
+      <c r="BT37" s="31"/>
+      <c r="BU37" s="31"/>
+      <c r="BV37" s="31"/>
+      <c r="BW37" s="31"/>
+      <c r="BX37" s="31"/>
+      <c r="BY37" s="31"/>
+      <c r="BZ37" s="31"/>
+      <c r="CA37" s="31"/>
+      <c r="CB37" s="31"/>
+      <c r="CC37" s="31"/>
+      <c r="CD37" s="31"/>
+      <c r="CE37" s="31"/>
     </row>
-    <row r="38" spans="1:163" x14ac:dyDescent="0.25">
-      <c r="A38" s="35"/>
+    <row r="38" spans="1:163">
+      <c r="A38" s="32"/>
       <c r="AP38" s="2"/>
       <c r="AQ38" s="2"/>
-      <c r="AR38" s="22"/>
-      <c r="AS38" s="22"/>
-      <c r="AT38" s="22"/>
-      <c r="AU38" s="22"/>
-      <c r="AV38" s="22"/>
-      <c r="AW38" s="22"/>
-      <c r="AX38" s="22"/>
-      <c r="AY38" s="22"/>
-      <c r="AZ38" s="22"/>
-      <c r="BA38" s="22"/>
-      <c r="BB38" s="22"/>
-      <c r="BC38" s="22"/>
-      <c r="BD38" s="22"/>
-      <c r="BE38" s="22"/>
-      <c r="BF38" s="22"/>
-      <c r="BG38" s="22"/>
-      <c r="BH38" s="22"/>
-      <c r="BI38" s="22"/>
-      <c r="BJ38" s="22"/>
-      <c r="BK38" s="22"/>
-      <c r="BL38" s="22"/>
-      <c r="BM38" s="22"/>
-      <c r="BN38" s="22"/>
-      <c r="BO38" s="22"/>
-      <c r="BP38" s="22"/>
-      <c r="BQ38" s="22"/>
-      <c r="BR38" s="22"/>
-      <c r="BS38" s="22"/>
-      <c r="BT38" s="22"/>
-      <c r="BU38" s="22"/>
-      <c r="BV38" s="22"/>
-      <c r="BW38" s="22"/>
-      <c r="BX38" s="22"/>
-      <c r="BY38" s="22"/>
-      <c r="BZ38" s="22"/>
-      <c r="CA38" s="22"/>
-      <c r="CB38" s="22"/>
-      <c r="CC38" s="22"/>
-      <c r="CD38" s="22"/>
-      <c r="CE38" s="22"/>
+      <c r="AR38" s="20"/>
+      <c r="AS38" s="20"/>
+      <c r="AT38" s="20"/>
+      <c r="AU38" s="20"/>
+      <c r="AV38" s="20"/>
+      <c r="AW38" s="20"/>
+      <c r="AX38" s="20"/>
+      <c r="AY38" s="20"/>
+      <c r="AZ38" s="20"/>
+      <c r="BA38" s="20"/>
+      <c r="BB38" s="20"/>
+      <c r="BC38" s="20"/>
+      <c r="BD38" s="20"/>
+      <c r="BE38" s="20"/>
+      <c r="BF38" s="20"/>
+      <c r="BG38" s="20"/>
+      <c r="BH38" s="20"/>
+      <c r="BI38" s="20"/>
+      <c r="BJ38" s="20"/>
+      <c r="BK38" s="20"/>
+      <c r="BL38" s="20"/>
+      <c r="BM38" s="20"/>
+      <c r="BN38" s="20"/>
+      <c r="BO38" s="20"/>
+      <c r="BP38" s="20"/>
+      <c r="BQ38" s="20"/>
+      <c r="BR38" s="20"/>
+      <c r="BS38" s="20"/>
+      <c r="BT38" s="20"/>
+      <c r="BU38" s="20"/>
+      <c r="BV38" s="20"/>
+      <c r="BW38" s="20"/>
+      <c r="BX38" s="20"/>
+      <c r="BY38" s="20"/>
+      <c r="BZ38" s="20"/>
+      <c r="CA38" s="20"/>
+      <c r="CB38" s="20"/>
+      <c r="CC38" s="20"/>
+      <c r="CD38" s="20"/>
+      <c r="CE38" s="20"/>
     </row>
-    <row r="39" spans="1:163" x14ac:dyDescent="0.25">
-      <c r="A39" s="35"/>
+    <row r="39" spans="1:163">
+      <c r="A39" s="32"/>
     </row>
-    <row r="40" spans="1:163" x14ac:dyDescent="0.25">
-      <c r="A40" s="35"/>
+    <row r="40" spans="1:163">
+      <c r="A40" s="32"/>
       <c r="B40" t="str">
         <f>MID($DE$40,B1+1,1)</f>
         <v>V</v>
@@ -6737,349 +6729,349 @@
         <v>33</v>
       </c>
     </row>
-    <row r="41" spans="1:163" x14ac:dyDescent="0.25">
-      <c r="A41" s="35"/>
-      <c r="B41" s="18" t="str">
+    <row r="41" spans="1:163">
+      <c r="A41" s="32"/>
+      <c r="B41" s="16" t="str">
         <f>MID($DD$40,(B1*3)+1,2)</f>
         <v>56</v>
       </c>
-      <c r="C41" s="18" t="str">
+      <c r="C41" s="16" t="str">
         <f t="shared" ref="C41:BN41" si="19">MID($DD$40,(C1*3)+1,2)</f>
         <v>00</v>
       </c>
-      <c r="D41" s="14" t="str">
+      <c r="D41" s="12" t="str">
         <f t="shared" si="19"/>
         <v>32</v>
       </c>
-      <c r="E41" s="14" t="str">
+      <c r="E41" s="12" t="str">
         <f t="shared" si="19"/>
         <v>00</v>
       </c>
-      <c r="F41" s="14" t="str">
+      <c r="F41" s="12" t="str">
         <f t="shared" si="19"/>
         <v>00</v>
       </c>
-      <c r="G41" s="14" t="str">
+      <c r="G41" s="12" t="str">
         <f t="shared" si="19"/>
         <v>04</v>
       </c>
-      <c r="H41" s="14" t="str">
+      <c r="H41" s="12" t="str">
         <f t="shared" si="19"/>
         <v>0e</v>
       </c>
-      <c r="I41" s="14" t="str">
+      <c r="I41" s="12" t="str">
         <f t="shared" si="19"/>
         <v>00</v>
       </c>
-      <c r="J41" s="14" t="str">
+      <c r="J41" s="12" t="str">
         <f t="shared" si="19"/>
         <v>ee</v>
       </c>
-      <c r="K41" s="14" t="str">
+      <c r="K41" s="12" t="str">
         <f t="shared" si="19"/>
         <v>3a</v>
       </c>
-      <c r="L41" s="14" t="str">
+      <c r="L41" s="12" t="str">
         <f t="shared" si="19"/>
         <v>dd</v>
       </c>
-      <c r="M41" s="14" t="str">
+      <c r="M41" s="12" t="str">
         <f t="shared" si="19"/>
         <v>0c</v>
       </c>
-      <c r="N41" s="21" t="str">
+      <c r="N41" s="19" t="str">
         <f t="shared" si="19"/>
         <v>20</v>
       </c>
-      <c r="O41" s="21" t="str">
+      <c r="O41" s="19" t="str">
         <f t="shared" si="19"/>
         <v>00</v>
       </c>
-      <c r="P41" s="10" t="str">
+      <c r="P41" s="8" t="str">
         <f t="shared" si="19"/>
         <v>63</v>
       </c>
-      <c r="Q41" s="10" t="str">
+      <c r="Q41" s="8" t="str">
         <f t="shared" si="19"/>
         <v>61</v>
       </c>
-      <c r="R41" s="10" t="str">
+      <c r="R41" s="8" t="str">
         <f t="shared" si="19"/>
         <v>6c</v>
       </c>
-      <c r="S41" s="10" t="str">
+      <c r="S41" s="8" t="str">
         <f t="shared" si="19"/>
         <v>63</v>
       </c>
-      <c r="T41" s="10" t="str">
+      <c r="T41" s="8" t="str">
         <f t="shared" si="19"/>
         <v>2e</v>
       </c>
-      <c r="U41" s="10" t="str">
+      <c r="U41" s="8" t="str">
         <f t="shared" si="19"/>
         <v>65</v>
       </c>
-      <c r="V41" s="10" t="str">
+      <c r="V41" s="8" t="str">
         <f t="shared" si="19"/>
         <v>78</v>
       </c>
-      <c r="W41" s="10" t="str">
+      <c r="W41" s="8" t="str">
         <f t="shared" si="19"/>
         <v>65</v>
       </c>
-      <c r="X41" s="10" t="str">
+      <c r="X41" s="8" t="str">
         <f t="shared" si="19"/>
         <v>00</v>
       </c>
-      <c r="Y41" s="19" t="str">
+      <c r="Y41" s="17" t="str">
         <f t="shared" si="19"/>
         <v>00</v>
       </c>
-      <c r="Z41" s="11" t="str">
+      <c r="Z41" s="9" t="str">
         <f t="shared" si="19"/>
         <v>3e</v>
       </c>
-      <c r="AA41" s="11" t="str">
+      <c r="AA41" s="9" t="str">
         <f t="shared" si="19"/>
         <v>00</v>
       </c>
-      <c r="AB41" s="20" t="str">
+      <c r="AB41" s="18" t="str">
         <f t="shared" si="19"/>
         <v>08</v>
       </c>
-      <c r="AC41" s="20" t="str">
+      <c r="AC41" s="18" t="str">
         <f t="shared" si="19"/>
         <v>00</v>
       </c>
-      <c r="AD41" s="20" t="str">
+      <c r="AD41" s="18" t="str">
         <f t="shared" si="19"/>
         <v>04</v>
       </c>
-      <c r="AE41" s="20" t="str">
+      <c r="AE41" s="18" t="str">
         <f t="shared" si="19"/>
         <v>00</v>
       </c>
-      <c r="AF41" s="20" t="str">
+      <c r="AF41" s="18" t="str">
         <f t="shared" si="19"/>
         <v>ef</v>
       </c>
-      <c r="AG41" s="20" t="str">
+      <c r="AG41" s="18" t="str">
         <f t="shared" si="19"/>
         <v>be</v>
       </c>
-      <c r="AH41" s="20" t="str">
+      <c r="AH41" s="18" t="str">
         <f t="shared" si="19"/>
         <v>ed</v>
       </c>
-      <c r="AI41" s="20" t="str">
+      <c r="AI41" s="18" t="str">
         <f t="shared" si="19"/>
         <v>3a</v>
       </c>
-      <c r="AJ41" s="18" t="str">
+      <c r="AJ41" s="16" t="str">
         <f t="shared" si="19"/>
         <v>26</v>
       </c>
-      <c r="AK41" s="18" t="str">
+      <c r="AK41" s="16" t="str">
         <f t="shared" si="19"/>
         <v>bf</v>
       </c>
-      <c r="AL41" s="18" t="str">
+      <c r="AL41" s="16" t="str">
         <f t="shared" si="19"/>
         <v>ed</v>
       </c>
-      <c r="AM41" s="18" t="str">
+      <c r="AM41" s="16" t="str">
         <f t="shared" si="19"/>
         <v>3a</v>
       </c>
-      <c r="AN41" s="18" t="str">
+      <c r="AN41" s="16" t="str">
         <f t="shared" si="19"/>
         <v>26</v>
       </c>
-      <c r="AO41" s="18" t="str">
+      <c r="AO41" s="16" t="str">
         <f t="shared" si="19"/>
         <v>bf</v>
       </c>
-      <c r="AP41" s="18" t="str">
+      <c r="AP41" s="16" t="str">
         <f t="shared" si="19"/>
         <v>2a</v>
       </c>
-      <c r="AQ41" s="18" t="str">
+      <c r="AQ41" s="16" t="str">
         <f t="shared" si="19"/>
         <v>00</v>
       </c>
-      <c r="AR41" s="18" t="str">
+      <c r="AR41" s="16" t="str">
         <f t="shared" si="19"/>
         <v>00</v>
       </c>
-      <c r="AS41" s="18" t="str">
+      <c r="AS41" s="16" t="str">
         <f t="shared" si="19"/>
         <v>00</v>
       </c>
-      <c r="AT41" s="18" t="str">
+      <c r="AT41" s="16" t="str">
         <f t="shared" si="19"/>
         <v>48</v>
       </c>
-      <c r="AU41" s="18" t="str">
+      <c r="AU41" s="16" t="str">
         <f t="shared" si="19"/>
         <v>f2</v>
       </c>
-      <c r="AV41" s="18" t="str">
+      <c r="AV41" s="16" t="str">
         <f t="shared" si="19"/>
         <v>01</v>
       </c>
-      <c r="AW41" s="18" t="str">
+      <c r="AW41" s="16" t="str">
         <f t="shared" si="19"/>
         <v>00</v>
       </c>
-      <c r="AX41" s="18" t="str">
+      <c r="AX41" s="16" t="str">
         <f t="shared" si="19"/>
         <v>00</v>
       </c>
-      <c r="AY41" s="18" t="str">
+      <c r="AY41" s="16" t="str">
         <f t="shared" si="19"/>
         <v>00</v>
       </c>
-      <c r="AZ41" s="18" t="str">
+      <c r="AZ41" s="16" t="str">
         <f t="shared" si="19"/>
         <v>01</v>
       </c>
-      <c r="BA41" s="18" t="str">
+      <c r="BA41" s="16" t="str">
         <f t="shared" si="19"/>
         <v>00</v>
       </c>
-      <c r="BB41" s="18" t="str">
+      <c r="BB41" s="16" t="str">
         <f t="shared" si="19"/>
         <v>00</v>
       </c>
-      <c r="BC41" s="18" t="str">
+      <c r="BC41" s="16" t="str">
         <f t="shared" si="19"/>
         <v>00</v>
       </c>
-      <c r="BD41" s="18" t="str">
+      <c r="BD41" s="16" t="str">
         <f t="shared" si="19"/>
         <v>00</v>
       </c>
-      <c r="BE41" s="18" t="str">
+      <c r="BE41" s="16" t="str">
         <f t="shared" si="19"/>
         <v>00</v>
       </c>
-      <c r="BF41" s="18" t="str">
+      <c r="BF41" s="16" t="str">
         <f t="shared" si="19"/>
         <v>00</v>
       </c>
-      <c r="BG41" s="18" t="str">
+      <c r="BG41" s="16" t="str">
         <f t="shared" si="19"/>
         <v>00</v>
       </c>
-      <c r="BH41" s="18" t="str">
+      <c r="BH41" s="16" t="str">
         <f t="shared" si="19"/>
         <v>00</v>
       </c>
-      <c r="BI41" s="18" t="str">
+      <c r="BI41" s="16" t="str">
         <f t="shared" si="19"/>
         <v>00</v>
       </c>
-      <c r="BJ41" s="18" t="str">
+      <c r="BJ41" s="16" t="str">
         <f t="shared" si="19"/>
         <v>00</v>
       </c>
-      <c r="BK41" s="18" t="str">
+      <c r="BK41" s="16" t="str">
         <f t="shared" si="19"/>
         <v>00</v>
       </c>
-      <c r="BL41" s="18" t="str">
+      <c r="BL41" s="16" t="str">
         <f t="shared" si="19"/>
         <v>00</v>
       </c>
-      <c r="BM41" s="18" t="str">
+      <c r="BM41" s="16" t="str">
         <f t="shared" si="19"/>
         <v>00</v>
       </c>
-      <c r="BN41" s="18" t="str">
+      <c r="BN41" s="16" t="str">
         <f t="shared" si="19"/>
         <v>00</v>
       </c>
-      <c r="BO41" s="18" t="str">
+      <c r="BO41" s="16" t="str">
         <f t="shared" ref="BO41:BP41" si="20">MID($DD$40,(BO1*3)+1,2)</f>
         <v>00</v>
       </c>
-      <c r="BP41" s="10" t="str">
+      <c r="BP41" s="8" t="str">
         <f t="shared" si="20"/>
         <v>63</v>
       </c>
-      <c r="BQ41" s="10" t="str">
+      <c r="BQ41" s="8" t="str">
         <f>MID($DD$40,(BQ1*3)+1,2)</f>
         <v>00</v>
       </c>
-      <c r="BR41" s="10" t="str">
+      <c r="BR41" s="8" t="str">
         <f t="shared" ref="BR41:CI41" si="21">MID($DD$40,(BR1*3)+1,2)</f>
         <v>61</v>
       </c>
-      <c r="BS41" s="10" t="str">
+      <c r="BS41" s="8" t="str">
         <f t="shared" si="21"/>
         <v>00</v>
       </c>
-      <c r="BT41" s="10" t="str">
+      <c r="BT41" s="8" t="str">
         <f t="shared" si="21"/>
         <v>6c</v>
       </c>
-      <c r="BU41" s="10" t="str">
+      <c r="BU41" s="8" t="str">
         <f t="shared" si="21"/>
         <v>00</v>
       </c>
-      <c r="BV41" s="10" t="str">
+      <c r="BV41" s="8" t="str">
         <f t="shared" si="21"/>
         <v>63</v>
       </c>
-      <c r="BW41" s="10" t="str">
+      <c r="BW41" s="8" t="str">
         <f t="shared" si="21"/>
         <v>00</v>
       </c>
-      <c r="BX41" s="10" t="str">
+      <c r="BX41" s="8" t="str">
         <f t="shared" si="21"/>
         <v>2e</v>
       </c>
-      <c r="BY41" s="10" t="str">
+      <c r="BY41" s="8" t="str">
         <f t="shared" si="21"/>
         <v>00</v>
       </c>
-      <c r="BZ41" s="10" t="str">
+      <c r="BZ41" s="8" t="str">
         <f t="shared" si="21"/>
         <v>65</v>
       </c>
-      <c r="CA41" s="10" t="str">
+      <c r="CA41" s="8" t="str">
         <f t="shared" si="21"/>
         <v>00</v>
       </c>
-      <c r="CB41" s="10" t="str">
+      <c r="CB41" s="8" t="str">
         <f t="shared" si="21"/>
         <v>78</v>
       </c>
-      <c r="CC41" s="10" t="str">
+      <c r="CC41" s="8" t="str">
         <f t="shared" si="21"/>
         <v>00</v>
       </c>
-      <c r="CD41" s="10" t="str">
+      <c r="CD41" s="8" t="str">
         <f t="shared" si="21"/>
         <v>65</v>
       </c>
-      <c r="CE41" s="10" t="str">
+      <c r="CE41" s="8" t="str">
         <f t="shared" si="21"/>
         <v>00</v>
       </c>
-      <c r="CF41" s="10" t="str">
+      <c r="CF41" s="8" t="str">
         <f t="shared" si="21"/>
         <v>00</v>
       </c>
-      <c r="CG41" s="10" t="str">
+      <c r="CG41" s="8" t="str">
         <f t="shared" si="21"/>
         <v>00</v>
       </c>
-      <c r="CH41" s="18" t="str">
+      <c r="CH41" s="16" t="str">
         <f t="shared" si="21"/>
         <v>18</v>
       </c>
-      <c r="CI41" s="18" t="str">
+      <c r="CI41" s="16" t="str">
         <f t="shared" si="21"/>
         <v>00</v>
       </c>
@@ -7088,191 +7080,191 @@
       <c r="CL41" s="4"/>
       <c r="CM41" s="4"/>
     </row>
-    <row r="42" spans="1:163" x14ac:dyDescent="0.25">
-      <c r="A42" s="35"/>
-      <c r="B42" s="31" t="s">
+    <row r="42" spans="1:163">
+      <c r="A42" s="32"/>
+      <c r="B42" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C42" s="32"/>
-      <c r="D42" s="32" t="s">
+      <c r="C42" s="24"/>
+      <c r="D42" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="E42" s="32"/>
-      <c r="F42" s="32"/>
-      <c r="G42" s="32"/>
-      <c r="H42" s="32"/>
-      <c r="I42" s="32"/>
-      <c r="J42" s="32"/>
-      <c r="K42" s="32"/>
-      <c r="L42" s="32"/>
-      <c r="M42" s="32"/>
-      <c r="N42" s="32"/>
-      <c r="O42" s="32"/>
-      <c r="P42" s="32"/>
-      <c r="Q42" s="32"/>
-      <c r="R42" s="32"/>
-      <c r="S42" s="32"/>
-      <c r="T42" s="32"/>
-      <c r="U42" s="32"/>
-      <c r="V42" s="32"/>
-      <c r="W42" s="32"/>
-      <c r="X42" s="32"/>
-      <c r="Y42" s="32"/>
-      <c r="Z42" s="32"/>
-      <c r="AA42" s="32"/>
-      <c r="AB42" s="32"/>
-      <c r="AC42" s="32"/>
-      <c r="AD42" s="32"/>
-      <c r="AE42" s="32"/>
-      <c r="AF42" s="32"/>
-      <c r="AG42" s="32"/>
-      <c r="AH42" s="32"/>
-      <c r="AI42" s="32"/>
-      <c r="AJ42" s="32"/>
-      <c r="AK42" s="32"/>
-      <c r="AL42" s="32"/>
-      <c r="AM42" s="32"/>
-      <c r="AN42" s="32"/>
-      <c r="AO42" s="32"/>
-      <c r="AP42" s="32"/>
-      <c r="AQ42" s="32"/>
-      <c r="AR42" s="32"/>
-      <c r="AS42" s="32"/>
-      <c r="AT42" s="32"/>
-      <c r="AU42" s="32"/>
-      <c r="AV42" s="32"/>
-      <c r="AW42" s="32"/>
-      <c r="AX42" s="32"/>
-      <c r="AY42" s="32"/>
-      <c r="AZ42" s="32"/>
-      <c r="BA42" s="32"/>
-      <c r="BB42" s="32"/>
-      <c r="BC42" s="32"/>
-      <c r="BD42" s="32"/>
-      <c r="BE42" s="32"/>
-      <c r="BF42" s="32"/>
-      <c r="BG42" s="32"/>
-      <c r="BH42" s="32"/>
-      <c r="BI42" s="32"/>
-      <c r="BJ42" s="32"/>
-      <c r="BK42" s="32"/>
-      <c r="BL42" s="32"/>
-      <c r="BM42" s="32"/>
-      <c r="BN42" s="32"/>
-      <c r="BO42" s="32"/>
-      <c r="BP42" s="32"/>
-      <c r="BQ42" s="32"/>
-      <c r="BR42" s="32"/>
-      <c r="BS42" s="32"/>
-      <c r="BT42" s="32"/>
-      <c r="BU42" s="32"/>
-      <c r="BV42" s="32"/>
-      <c r="BW42" s="32"/>
-      <c r="BX42" s="32"/>
-      <c r="BY42" s="32"/>
-      <c r="BZ42" s="32"/>
-      <c r="CA42" s="32"/>
-      <c r="CB42" s="32"/>
-      <c r="CC42" s="32"/>
-      <c r="CD42" s="32"/>
-      <c r="CE42" s="32"/>
-      <c r="CF42" s="32"/>
-      <c r="CG42" s="32"/>
-      <c r="CH42" s="32"/>
-      <c r="CI42" s="32"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="24"/>
+      <c r="H42" s="24"/>
+      <c r="I42" s="24"/>
+      <c r="J42" s="24"/>
+      <c r="K42" s="24"/>
+      <c r="L42" s="24"/>
+      <c r="M42" s="24"/>
+      <c r="N42" s="24"/>
+      <c r="O42" s="24"/>
+      <c r="P42" s="24"/>
+      <c r="Q42" s="24"/>
+      <c r="R42" s="24"/>
+      <c r="S42" s="24"/>
+      <c r="T42" s="24"/>
+      <c r="U42" s="24"/>
+      <c r="V42" s="24"/>
+      <c r="W42" s="24"/>
+      <c r="X42" s="24"/>
+      <c r="Y42" s="24"/>
+      <c r="Z42" s="24"/>
+      <c r="AA42" s="24"/>
+      <c r="AB42" s="24"/>
+      <c r="AC42" s="24"/>
+      <c r="AD42" s="24"/>
+      <c r="AE42" s="24"/>
+      <c r="AF42" s="24"/>
+      <c r="AG42" s="24"/>
+      <c r="AH42" s="24"/>
+      <c r="AI42" s="24"/>
+      <c r="AJ42" s="24"/>
+      <c r="AK42" s="24"/>
+      <c r="AL42" s="24"/>
+      <c r="AM42" s="24"/>
+      <c r="AN42" s="24"/>
+      <c r="AO42" s="24"/>
+      <c r="AP42" s="24"/>
+      <c r="AQ42" s="24"/>
+      <c r="AR42" s="24"/>
+      <c r="AS42" s="24"/>
+      <c r="AT42" s="24"/>
+      <c r="AU42" s="24"/>
+      <c r="AV42" s="24"/>
+      <c r="AW42" s="24"/>
+      <c r="AX42" s="24"/>
+      <c r="AY42" s="24"/>
+      <c r="AZ42" s="24"/>
+      <c r="BA42" s="24"/>
+      <c r="BB42" s="24"/>
+      <c r="BC42" s="24"/>
+      <c r="BD42" s="24"/>
+      <c r="BE42" s="24"/>
+      <c r="BF42" s="24"/>
+      <c r="BG42" s="24"/>
+      <c r="BH42" s="24"/>
+      <c r="BI42" s="24"/>
+      <c r="BJ42" s="24"/>
+      <c r="BK42" s="24"/>
+      <c r="BL42" s="24"/>
+      <c r="BM42" s="24"/>
+      <c r="BN42" s="24"/>
+      <c r="BO42" s="24"/>
+      <c r="BP42" s="24"/>
+      <c r="BQ42" s="24"/>
+      <c r="BR42" s="24"/>
+      <c r="BS42" s="24"/>
+      <c r="BT42" s="24"/>
+      <c r="BU42" s="24"/>
+      <c r="BV42" s="24"/>
+      <c r="BW42" s="24"/>
+      <c r="BX42" s="24"/>
+      <c r="BY42" s="24"/>
+      <c r="BZ42" s="24"/>
+      <c r="CA42" s="24"/>
+      <c r="CB42" s="24"/>
+      <c r="CC42" s="24"/>
+      <c r="CD42" s="24"/>
+      <c r="CE42" s="24"/>
+      <c r="CF42" s="24"/>
+      <c r="CG42" s="24"/>
+      <c r="CH42" s="24"/>
+      <c r="CI42" s="24"/>
     </row>
-    <row r="43" spans="1:163" x14ac:dyDescent="0.25">
-      <c r="A43" s="35"/>
-      <c r="Z43" s="24" t="s">
+    <row r="43" spans="1:163">
+      <c r="A43" s="32"/>
+      <c r="Z43" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="AA43" s="24"/>
-      <c r="AB43" s="25" t="s">
+      <c r="AA43" s="30"/>
+      <c r="AB43" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="AC43" s="25"/>
-      <c r="AD43" s="25"/>
-      <c r="AE43" s="25"/>
-      <c r="AF43" s="25"/>
-      <c r="AG43" s="25"/>
-      <c r="AH43" s="25"/>
-      <c r="AI43" s="25"/>
-      <c r="AJ43" s="25"/>
-      <c r="AK43" s="25"/>
-      <c r="AL43" s="25"/>
-      <c r="AM43" s="25"/>
-      <c r="AN43" s="25"/>
-      <c r="AO43" s="25"/>
-      <c r="AP43" s="25"/>
-      <c r="AQ43" s="25"/>
-      <c r="AR43" s="25"/>
-      <c r="AS43" s="25"/>
-      <c r="AT43" s="25"/>
-      <c r="AU43" s="25"/>
-      <c r="AV43" s="25"/>
-      <c r="AW43" s="25"/>
-      <c r="AX43" s="25"/>
-      <c r="AY43" s="25"/>
-      <c r="AZ43" s="25"/>
-      <c r="BA43" s="25"/>
-      <c r="BB43" s="25"/>
-      <c r="BC43" s="25"/>
-      <c r="BD43" s="25"/>
-      <c r="BE43" s="25"/>
-      <c r="BF43" s="25"/>
-      <c r="BG43" s="25"/>
-      <c r="BH43" s="25"/>
-      <c r="BI43" s="25"/>
-      <c r="BJ43" s="25"/>
-      <c r="BK43" s="25"/>
-      <c r="BL43" s="25"/>
-      <c r="BM43" s="25"/>
-      <c r="BN43" s="25"/>
-      <c r="BO43" s="25"/>
-      <c r="BP43" s="25"/>
-      <c r="BQ43" s="25"/>
-      <c r="BR43" s="25"/>
-      <c r="BS43" s="25"/>
-      <c r="BT43" s="25"/>
-      <c r="BU43" s="25"/>
-      <c r="BV43" s="25"/>
-      <c r="BW43" s="25"/>
-      <c r="BX43" s="25"/>
-      <c r="BY43" s="25"/>
-      <c r="BZ43" s="25"/>
-      <c r="CA43" s="25"/>
-      <c r="CB43" s="25"/>
-      <c r="CC43" s="25"/>
-      <c r="CD43" s="25"/>
-      <c r="CE43" s="25"/>
-      <c r="CF43" s="25"/>
-      <c r="CG43" s="25"/>
-      <c r="CH43" s="25"/>
-      <c r="CI43" s="25"/>
+      <c r="AC43" s="27"/>
+      <c r="AD43" s="27"/>
+      <c r="AE43" s="27"/>
+      <c r="AF43" s="27"/>
+      <c r="AG43" s="27"/>
+      <c r="AH43" s="27"/>
+      <c r="AI43" s="27"/>
+      <c r="AJ43" s="27"/>
+      <c r="AK43" s="27"/>
+      <c r="AL43" s="27"/>
+      <c r="AM43" s="27"/>
+      <c r="AN43" s="27"/>
+      <c r="AO43" s="27"/>
+      <c r="AP43" s="27"/>
+      <c r="AQ43" s="27"/>
+      <c r="AR43" s="27"/>
+      <c r="AS43" s="27"/>
+      <c r="AT43" s="27"/>
+      <c r="AU43" s="27"/>
+      <c r="AV43" s="27"/>
+      <c r="AW43" s="27"/>
+      <c r="AX43" s="27"/>
+      <c r="AY43" s="27"/>
+      <c r="AZ43" s="27"/>
+      <c r="BA43" s="27"/>
+      <c r="BB43" s="27"/>
+      <c r="BC43" s="27"/>
+      <c r="BD43" s="27"/>
+      <c r="BE43" s="27"/>
+      <c r="BF43" s="27"/>
+      <c r="BG43" s="27"/>
+      <c r="BH43" s="27"/>
+      <c r="BI43" s="27"/>
+      <c r="BJ43" s="27"/>
+      <c r="BK43" s="27"/>
+      <c r="BL43" s="27"/>
+      <c r="BM43" s="27"/>
+      <c r="BN43" s="27"/>
+      <c r="BO43" s="27"/>
+      <c r="BP43" s="27"/>
+      <c r="BQ43" s="27"/>
+      <c r="BR43" s="27"/>
+      <c r="BS43" s="27"/>
+      <c r="BT43" s="27"/>
+      <c r="BU43" s="27"/>
+      <c r="BV43" s="27"/>
+      <c r="BW43" s="27"/>
+      <c r="BX43" s="27"/>
+      <c r="BY43" s="27"/>
+      <c r="BZ43" s="27"/>
+      <c r="CA43" s="27"/>
+      <c r="CB43" s="27"/>
+      <c r="CC43" s="27"/>
+      <c r="CD43" s="27"/>
+      <c r="CE43" s="27"/>
+      <c r="CF43" s="27"/>
+      <c r="CG43" s="27"/>
+      <c r="CH43" s="27"/>
+      <c r="CI43" s="27"/>
     </row>
-    <row r="44" spans="1:163" x14ac:dyDescent="0.25">
-      <c r="A44" s="35"/>
+    <row r="44" spans="1:163">
+      <c r="A44" s="32"/>
     </row>
-    <row r="45" spans="1:163" x14ac:dyDescent="0.25">
-      <c r="A45" s="35"/>
+    <row r="45" spans="1:163">
+      <c r="A45" s="32"/>
     </row>
-    <row r="46" spans="1:163" x14ac:dyDescent="0.25">
-      <c r="A46" s="35"/>
+    <row r="46" spans="1:163">
+      <c r="A46" s="32"/>
     </row>
-    <row r="47" spans="1:163" x14ac:dyDescent="0.25">
-      <c r="A47" s="35"/>
+    <row r="47" spans="1:163">
+      <c r="A47" s="32"/>
     </row>
-    <row r="48" spans="1:163" x14ac:dyDescent="0.25">
-      <c r="A48" s="35"/>
+    <row r="48" spans="1:163">
+      <c r="A48" s="32"/>
     </row>
-    <row r="49" spans="1:109" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" spans="1:109" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="29" t="s">
+    <row r="49" spans="1:109" s="5" customFormat="1" ht="15" customHeight="1"/>
+    <row r="50" spans="1:109" ht="15" customHeight="1">
+      <c r="A50" s="36" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="51" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A51" s="30"/>
+    <row r="51" spans="1:109">
+      <c r="A51" s="37"/>
       <c r="B51" t="str">
         <f>MID($DE$51,B1+1,1)</f>
         <v>J</v>
@@ -7588,301 +7580,301 @@
         <v>35</v>
       </c>
     </row>
-    <row r="52" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A52" s="30"/>
-      <c r="B52" s="18" t="str">
+    <row r="52" spans="1:109">
+      <c r="A52" s="37"/>
+      <c r="B52" s="16" t="str">
         <f>MID($DD$51,(B1*3)+1,2)</f>
         <v>4a</v>
       </c>
-      <c r="C52" s="18" t="str">
+      <c r="C52" s="16" t="str">
         <f t="shared" ref="C52:AT52" si="24">MID($DD$51,(C1*3)+1,2)</f>
         <v>00</v>
       </c>
-      <c r="D52" s="14" t="str">
+      <c r="D52" s="12" t="str">
         <f t="shared" si="24"/>
         <v>31</v>
       </c>
-      <c r="E52" s="14" t="str">
+      <c r="E52" s="12" t="str">
         <f t="shared" si="24"/>
         <v>00</v>
       </c>
-      <c r="F52" s="14" t="str">
+      <c r="F52" s="12" t="str">
         <f t="shared" si="24"/>
         <v>00</v>
       </c>
-      <c r="G52" s="14" t="str">
+      <c r="G52" s="12" t="str">
         <f t="shared" si="24"/>
         <v>00</v>
       </c>
-      <c r="H52" s="14" t="str">
+      <c r="H52" s="12" t="str">
         <f t="shared" si="24"/>
         <v>00</v>
       </c>
-      <c r="I52" s="14" t="str">
+      <c r="I52" s="12" t="str">
         <f t="shared" si="24"/>
         <v>00</v>
       </c>
-      <c r="J52" s="14" t="str">
+      <c r="J52" s="12" t="str">
         <f t="shared" si="24"/>
         <v>4d</v>
       </c>
-      <c r="K52" s="14" t="str">
+      <c r="K52" s="12" t="str">
         <f t="shared" si="24"/>
         <v>4c</v>
       </c>
-      <c r="L52" s="14" t="str">
+      <c r="L52" s="12" t="str">
         <f t="shared" si="24"/>
         <v>b8</v>
       </c>
-      <c r="M52" s="14" t="str">
+      <c r="M52" s="12" t="str">
         <f t="shared" si="24"/>
         <v>68</v>
       </c>
-      <c r="N52" s="21" t="str">
+      <c r="N52" s="19" t="str">
         <f t="shared" si="24"/>
         <v>10</v>
       </c>
-      <c r="O52" s="21" t="str">
+      <c r="O52" s="19" t="str">
         <f t="shared" si="24"/>
         <v>00</v>
       </c>
-      <c r="P52" s="10" t="str">
+      <c r="P52" s="8" t="str">
         <f t="shared" si="24"/>
         <v>74</v>
       </c>
-      <c r="Q52" s="10" t="str">
+      <c r="Q52" s="8" t="str">
         <f t="shared" si="24"/>
         <v>65</v>
       </c>
-      <c r="R52" s="10" t="str">
+      <c r="R52" s="8" t="str">
         <f t="shared" si="24"/>
         <v>6d</v>
       </c>
-      <c r="S52" s="10" t="str">
+      <c r="S52" s="8" t="str">
         <f t="shared" si="24"/>
         <v>70</v>
       </c>
-      <c r="T52" s="10" t="str">
+      <c r="T52" s="8" t="str">
         <f t="shared" si="24"/>
         <v>00</v>
       </c>
-      <c r="U52" s="19" t="str">
+      <c r="U52" s="17" t="str">
         <f t="shared" si="24"/>
         <v>00</v>
       </c>
-      <c r="V52" s="11" t="str">
+      <c r="V52" s="9" t="str">
         <f t="shared" si="24"/>
         <v>36</v>
       </c>
-      <c r="W52" s="11" t="str">
+      <c r="W52" s="9" t="str">
         <f t="shared" si="24"/>
         <v>00</v>
       </c>
-      <c r="X52" s="20" t="str">
+      <c r="X52" s="18" t="str">
         <f t="shared" si="24"/>
         <v>08</v>
       </c>
-      <c r="Y52" s="20" t="str">
+      <c r="Y52" s="18" t="str">
         <f t="shared" si="24"/>
         <v>00</v>
       </c>
-      <c r="Z52" s="20" t="str">
+      <c r="Z52" s="18" t="str">
         <f t="shared" si="24"/>
         <v>04</v>
       </c>
-      <c r="AA52" s="20" t="str">
+      <c r="AA52" s="18" t="str">
         <f t="shared" si="24"/>
         <v>00</v>
       </c>
-      <c r="AB52" s="20" t="str">
+      <c r="AB52" s="18" t="str">
         <f t="shared" si="24"/>
         <v>ef</v>
       </c>
-      <c r="AC52" s="20" t="str">
+      <c r="AC52" s="18" t="str">
         <f t="shared" si="24"/>
         <v>be</v>
       </c>
-      <c r="AD52" s="20" t="str">
+      <c r="AD52" s="18" t="str">
         <f t="shared" si="24"/>
         <v>f9</v>
       </c>
-      <c r="AE52" s="20" t="str">
+      <c r="AE52" s="18" t="str">
         <f t="shared" si="24"/>
         <v>44</v>
       </c>
-      <c r="AF52" s="18" t="str">
+      <c r="AF52" s="16" t="str">
         <f t="shared" si="24"/>
         <v>39</v>
       </c>
-      <c r="AG52" s="18" t="str">
+      <c r="AG52" s="16" t="str">
         <f t="shared" si="24"/>
         <v>99</v>
       </c>
-      <c r="AH52" s="18" t="str">
+      <c r="AH52" s="16" t="str">
         <f t="shared" si="24"/>
         <v>4d</v>
       </c>
-      <c r="AI52" s="18" t="str">
+      <c r="AI52" s="16" t="str">
         <f t="shared" si="24"/>
         <v>4c</v>
       </c>
-      <c r="AJ52" s="18" t="str">
+      <c r="AJ52" s="16" t="str">
         <f t="shared" si="24"/>
         <v>b8</v>
       </c>
-      <c r="AK52" s="18" t="str">
+      <c r="AK52" s="16" t="str">
         <f t="shared" si="24"/>
         <v>68</v>
       </c>
-      <c r="AL52" s="18" t="str">
+      <c r="AL52" s="16" t="str">
         <f t="shared" si="24"/>
         <v>2a</v>
       </c>
-      <c r="AM52" s="18" t="str">
+      <c r="AM52" s="16" t="str">
         <f t="shared" si="24"/>
         <v>00</v>
       </c>
-      <c r="AN52" s="18" t="str">
+      <c r="AN52" s="16" t="str">
         <f t="shared" si="24"/>
         <v>00</v>
       </c>
-      <c r="AO52" s="18" t="str">
+      <c r="AO52" s="16" t="str">
         <f t="shared" si="24"/>
         <v>00</v>
       </c>
-      <c r="AP52" s="18" t="str">
+      <c r="AP52" s="16" t="str">
         <f t="shared" si="24"/>
         <v>88</v>
       </c>
-      <c r="AQ52" s="18" t="str">
+      <c r="AQ52" s="16" t="str">
         <f t="shared" si="24"/>
         <v>d8</v>
       </c>
-      <c r="AR52" s="18" t="str">
+      <c r="AR52" s="16" t="str">
         <f t="shared" si="24"/>
         <v>01</v>
       </c>
-      <c r="AS52" s="18" t="str">
+      <c r="AS52" s="16" t="str">
         <f t="shared" si="24"/>
         <v>00</v>
       </c>
-      <c r="AT52" s="18" t="str">
+      <c r="AT52" s="16" t="str">
         <f t="shared" si="24"/>
         <v>00</v>
       </c>
-      <c r="AU52" s="18" t="str">
+      <c r="AU52" s="16" t="str">
         <f>MID($DD$51,(AU1*3)+1,2)</f>
         <v>00</v>
       </c>
-      <c r="AV52" s="18" t="str">
+      <c r="AV52" s="16" t="str">
         <f t="shared" ref="AV52:BW52" si="25">MID($DD$51,(AV1*3)+1,2)</f>
         <v>01</v>
       </c>
-      <c r="AW52" s="18" t="str">
+      <c r="AW52" s="16" t="str">
         <f t="shared" si="25"/>
         <v>00</v>
       </c>
-      <c r="AX52" s="18" t="str">
+      <c r="AX52" s="16" t="str">
         <f t="shared" si="25"/>
         <v>00</v>
       </c>
-      <c r="AY52" s="18" t="str">
+      <c r="AY52" s="16" t="str">
         <f t="shared" si="25"/>
         <v>00</v>
       </c>
-      <c r="AZ52" s="18" t="str">
+      <c r="AZ52" s="16" t="str">
         <f t="shared" si="25"/>
         <v>00</v>
       </c>
-      <c r="BA52" s="18" t="str">
+      <c r="BA52" s="16" t="str">
         <f t="shared" si="25"/>
         <v>00</v>
       </c>
-      <c r="BB52" s="18" t="str">
+      <c r="BB52" s="16" t="str">
         <f t="shared" si="25"/>
         <v>00</v>
       </c>
-      <c r="BC52" s="18" t="str">
+      <c r="BC52" s="16" t="str">
         <f t="shared" si="25"/>
         <v>00</v>
       </c>
-      <c r="BD52" s="18" t="str">
+      <c r="BD52" s="16" t="str">
         <f t="shared" si="25"/>
         <v>00</v>
       </c>
-      <c r="BE52" s="18" t="str">
+      <c r="BE52" s="16" t="str">
         <f t="shared" si="25"/>
         <v>00</v>
       </c>
-      <c r="BF52" s="18" t="str">
+      <c r="BF52" s="16" t="str">
         <f t="shared" si="25"/>
         <v>00</v>
       </c>
-      <c r="BG52" s="18" t="str">
+      <c r="BG52" s="16" t="str">
         <f t="shared" si="25"/>
         <v>00</v>
       </c>
-      <c r="BH52" s="18" t="str">
+      <c r="BH52" s="16" t="str">
         <f t="shared" si="25"/>
         <v>00</v>
       </c>
-      <c r="BI52" s="18" t="str">
+      <c r="BI52" s="16" t="str">
         <f t="shared" si="25"/>
         <v>00</v>
       </c>
-      <c r="BJ52" s="18" t="str">
+      <c r="BJ52" s="16" t="str">
         <f t="shared" si="25"/>
         <v>00</v>
       </c>
-      <c r="BK52" s="18" t="str">
+      <c r="BK52" s="16" t="str">
         <f t="shared" si="25"/>
         <v>00</v>
       </c>
-      <c r="BL52" s="10" t="str">
+      <c r="BL52" s="8" t="str">
         <f t="shared" si="25"/>
         <v>74</v>
       </c>
-      <c r="BM52" s="10" t="str">
+      <c r="BM52" s="8" t="str">
         <f t="shared" si="25"/>
         <v>00</v>
       </c>
-      <c r="BN52" s="10" t="str">
+      <c r="BN52" s="8" t="str">
         <f t="shared" si="25"/>
         <v>65</v>
       </c>
-      <c r="BO52" s="10" t="str">
+      <c r="BO52" s="8" t="str">
         <f t="shared" si="25"/>
         <v>00</v>
       </c>
-      <c r="BP52" s="10" t="str">
+      <c r="BP52" s="8" t="str">
         <f t="shared" si="25"/>
         <v>6d</v>
       </c>
-      <c r="BQ52" s="10" t="str">
+      <c r="BQ52" s="8" t="str">
         <f t="shared" si="25"/>
         <v>00</v>
       </c>
-      <c r="BR52" s="10" t="str">
+      <c r="BR52" s="8" t="str">
         <f t="shared" si="25"/>
         <v>70</v>
       </c>
-      <c r="BS52" s="10" t="str">
+      <c r="BS52" s="8" t="str">
         <f t="shared" si="25"/>
         <v>00</v>
       </c>
-      <c r="BT52" s="10" t="str">
+      <c r="BT52" s="8" t="str">
         <f t="shared" si="25"/>
         <v>00</v>
       </c>
-      <c r="BU52" s="10" t="str">
+      <c r="BU52" s="8" t="str">
         <f t="shared" si="25"/>
         <v>00</v>
       </c>
-      <c r="BV52" s="18" t="str">
+      <c r="BV52" s="16" t="str">
         <f t="shared" si="25"/>
         <v>14</v>
       </c>
-      <c r="BW52" s="18" t="str">
+      <c r="BW52" s="16" t="str">
         <f t="shared" si="25"/>
         <v>00</v>
       </c>
@@ -7899,165 +7891,165 @@
       <c r="CH52" s="4"/>
       <c r="CI52" s="4"/>
     </row>
-    <row r="53" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A53" s="30"/>
-      <c r="B53" s="31" t="s">
+    <row r="53" spans="1:109">
+      <c r="A53" s="37"/>
+      <c r="B53" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C53" s="32"/>
-      <c r="D53" s="32" t="s">
+      <c r="C53" s="24"/>
+      <c r="D53" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="E53" s="32"/>
-      <c r="F53" s="32"/>
-      <c r="G53" s="32"/>
-      <c r="H53" s="32"/>
-      <c r="I53" s="32"/>
-      <c r="J53" s="32"/>
-      <c r="K53" s="32"/>
-      <c r="L53" s="32"/>
-      <c r="M53" s="32"/>
-      <c r="N53" s="32"/>
-      <c r="O53" s="32"/>
-      <c r="P53" s="32"/>
-      <c r="Q53" s="32"/>
-      <c r="R53" s="32"/>
-      <c r="S53" s="32"/>
-      <c r="T53" s="32"/>
-      <c r="U53" s="32"/>
-      <c r="V53" s="32"/>
-      <c r="W53" s="32"/>
-      <c r="X53" s="32"/>
-      <c r="Y53" s="32"/>
-      <c r="Z53" s="32"/>
-      <c r="AA53" s="32"/>
-      <c r="AB53" s="32"/>
-      <c r="AC53" s="32"/>
-      <c r="AD53" s="32"/>
-      <c r="AE53" s="32"/>
-      <c r="AF53" s="32"/>
-      <c r="AG53" s="32"/>
-      <c r="AH53" s="32"/>
-      <c r="AI53" s="32"/>
-      <c r="AJ53" s="32"/>
-      <c r="AK53" s="32"/>
-      <c r="AL53" s="32"/>
-      <c r="AM53" s="32"/>
-      <c r="AN53" s="32"/>
-      <c r="AO53" s="32"/>
-      <c r="AP53" s="32"/>
-      <c r="AQ53" s="32"/>
-      <c r="AR53" s="32"/>
-      <c r="AS53" s="32"/>
-      <c r="AT53" s="32"/>
-      <c r="AU53" s="32"/>
-      <c r="AV53" s="32"/>
-      <c r="AW53" s="32"/>
-      <c r="AX53" s="32"/>
-      <c r="AY53" s="32"/>
-      <c r="AZ53" s="32"/>
-      <c r="BA53" s="32"/>
-      <c r="BB53" s="32"/>
-      <c r="BC53" s="32"/>
-      <c r="BD53" s="32"/>
-      <c r="BE53" s="32"/>
-      <c r="BF53" s="32"/>
-      <c r="BG53" s="32"/>
-      <c r="BH53" s="32"/>
-      <c r="BI53" s="32"/>
-      <c r="BJ53" s="32"/>
-      <c r="BK53" s="32"/>
-      <c r="BL53" s="32"/>
-      <c r="BM53" s="32"/>
-      <c r="BN53" s="32"/>
-      <c r="BO53" s="32"/>
-      <c r="BP53" s="32"/>
-      <c r="BQ53" s="32"/>
-      <c r="BR53" s="32"/>
-      <c r="BS53" s="32"/>
-      <c r="BT53" s="32"/>
-      <c r="BU53" s="32"/>
-      <c r="BV53" s="32"/>
-      <c r="BW53" s="32"/>
-      <c r="BX53" s="23"/>
-      <c r="BY53" s="23"/>
-      <c r="BZ53" s="23"/>
-      <c r="CA53" s="23"/>
-      <c r="CB53" s="23"/>
-      <c r="CC53" s="23"/>
-      <c r="CD53" s="23"/>
-      <c r="CE53" s="23"/>
-      <c r="CF53" s="23"/>
-      <c r="CG53" s="23"/>
-      <c r="CH53" s="23"/>
-      <c r="CI53" s="23"/>
+      <c r="E53" s="24"/>
+      <c r="F53" s="24"/>
+      <c r="G53" s="24"/>
+      <c r="H53" s="24"/>
+      <c r="I53" s="24"/>
+      <c r="J53" s="24"/>
+      <c r="K53" s="24"/>
+      <c r="L53" s="24"/>
+      <c r="M53" s="24"/>
+      <c r="N53" s="24"/>
+      <c r="O53" s="24"/>
+      <c r="P53" s="24"/>
+      <c r="Q53" s="24"/>
+      <c r="R53" s="24"/>
+      <c r="S53" s="24"/>
+      <c r="T53" s="24"/>
+      <c r="U53" s="24"/>
+      <c r="V53" s="24"/>
+      <c r="W53" s="24"/>
+      <c r="X53" s="24"/>
+      <c r="Y53" s="24"/>
+      <c r="Z53" s="24"/>
+      <c r="AA53" s="24"/>
+      <c r="AB53" s="24"/>
+      <c r="AC53" s="24"/>
+      <c r="AD53" s="24"/>
+      <c r="AE53" s="24"/>
+      <c r="AF53" s="24"/>
+      <c r="AG53" s="24"/>
+      <c r="AH53" s="24"/>
+      <c r="AI53" s="24"/>
+      <c r="AJ53" s="24"/>
+      <c r="AK53" s="24"/>
+      <c r="AL53" s="24"/>
+      <c r="AM53" s="24"/>
+      <c r="AN53" s="24"/>
+      <c r="AO53" s="24"/>
+      <c r="AP53" s="24"/>
+      <c r="AQ53" s="24"/>
+      <c r="AR53" s="24"/>
+      <c r="AS53" s="24"/>
+      <c r="AT53" s="24"/>
+      <c r="AU53" s="24"/>
+      <c r="AV53" s="24"/>
+      <c r="AW53" s="24"/>
+      <c r="AX53" s="24"/>
+      <c r="AY53" s="24"/>
+      <c r="AZ53" s="24"/>
+      <c r="BA53" s="24"/>
+      <c r="BB53" s="24"/>
+      <c r="BC53" s="24"/>
+      <c r="BD53" s="24"/>
+      <c r="BE53" s="24"/>
+      <c r="BF53" s="24"/>
+      <c r="BG53" s="24"/>
+      <c r="BH53" s="24"/>
+      <c r="BI53" s="24"/>
+      <c r="BJ53" s="24"/>
+      <c r="BK53" s="24"/>
+      <c r="BL53" s="24"/>
+      <c r="BM53" s="24"/>
+      <c r="BN53" s="24"/>
+      <c r="BO53" s="24"/>
+      <c r="BP53" s="24"/>
+      <c r="BQ53" s="24"/>
+      <c r="BR53" s="24"/>
+      <c r="BS53" s="24"/>
+      <c r="BT53" s="24"/>
+      <c r="BU53" s="24"/>
+      <c r="BV53" s="24"/>
+      <c r="BW53" s="24"/>
+      <c r="BX53" s="21"/>
+      <c r="BY53" s="21"/>
+      <c r="BZ53" s="21"/>
+      <c r="CA53" s="21"/>
+      <c r="CB53" s="21"/>
+      <c r="CC53" s="21"/>
+      <c r="CD53" s="21"/>
+      <c r="CE53" s="21"/>
+      <c r="CF53" s="21"/>
+      <c r="CG53" s="21"/>
+      <c r="CH53" s="21"/>
+      <c r="CI53" s="21"/>
     </row>
-    <row r="54" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A54" s="30"/>
-      <c r="V54" s="24" t="s">
+    <row r="54" spans="1:109">
+      <c r="A54" s="37"/>
+      <c r="V54" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="W54" s="24"/>
-      <c r="X54" s="25" t="s">
+      <c r="W54" s="30"/>
+      <c r="X54" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="Y54" s="25"/>
-      <c r="Z54" s="25"/>
-      <c r="AA54" s="25"/>
-      <c r="AB54" s="25"/>
-      <c r="AC54" s="25"/>
-      <c r="AD54" s="25"/>
-      <c r="AE54" s="25"/>
-      <c r="AF54" s="25"/>
-      <c r="AG54" s="25"/>
-      <c r="AH54" s="25"/>
-      <c r="AI54" s="25"/>
-      <c r="AJ54" s="25"/>
-      <c r="AK54" s="25"/>
-      <c r="AL54" s="25"/>
-      <c r="AM54" s="25"/>
-      <c r="AN54" s="25"/>
-      <c r="AO54" s="25"/>
-      <c r="AP54" s="25"/>
-      <c r="AQ54" s="25"/>
-      <c r="AR54" s="25"/>
-      <c r="AS54" s="25"/>
-      <c r="AT54" s="25"/>
-      <c r="AU54" s="25"/>
-      <c r="AV54" s="25"/>
-      <c r="AW54" s="25"/>
-      <c r="AX54" s="25"/>
-      <c r="AY54" s="25"/>
-      <c r="AZ54" s="25"/>
-      <c r="BA54" s="25"/>
-      <c r="BB54" s="25"/>
-      <c r="BC54" s="25"/>
-      <c r="BD54" s="25"/>
-      <c r="BE54" s="25"/>
-      <c r="BF54" s="25"/>
-      <c r="BG54" s="25"/>
-      <c r="BH54" s="25"/>
-      <c r="BI54" s="25"/>
-      <c r="BJ54" s="25"/>
-      <c r="BK54" s="25"/>
-      <c r="BL54" s="25"/>
-      <c r="BM54" s="25"/>
-      <c r="BN54" s="25"/>
-      <c r="BO54" s="25"/>
-      <c r="BP54" s="25"/>
-      <c r="BQ54" s="25"/>
-      <c r="BR54" s="25"/>
-      <c r="BS54" s="25"/>
-      <c r="BT54" s="25"/>
-      <c r="BU54" s="25"/>
-      <c r="BV54" s="25"/>
-      <c r="BW54" s="25"/>
+      <c r="Y54" s="27"/>
+      <c r="Z54" s="27"/>
+      <c r="AA54" s="27"/>
+      <c r="AB54" s="27"/>
+      <c r="AC54" s="27"/>
+      <c r="AD54" s="27"/>
+      <c r="AE54" s="27"/>
+      <c r="AF54" s="27"/>
+      <c r="AG54" s="27"/>
+      <c r="AH54" s="27"/>
+      <c r="AI54" s="27"/>
+      <c r="AJ54" s="27"/>
+      <c r="AK54" s="27"/>
+      <c r="AL54" s="27"/>
+      <c r="AM54" s="27"/>
+      <c r="AN54" s="27"/>
+      <c r="AO54" s="27"/>
+      <c r="AP54" s="27"/>
+      <c r="AQ54" s="27"/>
+      <c r="AR54" s="27"/>
+      <c r="AS54" s="27"/>
+      <c r="AT54" s="27"/>
+      <c r="AU54" s="27"/>
+      <c r="AV54" s="27"/>
+      <c r="AW54" s="27"/>
+      <c r="AX54" s="27"/>
+      <c r="AY54" s="27"/>
+      <c r="AZ54" s="27"/>
+      <c r="BA54" s="27"/>
+      <c r="BB54" s="27"/>
+      <c r="BC54" s="27"/>
+      <c r="BD54" s="27"/>
+      <c r="BE54" s="27"/>
+      <c r="BF54" s="27"/>
+      <c r="BG54" s="27"/>
+      <c r="BH54" s="27"/>
+      <c r="BI54" s="27"/>
+      <c r="BJ54" s="27"/>
+      <c r="BK54" s="27"/>
+      <c r="BL54" s="27"/>
+      <c r="BM54" s="27"/>
+      <c r="BN54" s="27"/>
+      <c r="BO54" s="27"/>
+      <c r="BP54" s="27"/>
+      <c r="BQ54" s="27"/>
+      <c r="BR54" s="27"/>
+      <c r="BS54" s="27"/>
+      <c r="BT54" s="27"/>
+      <c r="BU54" s="27"/>
+      <c r="BV54" s="27"/>
+      <c r="BW54" s="27"/>
     </row>
-    <row r="55" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A55" s="30"/>
+    <row r="55" spans="1:109">
+      <c r="A55" s="37"/>
     </row>
-    <row r="56" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A56" s="30"/>
+    <row r="56" spans="1:109">
+      <c r="A56" s="37"/>
       <c r="B56" t="str">
         <f>MID($DE$56,B1+1,1)</f>
         <v>P</v>
@@ -8411,325 +8403,325 @@
         <v>37</v>
       </c>
     </row>
-    <row r="57" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A57" s="30"/>
-      <c r="B57" s="18" t="str">
+    <row r="57" spans="1:109">
+      <c r="A57" s="37"/>
+      <c r="B57" s="16" t="str">
         <f>MID($DD$56,(B1*3)+1,2)</f>
         <v>50</v>
       </c>
-      <c r="C57" s="18" t="str">
+      <c r="C57" s="16" t="str">
         <f t="shared" ref="C57:I57" si="29">MID($DD$56,(C1*3)+1,2)</f>
         <v>00</v>
       </c>
-      <c r="D57" s="14" t="str">
+      <c r="D57" s="12" t="str">
         <f t="shared" si="29"/>
         <v>31</v>
       </c>
-      <c r="E57" s="14" t="str">
+      <c r="E57" s="12" t="str">
         <f t="shared" si="29"/>
         <v>00</v>
       </c>
-      <c r="F57" s="14" t="str">
+      <c r="F57" s="12" t="str">
         <f t="shared" si="29"/>
         <v>00</v>
       </c>
-      <c r="G57" s="14" t="str">
+      <c r="G57" s="12" t="str">
         <f t="shared" si="29"/>
         <v>00</v>
       </c>
-      <c r="H57" s="14" t="str">
+      <c r="H57" s="12" t="str">
         <f t="shared" si="29"/>
         <v>00</v>
       </c>
-      <c r="I57" s="14" t="str">
+      <c r="I57" s="12" t="str">
         <f t="shared" si="29"/>
         <v>00</v>
       </c>
-      <c r="J57" s="14" t="str">
+      <c r="J57" s="12" t="str">
         <f t="shared" ref="J57:BU57" si="30">MID($DD$56,(J1*3)+1,2)</f>
         <v>49</v>
       </c>
-      <c r="K57" s="14" t="str">
+      <c r="K57" s="12" t="str">
         <f t="shared" si="30"/>
         <v>4c</v>
       </c>
-      <c r="L57" s="14" t="str">
+      <c r="L57" s="12" t="str">
         <f t="shared" si="30"/>
         <v>82</v>
       </c>
-      <c r="M57" s="14" t="str">
+      <c r="M57" s="12" t="str">
         <f t="shared" si="30"/>
         <v>6d</v>
       </c>
-      <c r="N57" s="21" t="str">
+      <c r="N57" s="19" t="str">
         <f t="shared" si="30"/>
         <v>10</v>
       </c>
-      <c r="O57" s="21" t="str">
+      <c r="O57" s="19" t="str">
         <f t="shared" si="30"/>
         <v>00</v>
       </c>
-      <c r="P57" s="10" t="str">
+      <c r="P57" s="8" t="str">
         <f t="shared" si="30"/>
         <v>66</v>
       </c>
-      <c r="Q57" s="10" t="str">
+      <c r="Q57" s="8" t="str">
         <f t="shared" si="30"/>
         <v>6f</v>
       </c>
-      <c r="R57" s="10" t="str">
+      <c r="R57" s="8" t="str">
         <f t="shared" si="30"/>
         <v>6f</v>
       </c>
-      <c r="S57" s="10" t="str">
+      <c r="S57" s="8" t="str">
         <f t="shared" si="30"/>
         <v>62</v>
       </c>
-      <c r="T57" s="10" t="str">
+      <c r="T57" s="8" t="str">
         <f t="shared" si="30"/>
         <v>61</v>
       </c>
-      <c r="U57" s="10" t="str">
+      <c r="U57" s="8" t="str">
         <f t="shared" si="30"/>
         <v>72</v>
       </c>
-      <c r="V57" s="10" t="str">
+      <c r="V57" s="8" t="str">
         <f t="shared" si="30"/>
         <v>00</v>
       </c>
-      <c r="W57" s="19" t="str">
+      <c r="W57" s="17" t="str">
         <f t="shared" si="30"/>
         <v>00</v>
       </c>
-      <c r="X57" s="11" t="str">
+      <c r="X57" s="9" t="str">
         <f t="shared" si="30"/>
         <v>3a</v>
       </c>
-      <c r="Y57" s="11" t="str">
+      <c r="Y57" s="9" t="str">
         <f t="shared" si="30"/>
         <v>00</v>
       </c>
-      <c r="Z57" s="20" t="str">
+      <c r="Z57" s="18" t="str">
         <f t="shared" si="30"/>
         <v>08</v>
       </c>
-      <c r="AA57" s="20" t="str">
+      <c r="AA57" s="18" t="str">
         <f t="shared" si="30"/>
         <v>00</v>
       </c>
-      <c r="AB57" s="20" t="str">
+      <c r="AB57" s="18" t="str">
         <f t="shared" si="30"/>
         <v>04</v>
       </c>
-      <c r="AC57" s="20" t="str">
+      <c r="AC57" s="18" t="str">
         <f t="shared" si="30"/>
         <v>00</v>
       </c>
-      <c r="AD57" s="20" t="str">
+      <c r="AD57" s="18" t="str">
         <f t="shared" si="30"/>
         <v>ef</v>
       </c>
-      <c r="AE57" s="20" t="str">
+      <c r="AE57" s="18" t="str">
         <f t="shared" si="30"/>
         <v>be</v>
       </c>
-      <c r="AF57" s="20" t="str">
+      <c r="AF57" s="18" t="str">
         <f t="shared" si="30"/>
         <v>49</v>
       </c>
-      <c r="AG57" s="20" t="str">
+      <c r="AG57" s="18" t="str">
         <f t="shared" si="30"/>
         <v>4c</v>
       </c>
-      <c r="AH57" s="18" t="str">
+      <c r="AH57" s="16" t="str">
         <f t="shared" si="30"/>
         <v>c2</v>
       </c>
-      <c r="AI57" s="18" t="str">
+      <c r="AI57" s="16" t="str">
         <f t="shared" si="30"/>
         <v>6b</v>
       </c>
-      <c r="AJ57" s="18" t="str">
+      <c r="AJ57" s="16" t="str">
         <f t="shared" si="30"/>
         <v>49</v>
       </c>
-      <c r="AK57" s="18" t="str">
+      <c r="AK57" s="16" t="str">
         <f t="shared" si="30"/>
         <v>4c</v>
       </c>
-      <c r="AL57" s="18" t="str">
+      <c r="AL57" s="16" t="str">
         <f t="shared" si="30"/>
         <v>82</v>
       </c>
-      <c r="AM57" s="18" t="str">
+      <c r="AM57" s="16" t="str">
         <f t="shared" si="30"/>
         <v>6d</v>
       </c>
-      <c r="AN57" s="18" t="str">
+      <c r="AN57" s="16" t="str">
         <f t="shared" si="30"/>
         <v>2a</v>
       </c>
-      <c r="AO57" s="18" t="str">
+      <c r="AO57" s="16" t="str">
         <f t="shared" si="30"/>
         <v>00</v>
       </c>
-      <c r="AP57" s="18" t="str">
+      <c r="AP57" s="16" t="str">
         <f t="shared" si="30"/>
         <v>00</v>
       </c>
-      <c r="AQ57" s="18" t="str">
+      <c r="AQ57" s="16" t="str">
         <f t="shared" si="30"/>
         <v>00</v>
       </c>
-      <c r="AR57" s="18" t="str">
+      <c r="AR57" s="16" t="str">
         <f t="shared" si="30"/>
         <v>00</v>
       </c>
-      <c r="AS57" s="18" t="str">
+      <c r="AS57" s="16" t="str">
         <f t="shared" si="30"/>
         <v>84</v>
       </c>
-      <c r="AT57" s="18" t="str">
+      <c r="AT57" s="16" t="str">
         <f t="shared" si="30"/>
         <v>0d</v>
       </c>
-      <c r="AU57" s="18" t="str">
+      <c r="AU57" s="16" t="str">
         <f t="shared" si="30"/>
         <v>00</v>
       </c>
-      <c r="AV57" s="18" t="str">
+      <c r="AV57" s="16" t="str">
         <f t="shared" si="30"/>
         <v>00</v>
       </c>
-      <c r="AW57" s="18" t="str">
+      <c r="AW57" s="16" t="str">
         <f t="shared" si="30"/>
         <v>00</v>
       </c>
-      <c r="AX57" s="18" t="str">
+      <c r="AX57" s="16" t="str">
         <f t="shared" si="30"/>
         <v>25</v>
       </c>
-      <c r="AY57" s="18" t="str">
+      <c r="AY57" s="16" t="str">
         <f t="shared" si="30"/>
         <v>00</v>
       </c>
-      <c r="AZ57" s="18" t="str">
+      <c r="AZ57" s="16" t="str">
         <f t="shared" si="30"/>
         <v>00</v>
       </c>
-      <c r="BA57" s="18" t="str">
+      <c r="BA57" s="16" t="str">
         <f t="shared" si="30"/>
         <v>00</v>
       </c>
-      <c r="BB57" s="18" t="str">
+      <c r="BB57" s="16" t="str">
         <f t="shared" si="30"/>
         <v>00</v>
       </c>
-      <c r="BC57" s="18" t="str">
+      <c r="BC57" s="16" t="str">
         <f t="shared" si="30"/>
         <v>00</v>
       </c>
-      <c r="BD57" s="18" t="str">
+      <c r="BD57" s="16" t="str">
         <f t="shared" si="30"/>
         <v>00</v>
       </c>
-      <c r="BE57" s="18" t="str">
+      <c r="BE57" s="16" t="str">
         <f t="shared" si="30"/>
         <v>00</v>
       </c>
-      <c r="BF57" s="18" t="str">
+      <c r="BF57" s="16" t="str">
         <f t="shared" si="30"/>
         <v>00</v>
       </c>
-      <c r="BG57" s="18" t="str">
+      <c r="BG57" s="16" t="str">
         <f t="shared" si="30"/>
         <v>00</v>
       </c>
-      <c r="BH57" s="18" t="str">
+      <c r="BH57" s="16" t="str">
         <f t="shared" si="30"/>
         <v>00</v>
       </c>
-      <c r="BI57" s="18" t="str">
+      <c r="BI57" s="16" t="str">
         <f t="shared" si="30"/>
         <v>00</v>
       </c>
-      <c r="BJ57" s="18" t="str">
+      <c r="BJ57" s="16" t="str">
         <f t="shared" si="30"/>
         <v>00</v>
       </c>
-      <c r="BK57" s="18" t="str">
+      <c r="BK57" s="16" t="str">
         <f t="shared" si="30"/>
         <v>00</v>
       </c>
-      <c r="BL57" s="18" t="str">
+      <c r="BL57" s="16" t="str">
         <f t="shared" si="30"/>
         <v>00</v>
       </c>
-      <c r="BM57" s="18" t="str">
+      <c r="BM57" s="16" t="str">
         <f t="shared" si="30"/>
         <v>00</v>
       </c>
-      <c r="BN57" s="10" t="str">
+      <c r="BN57" s="8" t="str">
         <f t="shared" si="30"/>
         <v>66</v>
       </c>
-      <c r="BO57" s="10" t="str">
+      <c r="BO57" s="8" t="str">
         <f t="shared" si="30"/>
         <v>00</v>
       </c>
-      <c r="BP57" s="10" t="str">
+      <c r="BP57" s="8" t="str">
         <f t="shared" si="30"/>
         <v>6f</v>
       </c>
-      <c r="BQ57" s="10" t="str">
+      <c r="BQ57" s="8" t="str">
         <f t="shared" si="30"/>
         <v>00</v>
       </c>
-      <c r="BR57" s="10" t="str">
+      <c r="BR57" s="8" t="str">
         <f t="shared" si="30"/>
         <v>6f</v>
       </c>
-      <c r="BS57" s="10" t="str">
+      <c r="BS57" s="8" t="str">
         <f t="shared" si="30"/>
         <v>00</v>
       </c>
-      <c r="BT57" s="10" t="str">
+      <c r="BT57" s="8" t="str">
         <f t="shared" si="30"/>
         <v>62</v>
       </c>
-      <c r="BU57" s="10" t="str">
+      <c r="BU57" s="8" t="str">
         <f t="shared" si="30"/>
         <v>00</v>
       </c>
-      <c r="BV57" s="10" t="str">
+      <c r="BV57" s="8" t="str">
         <f t="shared" ref="BV57:CC57" si="31">MID($DD$56,(BV1*3)+1,2)</f>
         <v>61</v>
       </c>
-      <c r="BW57" s="10" t="str">
+      <c r="BW57" s="8" t="str">
         <f t="shared" si="31"/>
         <v>00</v>
       </c>
-      <c r="BX57" s="10" t="str">
+      <c r="BX57" s="8" t="str">
         <f t="shared" si="31"/>
         <v>72</v>
       </c>
-      <c r="BY57" s="10" t="str">
+      <c r="BY57" s="8" t="str">
         <f t="shared" si="31"/>
         <v>00</v>
       </c>
-      <c r="BZ57" s="10" t="str">
+      <c r="BZ57" s="8" t="str">
         <f t="shared" si="31"/>
         <v>00</v>
       </c>
-      <c r="CA57" s="10" t="str">
+      <c r="CA57" s="8" t="str">
         <f t="shared" si="31"/>
         <v>00</v>
       </c>
-      <c r="CB57" s="18" t="str">
+      <c r="CB57" s="16" t="str">
         <f t="shared" si="31"/>
         <v>16</v>
       </c>
-      <c r="CC57" s="18" t="str">
+      <c r="CC57" s="16" t="str">
         <f t="shared" si="31"/>
         <v>00</v>
       </c>
@@ -8760,163 +8752,163 @@
       <c r="DB57" s="4"/>
       <c r="DC57" s="4"/>
     </row>
-    <row r="58" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A58" s="30"/>
-      <c r="B58" s="31" t="s">
+    <row r="58" spans="1:109">
+      <c r="A58" s="37"/>
+      <c r="B58" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C58" s="32"/>
-      <c r="D58" s="32" t="s">
+      <c r="C58" s="24"/>
+      <c r="D58" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="E58" s="32"/>
-      <c r="F58" s="32"/>
-      <c r="G58" s="32"/>
-      <c r="H58" s="32"/>
-      <c r="I58" s="32"/>
-      <c r="J58" s="32"/>
-      <c r="K58" s="32"/>
-      <c r="L58" s="32"/>
-      <c r="M58" s="32"/>
-      <c r="N58" s="32"/>
-      <c r="O58" s="32"/>
-      <c r="P58" s="32"/>
-      <c r="Q58" s="32"/>
-      <c r="R58" s="32"/>
-      <c r="S58" s="32"/>
-      <c r="T58" s="32"/>
-      <c r="U58" s="32"/>
-      <c r="V58" s="32"/>
-      <c r="W58" s="32"/>
-      <c r="X58" s="32"/>
-      <c r="Y58" s="32"/>
-      <c r="Z58" s="32"/>
-      <c r="AA58" s="32"/>
-      <c r="AB58" s="32"/>
-      <c r="AC58" s="32"/>
-      <c r="AD58" s="32"/>
-      <c r="AE58" s="32"/>
-      <c r="AF58" s="32"/>
-      <c r="AG58" s="32"/>
-      <c r="AH58" s="32"/>
-      <c r="AI58" s="32"/>
-      <c r="AJ58" s="32"/>
-      <c r="AK58" s="32"/>
-      <c r="AL58" s="32"/>
-      <c r="AM58" s="32"/>
-      <c r="AN58" s="32"/>
-      <c r="AO58" s="32"/>
-      <c r="AP58" s="32"/>
-      <c r="AQ58" s="32"/>
-      <c r="AR58" s="32"/>
-      <c r="AS58" s="32"/>
-      <c r="AT58" s="32"/>
-      <c r="AU58" s="32"/>
-      <c r="AV58" s="32"/>
-      <c r="AW58" s="32"/>
-      <c r="AX58" s="32"/>
-      <c r="AY58" s="32"/>
-      <c r="AZ58" s="32"/>
-      <c r="BA58" s="32"/>
-      <c r="BB58" s="32"/>
-      <c r="BC58" s="32"/>
-      <c r="BD58" s="32"/>
-      <c r="BE58" s="32"/>
-      <c r="BF58" s="32"/>
-      <c r="BG58" s="32"/>
-      <c r="BH58" s="32"/>
-      <c r="BI58" s="32"/>
-      <c r="BJ58" s="32"/>
-      <c r="BK58" s="32"/>
-      <c r="BL58" s="32"/>
-      <c r="BM58" s="32"/>
-      <c r="BN58" s="32"/>
-      <c r="BO58" s="32"/>
-      <c r="BP58" s="32"/>
-      <c r="BQ58" s="32"/>
-      <c r="BR58" s="32"/>
-      <c r="BS58" s="32"/>
-      <c r="BT58" s="32"/>
-      <c r="BU58" s="32"/>
-      <c r="BV58" s="32"/>
-      <c r="BW58" s="32"/>
-      <c r="BX58" s="32"/>
-      <c r="BY58" s="32"/>
-      <c r="BZ58" s="32"/>
-      <c r="CA58" s="32"/>
-      <c r="CB58" s="32"/>
-      <c r="CC58" s="32"/>
+      <c r="E58" s="24"/>
+      <c r="F58" s="24"/>
+      <c r="G58" s="24"/>
+      <c r="H58" s="24"/>
+      <c r="I58" s="24"/>
+      <c r="J58" s="24"/>
+      <c r="K58" s="24"/>
+      <c r="L58" s="24"/>
+      <c r="M58" s="24"/>
+      <c r="N58" s="24"/>
+      <c r="O58" s="24"/>
+      <c r="P58" s="24"/>
+      <c r="Q58" s="24"/>
+      <c r="R58" s="24"/>
+      <c r="S58" s="24"/>
+      <c r="T58" s="24"/>
+      <c r="U58" s="24"/>
+      <c r="V58" s="24"/>
+      <c r="W58" s="24"/>
+      <c r="X58" s="24"/>
+      <c r="Y58" s="24"/>
+      <c r="Z58" s="24"/>
+      <c r="AA58" s="24"/>
+      <c r="AB58" s="24"/>
+      <c r="AC58" s="24"/>
+      <c r="AD58" s="24"/>
+      <c r="AE58" s="24"/>
+      <c r="AF58" s="24"/>
+      <c r="AG58" s="24"/>
+      <c r="AH58" s="24"/>
+      <c r="AI58" s="24"/>
+      <c r="AJ58" s="24"/>
+      <c r="AK58" s="24"/>
+      <c r="AL58" s="24"/>
+      <c r="AM58" s="24"/>
+      <c r="AN58" s="24"/>
+      <c r="AO58" s="24"/>
+      <c r="AP58" s="24"/>
+      <c r="AQ58" s="24"/>
+      <c r="AR58" s="24"/>
+      <c r="AS58" s="24"/>
+      <c r="AT58" s="24"/>
+      <c r="AU58" s="24"/>
+      <c r="AV58" s="24"/>
+      <c r="AW58" s="24"/>
+      <c r="AX58" s="24"/>
+      <c r="AY58" s="24"/>
+      <c r="AZ58" s="24"/>
+      <c r="BA58" s="24"/>
+      <c r="BB58" s="24"/>
+      <c r="BC58" s="24"/>
+      <c r="BD58" s="24"/>
+      <c r="BE58" s="24"/>
+      <c r="BF58" s="24"/>
+      <c r="BG58" s="24"/>
+      <c r="BH58" s="24"/>
+      <c r="BI58" s="24"/>
+      <c r="BJ58" s="24"/>
+      <c r="BK58" s="24"/>
+      <c r="BL58" s="24"/>
+      <c r="BM58" s="24"/>
+      <c r="BN58" s="24"/>
+      <c r="BO58" s="24"/>
+      <c r="BP58" s="24"/>
+      <c r="BQ58" s="24"/>
+      <c r="BR58" s="24"/>
+      <c r="BS58" s="24"/>
+      <c r="BT58" s="24"/>
+      <c r="BU58" s="24"/>
+      <c r="BV58" s="24"/>
+      <c r="BW58" s="24"/>
+      <c r="BX58" s="24"/>
+      <c r="BY58" s="24"/>
+      <c r="BZ58" s="24"/>
+      <c r="CA58" s="24"/>
+      <c r="CB58" s="24"/>
+      <c r="CC58" s="24"/>
     </row>
-    <row r="59" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A59" s="30"/>
-      <c r="X59" s="24" t="s">
+    <row r="59" spans="1:109">
+      <c r="A59" s="37"/>
+      <c r="X59" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="Y59" s="24"/>
-      <c r="Z59" s="25" t="s">
+      <c r="Y59" s="30"/>
+      <c r="Z59" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="AA59" s="25"/>
-      <c r="AB59" s="25"/>
-      <c r="AC59" s="25"/>
-      <c r="AD59" s="25"/>
-      <c r="AE59" s="25"/>
-      <c r="AF59" s="25"/>
-      <c r="AG59" s="25"/>
-      <c r="AH59" s="25"/>
-      <c r="AI59" s="25"/>
-      <c r="AJ59" s="25"/>
-      <c r="AK59" s="25"/>
-      <c r="AL59" s="25"/>
-      <c r="AM59" s="25"/>
-      <c r="AN59" s="25"/>
-      <c r="AO59" s="25"/>
-      <c r="AP59" s="25"/>
-      <c r="AQ59" s="25"/>
-      <c r="AR59" s="25"/>
-      <c r="AS59" s="25"/>
-      <c r="AT59" s="25"/>
-      <c r="AU59" s="25"/>
-      <c r="AV59" s="25"/>
-      <c r="AW59" s="25"/>
-      <c r="AX59" s="25"/>
-      <c r="AY59" s="25"/>
-      <c r="AZ59" s="25"/>
-      <c r="BA59" s="25"/>
-      <c r="BB59" s="25"/>
-      <c r="BC59" s="25"/>
-      <c r="BD59" s="25"/>
-      <c r="BE59" s="25"/>
-      <c r="BF59" s="25"/>
-      <c r="BG59" s="25"/>
-      <c r="BH59" s="25"/>
-      <c r="BI59" s="25"/>
-      <c r="BJ59" s="25"/>
-      <c r="BK59" s="25"/>
-      <c r="BL59" s="25"/>
-      <c r="BM59" s="25"/>
-      <c r="BN59" s="25"/>
-      <c r="BO59" s="25"/>
-      <c r="BP59" s="25"/>
-      <c r="BQ59" s="25"/>
-      <c r="BR59" s="25"/>
-      <c r="BS59" s="25"/>
-      <c r="BT59" s="25"/>
-      <c r="BU59" s="25"/>
-      <c r="BV59" s="25"/>
-      <c r="BW59" s="25"/>
-      <c r="BX59" s="25"/>
-      <c r="BY59" s="25"/>
-      <c r="BZ59" s="25"/>
-      <c r="CA59" s="25"/>
-      <c r="CB59" s="25"/>
-      <c r="CC59" s="25"/>
+      <c r="AA59" s="27"/>
+      <c r="AB59" s="27"/>
+      <c r="AC59" s="27"/>
+      <c r="AD59" s="27"/>
+      <c r="AE59" s="27"/>
+      <c r="AF59" s="27"/>
+      <c r="AG59" s="27"/>
+      <c r="AH59" s="27"/>
+      <c r="AI59" s="27"/>
+      <c r="AJ59" s="27"/>
+      <c r="AK59" s="27"/>
+      <c r="AL59" s="27"/>
+      <c r="AM59" s="27"/>
+      <c r="AN59" s="27"/>
+      <c r="AO59" s="27"/>
+      <c r="AP59" s="27"/>
+      <c r="AQ59" s="27"/>
+      <c r="AR59" s="27"/>
+      <c r="AS59" s="27"/>
+      <c r="AT59" s="27"/>
+      <c r="AU59" s="27"/>
+      <c r="AV59" s="27"/>
+      <c r="AW59" s="27"/>
+      <c r="AX59" s="27"/>
+      <c r="AY59" s="27"/>
+      <c r="AZ59" s="27"/>
+      <c r="BA59" s="27"/>
+      <c r="BB59" s="27"/>
+      <c r="BC59" s="27"/>
+      <c r="BD59" s="27"/>
+      <c r="BE59" s="27"/>
+      <c r="BF59" s="27"/>
+      <c r="BG59" s="27"/>
+      <c r="BH59" s="27"/>
+      <c r="BI59" s="27"/>
+      <c r="BJ59" s="27"/>
+      <c r="BK59" s="27"/>
+      <c r="BL59" s="27"/>
+      <c r="BM59" s="27"/>
+      <c r="BN59" s="27"/>
+      <c r="BO59" s="27"/>
+      <c r="BP59" s="27"/>
+      <c r="BQ59" s="27"/>
+      <c r="BR59" s="27"/>
+      <c r="BS59" s="27"/>
+      <c r="BT59" s="27"/>
+      <c r="BU59" s="27"/>
+      <c r="BV59" s="27"/>
+      <c r="BW59" s="27"/>
+      <c r="BX59" s="27"/>
+      <c r="BY59" s="27"/>
+      <c r="BZ59" s="27"/>
+      <c r="CA59" s="27"/>
+      <c r="CB59" s="27"/>
+      <c r="CC59" s="27"/>
     </row>
-    <row r="60" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A60" s="30"/>
+    <row r="60" spans="1:109">
+      <c r="A60" s="37"/>
     </row>
-    <row r="61" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A61" s="30"/>
+    <row r="61" spans="1:109">
+      <c r="A61" s="37"/>
       <c r="B61" t="str">
         <f>MID($DE$61,B1+1,1)</f>
         <v>h</v>
@@ -9342,633 +9334,633 @@
         <v>39</v>
       </c>
     </row>
-    <row r="62" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A62" s="30"/>
-      <c r="B62" s="18" t="str">
+    <row r="62" spans="1:109">
+      <c r="A62" s="37"/>
+      <c r="B62" s="16" t="str">
         <f>MID($DD$61,(B1*3)+1,2)</f>
         <v>68</v>
       </c>
-      <c r="C62" s="18" t="str">
+      <c r="C62" s="16" t="str">
         <f t="shared" ref="C62:I62" si="37">MID($DD$61,(C1*3)+1,2)</f>
         <v>00</v>
       </c>
-      <c r="D62" s="14" t="str">
+      <c r="D62" s="12" t="str">
         <f t="shared" si="37"/>
         <v>31</v>
       </c>
-      <c r="E62" s="14" t="str">
+      <c r="E62" s="12" t="str">
         <f t="shared" si="37"/>
         <v>00</v>
       </c>
-      <c r="F62" s="14" t="str">
+      <c r="F62" s="12" t="str">
         <f t="shared" si="37"/>
         <v>00</v>
       </c>
-      <c r="G62" s="14" t="str">
+      <c r="G62" s="12" t="str">
         <f t="shared" si="37"/>
         <v>00</v>
       </c>
-      <c r="H62" s="14" t="str">
+      <c r="H62" s="12" t="str">
         <f t="shared" si="37"/>
         <v>00</v>
       </c>
-      <c r="I62" s="14" t="str">
+      <c r="I62" s="12" t="str">
         <f t="shared" si="37"/>
         <v>00</v>
       </c>
-      <c r="J62" s="14" t="str">
+      <c r="J62" s="12" t="str">
         <f t="shared" ref="J62:BU62" si="38">MID($DD$61,(J1*3)+1,2)</f>
         <v>4e</v>
       </c>
-      <c r="K62" s="14" t="str">
+      <c r="K62" s="12" t="str">
         <f t="shared" si="38"/>
         <v>4c</v>
       </c>
-      <c r="L62" s="14" t="str">
+      <c r="L62" s="12" t="str">
         <f t="shared" si="38"/>
         <v>69</v>
       </c>
-      <c r="M62" s="14" t="str">
+      <c r="M62" s="12" t="str">
         <f t="shared" si="38"/>
         <v>74</v>
       </c>
-      <c r="N62" s="21" t="str">
+      <c r="N62" s="19" t="str">
         <f t="shared" si="38"/>
         <v>10</v>
       </c>
-      <c r="O62" s="21" t="str">
+      <c r="O62" s="19" t="str">
         <f t="shared" si="38"/>
         <v>00</v>
       </c>
-      <c r="P62" s="10" t="str">
+      <c r="P62" s="8" t="str">
         <f t="shared" si="38"/>
         <v>54</v>
       </c>
-      <c r="Q62" s="10" t="str">
+      <c r="Q62" s="8" t="str">
         <f t="shared" si="38"/>
         <v>48</v>
       </c>
-      <c r="R62" s="10" t="str">
+      <c r="R62" s="8" t="str">
         <f t="shared" si="38"/>
         <v>49</v>
       </c>
-      <c r="S62" s="10" t="str">
+      <c r="S62" s="8" t="str">
         <f t="shared" si="38"/>
         <v>53</v>
       </c>
-      <c r="T62" s="10" t="str">
+      <c r="T62" s="8" t="str">
         <f t="shared" si="38"/>
         <v>49</v>
       </c>
-      <c r="U62" s="10" t="str">
+      <c r="U62" s="8" t="str">
         <f t="shared" si="38"/>
         <v>53</v>
       </c>
-      <c r="V62" s="10" t="str">
+      <c r="V62" s="8" t="str">
         <f t="shared" si="38"/>
         <v>7e</v>
       </c>
-      <c r="W62" s="10" t="str">
+      <c r="W62" s="8" t="str">
         <f t="shared" si="38"/>
         <v>31</v>
       </c>
-      <c r="X62" s="10" t="str">
+      <c r="X62" s="8" t="str">
         <f t="shared" si="38"/>
         <v>00</v>
       </c>
-      <c r="Y62" s="19" t="str">
+      <c r="Y62" s="17" t="str">
         <f t="shared" si="38"/>
         <v>00</v>
       </c>
-      <c r="Z62" s="11" t="str">
+      <c r="Z62" s="9" t="str">
         <f t="shared" si="38"/>
         <v>50</v>
       </c>
-      <c r="AA62" s="11" t="str">
+      <c r="AA62" s="9" t="str">
         <f t="shared" si="38"/>
         <v>00</v>
       </c>
-      <c r="AB62" s="20" t="str">
+      <c r="AB62" s="18" t="str">
         <f t="shared" si="38"/>
         <v>08</v>
       </c>
-      <c r="AC62" s="20" t="str">
+      <c r="AC62" s="18" t="str">
         <f t="shared" si="38"/>
         <v>00</v>
       </c>
-      <c r="AD62" s="20" t="str">
+      <c r="AD62" s="18" t="str">
         <f t="shared" si="38"/>
         <v>04</v>
       </c>
-      <c r="AE62" s="20" t="str">
+      <c r="AE62" s="18" t="str">
         <f t="shared" si="38"/>
         <v>00</v>
       </c>
-      <c r="AF62" s="20" t="str">
+      <c r="AF62" s="18" t="str">
         <f t="shared" si="38"/>
         <v>ef</v>
       </c>
-      <c r="AG62" s="20" t="str">
+      <c r="AG62" s="18" t="str">
         <f t="shared" si="38"/>
         <v>be</v>
       </c>
-      <c r="AH62" s="20" t="str">
+      <c r="AH62" s="18" t="str">
         <f t="shared" si="38"/>
         <v>4e</v>
       </c>
-      <c r="AI62" s="20" t="str">
+      <c r="AI62" s="18" t="str">
         <f t="shared" si="38"/>
         <v>4c</v>
       </c>
-      <c r="AJ62" s="18" t="str">
+      <c r="AJ62" s="16" t="str">
         <f t="shared" si="38"/>
         <v>69</v>
       </c>
-      <c r="AK62" s="18" t="str">
+      <c r="AK62" s="16" t="str">
         <f t="shared" si="38"/>
         <v>74</v>
       </c>
-      <c r="AL62" s="18" t="str">
+      <c r="AL62" s="16" t="str">
         <f t="shared" si="38"/>
         <v>4e</v>
       </c>
-      <c r="AM62" s="18" t="str">
+      <c r="AM62" s="16" t="str">
         <f t="shared" si="38"/>
         <v>4c</v>
       </c>
-      <c r="AN62" s="18" t="str">
+      <c r="AN62" s="16" t="str">
         <f t="shared" si="38"/>
         <v>69</v>
       </c>
-      <c r="AO62" s="18" t="str">
+      <c r="AO62" s="16" t="str">
         <f t="shared" si="38"/>
         <v>74</v>
       </c>
-      <c r="AP62" s="18" t="str">
+      <c r="AP62" s="16" t="str">
         <f t="shared" si="38"/>
         <v>2a</v>
       </c>
-      <c r="AQ62" s="18" t="str">
+      <c r="AQ62" s="16" t="str">
         <f t="shared" si="38"/>
         <v>00</v>
       </c>
-      <c r="AR62" s="18" t="str">
+      <c r="AR62" s="16" t="str">
         <f t="shared" si="38"/>
         <v>00</v>
       </c>
-      <c r="AS62" s="18" t="str">
+      <c r="AS62" s="16" t="str">
         <f t="shared" si="38"/>
         <v>00</v>
       </c>
-      <c r="AT62" s="18" t="str">
+      <c r="AT62" s="16" t="str">
         <f t="shared" si="38"/>
         <v>82</v>
       </c>
-      <c r="AU62" s="18" t="str">
+      <c r="AU62" s="16" t="str">
         <f t="shared" si="38"/>
         <v>2f</v>
       </c>
-      <c r="AV62" s="18" t="str">
+      <c r="AV62" s="16" t="str">
         <f t="shared" si="38"/>
         <v>12</v>
       </c>
-      <c r="AW62" s="18" t="str">
+      <c r="AW62" s="16" t="str">
         <f t="shared" si="38"/>
         <v>00</v>
       </c>
-      <c r="AX62" s="18" t="str">
+      <c r="AX62" s="16" t="str">
         <f t="shared" si="38"/>
         <v>00</v>
       </c>
-      <c r="AY62" s="18" t="str">
+      <c r="AY62" s="16" t="str">
         <f t="shared" si="38"/>
         <v>00</v>
       </c>
-      <c r="AZ62" s="18" t="str">
+      <c r="AZ62" s="16" t="str">
         <f t="shared" si="38"/>
         <v>09</v>
       </c>
-      <c r="BA62" s="18" t="str">
+      <c r="BA62" s="16" t="str">
         <f t="shared" si="38"/>
         <v>00</v>
       </c>
-      <c r="BB62" s="18" t="str">
+      <c r="BB62" s="16" t="str">
         <f t="shared" si="38"/>
         <v>00</v>
       </c>
-      <c r="BC62" s="18" t="str">
+      <c r="BC62" s="16" t="str">
         <f t="shared" si="38"/>
         <v>00</v>
       </c>
-      <c r="BD62" s="18" t="str">
+      <c r="BD62" s="16" t="str">
         <f t="shared" si="38"/>
         <v>00</v>
       </c>
-      <c r="BE62" s="18" t="str">
+      <c r="BE62" s="16" t="str">
         <f t="shared" si="38"/>
         <v>00</v>
       </c>
-      <c r="BF62" s="18" t="str">
+      <c r="BF62" s="16" t="str">
         <f t="shared" si="38"/>
         <v>00</v>
       </c>
-      <c r="BG62" s="18" t="str">
+      <c r="BG62" s="16" t="str">
         <f t="shared" si="38"/>
         <v>00</v>
       </c>
-      <c r="BH62" s="18" t="str">
+      <c r="BH62" s="16" t="str">
         <f t="shared" si="38"/>
         <v>00</v>
       </c>
-      <c r="BI62" s="18" t="str">
+      <c r="BI62" s="16" t="str">
         <f t="shared" si="38"/>
         <v>00</v>
       </c>
-      <c r="BJ62" s="18" t="str">
+      <c r="BJ62" s="16" t="str">
         <f t="shared" si="38"/>
         <v>00</v>
       </c>
-      <c r="BK62" s="18" t="str">
+      <c r="BK62" s="16" t="str">
         <f t="shared" si="38"/>
         <v>00</v>
       </c>
-      <c r="BL62" s="18" t="str">
+      <c r="BL62" s="16" t="str">
         <f t="shared" si="38"/>
         <v>00</v>
       </c>
-      <c r="BM62" s="18" t="str">
+      <c r="BM62" s="16" t="str">
         <f t="shared" si="38"/>
         <v>00</v>
       </c>
-      <c r="BN62" s="18" t="str">
+      <c r="BN62" s="16" t="str">
         <f t="shared" si="38"/>
         <v>00</v>
       </c>
-      <c r="BO62" s="18" t="str">
+      <c r="BO62" s="16" t="str">
         <f t="shared" si="38"/>
         <v>00</v>
       </c>
-      <c r="BP62" s="10" t="str">
+      <c r="BP62" s="8" t="str">
         <f t="shared" si="38"/>
         <v>74</v>
       </c>
-      <c r="BQ62" s="10" t="str">
+      <c r="BQ62" s="8" t="str">
         <f t="shared" si="38"/>
         <v>00</v>
       </c>
-      <c r="BR62" s="10" t="str">
+      <c r="BR62" s="8" t="str">
         <f t="shared" si="38"/>
         <v>68</v>
       </c>
-      <c r="BS62" s="10" t="str">
+      <c r="BS62" s="8" t="str">
         <f t="shared" si="38"/>
         <v>00</v>
       </c>
-      <c r="BT62" s="10" t="str">
+      <c r="BT62" s="8" t="str">
         <f t="shared" si="38"/>
         <v>69</v>
       </c>
-      <c r="BU62" s="10" t="str">
+      <c r="BU62" s="8" t="str">
         <f t="shared" si="38"/>
         <v>00</v>
       </c>
-      <c r="BV62" s="10" t="str">
+      <c r="BV62" s="8" t="str">
         <f t="shared" ref="BV62:CQ62" si="39">MID($DD$61,(BV1*3)+1,2)</f>
         <v>73</v>
       </c>
-      <c r="BW62" s="10" t="str">
+      <c r="BW62" s="8" t="str">
         <f t="shared" si="39"/>
         <v>00</v>
       </c>
-      <c r="BX62" s="10" t="str">
+      <c r="BX62" s="8" t="str">
         <f t="shared" si="39"/>
         <v>69</v>
       </c>
-      <c r="BY62" s="10" t="str">
+      <c r="BY62" s="8" t="str">
         <f t="shared" si="39"/>
         <v>00</v>
       </c>
-      <c r="BZ62" s="10" t="str">
+      <c r="BZ62" s="8" t="str">
         <f t="shared" si="39"/>
         <v>73</v>
       </c>
-      <c r="CA62" s="10" t="str">
+      <c r="CA62" s="8" t="str">
         <f t="shared" si="39"/>
         <v>00</v>
       </c>
-      <c r="CB62" s="10" t="str">
+      <c r="CB62" s="8" t="str">
         <f t="shared" si="39"/>
         <v>61</v>
       </c>
-      <c r="CC62" s="10" t="str">
+      <c r="CC62" s="8" t="str">
         <f t="shared" si="39"/>
         <v>00</v>
       </c>
-      <c r="CD62" s="10" t="str">
+      <c r="CD62" s="8" t="str">
         <f t="shared" si="39"/>
         <v>6c</v>
       </c>
-      <c r="CE62" s="10" t="str">
+      <c r="CE62" s="8" t="str">
         <f t="shared" si="39"/>
         <v>00</v>
       </c>
-      <c r="CF62" s="10" t="str">
+      <c r="CF62" s="8" t="str">
         <f t="shared" si="39"/>
         <v>6f</v>
       </c>
-      <c r="CG62" s="10" t="str">
+      <c r="CG62" s="8" t="str">
         <f t="shared" si="39"/>
         <v>00</v>
       </c>
-      <c r="CH62" s="10" t="str">
+      <c r="CH62" s="8" t="str">
         <f t="shared" si="39"/>
         <v>6e</v>
       </c>
-      <c r="CI62" s="10" t="str">
+      <c r="CI62" s="8" t="str">
         <f t="shared" si="39"/>
         <v>00</v>
       </c>
-      <c r="CJ62" s="10" t="str">
+      <c r="CJ62" s="8" t="str">
         <f t="shared" si="39"/>
         <v>67</v>
       </c>
-      <c r="CK62" s="10" t="str">
+      <c r="CK62" s="8" t="str">
         <f t="shared" si="39"/>
         <v>00</v>
       </c>
-      <c r="CL62" s="10" t="str">
+      <c r="CL62" s="8" t="str">
         <f t="shared" si="39"/>
         <v>66</v>
       </c>
-      <c r="CM62" s="10" t="str">
+      <c r="CM62" s="8" t="str">
         <f t="shared" si="39"/>
         <v>00</v>
       </c>
-      <c r="CN62" s="10" t="str">
+      <c r="CN62" s="8" t="str">
         <f t="shared" si="39"/>
         <v>6f</v>
       </c>
-      <c r="CO62" s="10" t="str">
+      <c r="CO62" s="8" t="str">
         <f t="shared" si="39"/>
         <v>00</v>
       </c>
-      <c r="CP62" s="10" t="str">
+      <c r="CP62" s="8" t="str">
         <f t="shared" si="39"/>
         <v>6c</v>
       </c>
-      <c r="CQ62" s="10" t="str">
+      <c r="CQ62" s="8" t="str">
         <f t="shared" si="39"/>
         <v>00</v>
       </c>
-      <c r="CR62" s="10" t="str">
+      <c r="CR62" s="8" t="str">
         <f t="shared" ref="CR62:CZ62" si="40">MID($DD$61,(CR1*3)+1,2)</f>
         <v>64</v>
       </c>
-      <c r="CS62" s="10" t="str">
+      <c r="CS62" s="8" t="str">
         <f t="shared" si="40"/>
         <v>00</v>
       </c>
-      <c r="CT62" s="10" t="str">
+      <c r="CT62" s="8" t="str">
         <f t="shared" si="40"/>
         <v>65</v>
       </c>
-      <c r="CU62" s="10" t="str">
+      <c r="CU62" s="8" t="str">
         <f t="shared" si="40"/>
         <v>00</v>
       </c>
-      <c r="CV62" s="10" t="str">
+      <c r="CV62" s="8" t="str">
         <f t="shared" si="40"/>
         <v>72</v>
       </c>
-      <c r="CW62" s="10" t="str">
+      <c r="CW62" s="8" t="str">
         <f t="shared" si="40"/>
         <v>00</v>
       </c>
-      <c r="CX62" s="10" t="str">
+      <c r="CX62" s="8" t="str">
         <f t="shared" si="40"/>
         <v>00</v>
       </c>
-      <c r="CY62" s="10" t="str">
+      <c r="CY62" s="8" t="str">
         <f t="shared" si="40"/>
         <v>00</v>
       </c>
-      <c r="CZ62" s="18" t="str">
+      <c r="CZ62" s="16" t="str">
         <f t="shared" si="40"/>
         <v>18</v>
       </c>
-      <c r="DA62" s="18" t="str">
+      <c r="DA62" s="16" t="str">
         <f t="shared" ref="DA62" si="41">MID($DD$61,(DA1*3)+1,2)</f>
         <v>00</v>
       </c>
       <c r="DB62" s="4"/>
       <c r="DC62" s="4"/>
     </row>
-    <row r="63" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A63" s="30"/>
-      <c r="B63" s="31" t="s">
+    <row r="63" spans="1:109">
+      <c r="A63" s="37"/>
+      <c r="B63" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C63" s="32"/>
-      <c r="D63" s="32" t="s">
+      <c r="C63" s="24"/>
+      <c r="D63" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="E63" s="32"/>
-      <c r="F63" s="32"/>
-      <c r="G63" s="32"/>
-      <c r="H63" s="32"/>
-      <c r="I63" s="32"/>
-      <c r="J63" s="32"/>
-      <c r="K63" s="32"/>
-      <c r="L63" s="32"/>
-      <c r="M63" s="32"/>
-      <c r="N63" s="32"/>
-      <c r="O63" s="32"/>
-      <c r="P63" s="32"/>
-      <c r="Q63" s="32"/>
-      <c r="R63" s="32"/>
-      <c r="S63" s="32"/>
-      <c r="T63" s="32"/>
-      <c r="U63" s="32"/>
-      <c r="V63" s="32"/>
-      <c r="W63" s="32"/>
-      <c r="X63" s="32"/>
-      <c r="Y63" s="32"/>
-      <c r="Z63" s="32"/>
-      <c r="AA63" s="32"/>
-      <c r="AB63" s="32"/>
-      <c r="AC63" s="32"/>
-      <c r="AD63" s="32"/>
-      <c r="AE63" s="32"/>
-      <c r="AF63" s="32"/>
-      <c r="AG63" s="32"/>
-      <c r="AH63" s="32"/>
-      <c r="AI63" s="32"/>
-      <c r="AJ63" s="32"/>
-      <c r="AK63" s="32"/>
-      <c r="AL63" s="32"/>
-      <c r="AM63" s="32"/>
-      <c r="AN63" s="32"/>
-      <c r="AO63" s="32"/>
-      <c r="AP63" s="32"/>
-      <c r="AQ63" s="32"/>
-      <c r="AR63" s="32"/>
-      <c r="AS63" s="32"/>
-      <c r="AT63" s="32"/>
-      <c r="AU63" s="32"/>
-      <c r="AV63" s="32"/>
-      <c r="AW63" s="32"/>
-      <c r="AX63" s="32"/>
-      <c r="AY63" s="32"/>
-      <c r="AZ63" s="32"/>
-      <c r="BA63" s="32"/>
-      <c r="BB63" s="32"/>
-      <c r="BC63" s="32"/>
-      <c r="BD63" s="32"/>
-      <c r="BE63" s="32"/>
-      <c r="BF63" s="32"/>
-      <c r="BG63" s="32"/>
-      <c r="BH63" s="32"/>
-      <c r="BI63" s="32"/>
-      <c r="BJ63" s="32"/>
-      <c r="BK63" s="32"/>
-      <c r="BL63" s="32"/>
-      <c r="BM63" s="32"/>
-      <c r="BN63" s="32"/>
-      <c r="BO63" s="32"/>
-      <c r="BP63" s="32"/>
-      <c r="BQ63" s="32"/>
-      <c r="BR63" s="32"/>
-      <c r="BS63" s="32"/>
-      <c r="BT63" s="32"/>
-      <c r="BU63" s="32"/>
-      <c r="BV63" s="32"/>
-      <c r="BW63" s="32"/>
-      <c r="BX63" s="32"/>
-      <c r="BY63" s="32"/>
-      <c r="BZ63" s="32"/>
-      <c r="CA63" s="32"/>
-      <c r="CB63" s="32"/>
-      <c r="CC63" s="32"/>
-      <c r="CD63" s="32"/>
-      <c r="CE63" s="32"/>
-      <c r="CF63" s="32"/>
-      <c r="CG63" s="32"/>
-      <c r="CH63" s="32"/>
-      <c r="CI63" s="32"/>
-      <c r="CJ63" s="32"/>
-      <c r="CK63" s="32"/>
-      <c r="CL63" s="32"/>
-      <c r="CM63" s="32"/>
-      <c r="CN63" s="32"/>
-      <c r="CO63" s="32"/>
-      <c r="CP63" s="32"/>
-      <c r="CQ63" s="32"/>
-      <c r="CR63" s="32"/>
-      <c r="CS63" s="32"/>
-      <c r="CT63" s="32"/>
-      <c r="CU63" s="32"/>
-      <c r="CV63" s="32"/>
-      <c r="CW63" s="32"/>
-      <c r="CX63" s="32"/>
-      <c r="CY63" s="32"/>
-      <c r="CZ63" s="32"/>
-      <c r="DA63" s="32"/>
+      <c r="E63" s="24"/>
+      <c r="F63" s="24"/>
+      <c r="G63" s="24"/>
+      <c r="H63" s="24"/>
+      <c r="I63" s="24"/>
+      <c r="J63" s="24"/>
+      <c r="K63" s="24"/>
+      <c r="L63" s="24"/>
+      <c r="M63" s="24"/>
+      <c r="N63" s="24"/>
+      <c r="O63" s="24"/>
+      <c r="P63" s="24"/>
+      <c r="Q63" s="24"/>
+      <c r="R63" s="24"/>
+      <c r="S63" s="24"/>
+      <c r="T63" s="24"/>
+      <c r="U63" s="24"/>
+      <c r="V63" s="24"/>
+      <c r="W63" s="24"/>
+      <c r="X63" s="24"/>
+      <c r="Y63" s="24"/>
+      <c r="Z63" s="24"/>
+      <c r="AA63" s="24"/>
+      <c r="AB63" s="24"/>
+      <c r="AC63" s="24"/>
+      <c r="AD63" s="24"/>
+      <c r="AE63" s="24"/>
+      <c r="AF63" s="24"/>
+      <c r="AG63" s="24"/>
+      <c r="AH63" s="24"/>
+      <c r="AI63" s="24"/>
+      <c r="AJ63" s="24"/>
+      <c r="AK63" s="24"/>
+      <c r="AL63" s="24"/>
+      <c r="AM63" s="24"/>
+      <c r="AN63" s="24"/>
+      <c r="AO63" s="24"/>
+      <c r="AP63" s="24"/>
+      <c r="AQ63" s="24"/>
+      <c r="AR63" s="24"/>
+      <c r="AS63" s="24"/>
+      <c r="AT63" s="24"/>
+      <c r="AU63" s="24"/>
+      <c r="AV63" s="24"/>
+      <c r="AW63" s="24"/>
+      <c r="AX63" s="24"/>
+      <c r="AY63" s="24"/>
+      <c r="AZ63" s="24"/>
+      <c r="BA63" s="24"/>
+      <c r="BB63" s="24"/>
+      <c r="BC63" s="24"/>
+      <c r="BD63" s="24"/>
+      <c r="BE63" s="24"/>
+      <c r="BF63" s="24"/>
+      <c r="BG63" s="24"/>
+      <c r="BH63" s="24"/>
+      <c r="BI63" s="24"/>
+      <c r="BJ63" s="24"/>
+      <c r="BK63" s="24"/>
+      <c r="BL63" s="24"/>
+      <c r="BM63" s="24"/>
+      <c r="BN63" s="24"/>
+      <c r="BO63" s="24"/>
+      <c r="BP63" s="24"/>
+      <c r="BQ63" s="24"/>
+      <c r="BR63" s="24"/>
+      <c r="BS63" s="24"/>
+      <c r="BT63" s="24"/>
+      <c r="BU63" s="24"/>
+      <c r="BV63" s="24"/>
+      <c r="BW63" s="24"/>
+      <c r="BX63" s="24"/>
+      <c r="BY63" s="24"/>
+      <c r="BZ63" s="24"/>
+      <c r="CA63" s="24"/>
+      <c r="CB63" s="24"/>
+      <c r="CC63" s="24"/>
+      <c r="CD63" s="24"/>
+      <c r="CE63" s="24"/>
+      <c r="CF63" s="24"/>
+      <c r="CG63" s="24"/>
+      <c r="CH63" s="24"/>
+      <c r="CI63" s="24"/>
+      <c r="CJ63" s="24"/>
+      <c r="CK63" s="24"/>
+      <c r="CL63" s="24"/>
+      <c r="CM63" s="24"/>
+      <c r="CN63" s="24"/>
+      <c r="CO63" s="24"/>
+      <c r="CP63" s="24"/>
+      <c r="CQ63" s="24"/>
+      <c r="CR63" s="24"/>
+      <c r="CS63" s="24"/>
+      <c r="CT63" s="24"/>
+      <c r="CU63" s="24"/>
+      <c r="CV63" s="24"/>
+      <c r="CW63" s="24"/>
+      <c r="CX63" s="24"/>
+      <c r="CY63" s="24"/>
+      <c r="CZ63" s="24"/>
+      <c r="DA63" s="24"/>
       <c r="DB63" s="4"/>
       <c r="DC63" s="4"/>
     </row>
-    <row r="64" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A64" s="30"/>
-      <c r="Z64" s="39" t="s">
+    <row r="64" spans="1:109">
+      <c r="A64" s="37"/>
+      <c r="Z64" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="AA64" s="39"/>
-      <c r="AB64" s="40" t="s">
+      <c r="AA64" s="38"/>
+      <c r="AB64" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="AC64" s="40"/>
-      <c r="AD64" s="40"/>
-      <c r="AE64" s="40"/>
-      <c r="AF64" s="40"/>
-      <c r="AG64" s="40"/>
-      <c r="AH64" s="40"/>
-      <c r="AI64" s="40"/>
-      <c r="AJ64" s="40"/>
-      <c r="AK64" s="40"/>
-      <c r="AL64" s="40"/>
-      <c r="AM64" s="40"/>
-      <c r="AN64" s="40"/>
-      <c r="AO64" s="40"/>
-      <c r="AP64" s="40"/>
-      <c r="AQ64" s="40"/>
-      <c r="AR64" s="40"/>
-      <c r="AS64" s="40"/>
-      <c r="AT64" s="40"/>
-      <c r="AU64" s="40"/>
-      <c r="AV64" s="40"/>
-      <c r="AW64" s="40"/>
-      <c r="AX64" s="40"/>
-      <c r="AY64" s="40"/>
-      <c r="AZ64" s="40"/>
-      <c r="BA64" s="40"/>
-      <c r="BB64" s="40"/>
-      <c r="BC64" s="40"/>
-      <c r="BD64" s="40"/>
-      <c r="BE64" s="40"/>
-      <c r="BF64" s="40"/>
-      <c r="BG64" s="40"/>
-      <c r="BH64" s="40"/>
-      <c r="BI64" s="40"/>
-      <c r="BJ64" s="40"/>
-      <c r="BK64" s="40"/>
-      <c r="BL64" s="40"/>
-      <c r="BM64" s="40"/>
-      <c r="BN64" s="40"/>
-      <c r="BO64" s="40"/>
-      <c r="BP64" s="40"/>
-      <c r="BQ64" s="40"/>
-      <c r="BR64" s="40"/>
-      <c r="BS64" s="40"/>
-      <c r="BT64" s="40"/>
-      <c r="BU64" s="40"/>
-      <c r="BV64" s="40"/>
-      <c r="BW64" s="40"/>
-      <c r="BX64" s="40"/>
-      <c r="BY64" s="40"/>
-      <c r="BZ64" s="40"/>
-      <c r="CA64" s="40"/>
-      <c r="CB64" s="40"/>
-      <c r="CC64" s="40"/>
-      <c r="CD64" s="40"/>
-      <c r="CE64" s="40"/>
-      <c r="CF64" s="40"/>
-      <c r="CG64" s="40"/>
-      <c r="CH64" s="40"/>
-      <c r="CI64" s="40"/>
-      <c r="CJ64" s="40"/>
-      <c r="CK64" s="40"/>
-      <c r="CL64" s="40"/>
-      <c r="CM64" s="40"/>
-      <c r="CN64" s="40"/>
-      <c r="CO64" s="40"/>
-      <c r="CP64" s="40"/>
-      <c r="CQ64" s="40"/>
-      <c r="CR64" s="40"/>
-      <c r="CS64" s="40"/>
-      <c r="CT64" s="40"/>
-      <c r="CU64" s="40"/>
-      <c r="CV64" s="40"/>
-      <c r="CW64" s="40"/>
-      <c r="CX64" s="40"/>
-      <c r="CY64" s="40"/>
+      <c r="AC64" s="39"/>
+      <c r="AD64" s="39"/>
+      <c r="AE64" s="39"/>
+      <c r="AF64" s="39"/>
+      <c r="AG64" s="39"/>
+      <c r="AH64" s="39"/>
+      <c r="AI64" s="39"/>
+      <c r="AJ64" s="39"/>
+      <c r="AK64" s="39"/>
+      <c r="AL64" s="39"/>
+      <c r="AM64" s="39"/>
+      <c r="AN64" s="39"/>
+      <c r="AO64" s="39"/>
+      <c r="AP64" s="39"/>
+      <c r="AQ64" s="39"/>
+      <c r="AR64" s="39"/>
+      <c r="AS64" s="39"/>
+      <c r="AT64" s="39"/>
+      <c r="AU64" s="39"/>
+      <c r="AV64" s="39"/>
+      <c r="AW64" s="39"/>
+      <c r="AX64" s="39"/>
+      <c r="AY64" s="39"/>
+      <c r="AZ64" s="39"/>
+      <c r="BA64" s="39"/>
+      <c r="BB64" s="39"/>
+      <c r="BC64" s="39"/>
+      <c r="BD64" s="39"/>
+      <c r="BE64" s="39"/>
+      <c r="BF64" s="39"/>
+      <c r="BG64" s="39"/>
+      <c r="BH64" s="39"/>
+      <c r="BI64" s="39"/>
+      <c r="BJ64" s="39"/>
+      <c r="BK64" s="39"/>
+      <c r="BL64" s="39"/>
+      <c r="BM64" s="39"/>
+      <c r="BN64" s="39"/>
+      <c r="BO64" s="39"/>
+      <c r="BP64" s="39"/>
+      <c r="BQ64" s="39"/>
+      <c r="BR64" s="39"/>
+      <c r="BS64" s="39"/>
+      <c r="BT64" s="39"/>
+      <c r="BU64" s="39"/>
+      <c r="BV64" s="39"/>
+      <c r="BW64" s="39"/>
+      <c r="BX64" s="39"/>
+      <c r="BY64" s="39"/>
+      <c r="BZ64" s="39"/>
+      <c r="CA64" s="39"/>
+      <c r="CB64" s="39"/>
+      <c r="CC64" s="39"/>
+      <c r="CD64" s="39"/>
+      <c r="CE64" s="39"/>
+      <c r="CF64" s="39"/>
+      <c r="CG64" s="39"/>
+      <c r="CH64" s="39"/>
+      <c r="CI64" s="39"/>
+      <c r="CJ64" s="39"/>
+      <c r="CK64" s="39"/>
+      <c r="CL64" s="39"/>
+      <c r="CM64" s="39"/>
+      <c r="CN64" s="39"/>
+      <c r="CO64" s="39"/>
+      <c r="CP64" s="39"/>
+      <c r="CQ64" s="39"/>
+      <c r="CR64" s="39"/>
+      <c r="CS64" s="39"/>
+      <c r="CT64" s="39"/>
+      <c r="CU64" s="39"/>
+      <c r="CV64" s="39"/>
+      <c r="CW64" s="39"/>
+      <c r="CX64" s="39"/>
+      <c r="CY64" s="39"/>
     </row>
-    <row r="65" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A65" s="30"/>
+    <row r="65" spans="1:109">
+      <c r="A65" s="37"/>
     </row>
-    <row r="66" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A66" s="30"/>
+    <row r="66" spans="1:109">
+      <c r="A66" s="37"/>
     </row>
-    <row r="67" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A67" s="30"/>
+    <row r="67" spans="1:109">
+      <c r="A67" s="37"/>
       <c r="B67" t="str">
         <f>MID($DE$67,B1+1,1)</f>
         <v>F</v>
@@ -10292,285 +10284,285 @@
         <v>41</v>
       </c>
     </row>
-    <row r="68" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A68" s="30"/>
-      <c r="B68" s="18" t="str">
+    <row r="68" spans="1:109">
+      <c r="A68" s="37"/>
+      <c r="B68" s="16" t="str">
         <f>MID($DD$67,(B1*3)+1,2)</f>
         <v>46</v>
       </c>
-      <c r="C68" s="18" t="str">
+      <c r="C68" s="16" t="str">
         <f t="shared" ref="C68:I68" si="44">MID($DD$67,(C1*3)+1,2)</f>
         <v>00</v>
       </c>
-      <c r="D68" s="14" t="str">
+      <c r="D68" s="12" t="str">
         <f t="shared" si="44"/>
         <v>31</v>
       </c>
-      <c r="E68" s="14" t="str">
+      <c r="E68" s="12" t="str">
         <f t="shared" si="44"/>
         <v>00</v>
       </c>
-      <c r="F68" s="14" t="str">
+      <c r="F68" s="12" t="str">
         <f t="shared" si="44"/>
         <v>00</v>
       </c>
-      <c r="G68" s="14" t="str">
+      <c r="G68" s="12" t="str">
         <f t="shared" si="44"/>
         <v>00</v>
       </c>
-      <c r="H68" s="14" t="str">
+      <c r="H68" s="12" t="str">
         <f t="shared" si="44"/>
         <v>00</v>
       </c>
-      <c r="I68" s="14" t="str">
+      <c r="I68" s="12" t="str">
         <f t="shared" si="44"/>
         <v>00</v>
       </c>
-      <c r="J68" s="14" t="str">
+      <c r="J68" s="12" t="str">
         <f t="shared" ref="J68:BS68" si="45">MID($DD$67,(J1*3)+1,2)</f>
         <v>4e</v>
       </c>
-      <c r="K68" s="14" t="str">
+      <c r="K68" s="12" t="str">
         <f t="shared" si="45"/>
         <v>4c</v>
       </c>
-      <c r="L68" s="14" t="str">
+      <c r="L68" s="12" t="str">
         <f t="shared" si="45"/>
         <v>70</v>
       </c>
-      <c r="M68" s="14" t="str">
+      <c r="M68" s="12" t="str">
         <f t="shared" si="45"/>
         <v>74</v>
       </c>
-      <c r="N68" s="21" t="str">
+      <c r="N68" s="19" t="str">
         <f t="shared" si="45"/>
         <v>10</v>
       </c>
-      <c r="O68" s="21" t="str">
+      <c r="O68" s="19" t="str">
         <f t="shared" si="45"/>
         <v>00</v>
       </c>
-      <c r="P68" s="10" t="str">
+      <c r="P68" s="8" t="str">
         <f t="shared" si="45"/>
         <v>37</v>
       </c>
-      <c r="Q68" s="10" t="str">
+      <c r="Q68" s="8" t="str">
         <f t="shared" si="45"/>
         <v>37</v>
       </c>
-      <c r="R68" s="10" t="str">
+      <c r="R68" s="8" t="str">
         <f t="shared" si="45"/>
         <v>37</v>
       </c>
-      <c r="S68" s="10" t="str">
+      <c r="S68" s="8" t="str">
         <f t="shared" si="45"/>
         <v>00</v>
       </c>
-      <c r="T68" s="11" t="str">
+      <c r="T68" s="9" t="str">
         <f t="shared" si="45"/>
         <v>34</v>
       </c>
-      <c r="U68" s="11" t="str">
+      <c r="U68" s="9" t="str">
         <f t="shared" si="45"/>
         <v>00</v>
       </c>
-      <c r="V68" s="20" t="str">
+      <c r="V68" s="18" t="str">
         <f t="shared" si="45"/>
         <v>08</v>
       </c>
-      <c r="W68" s="20" t="str">
+      <c r="W68" s="18" t="str">
         <f t="shared" si="45"/>
         <v>00</v>
       </c>
-      <c r="X68" s="20" t="str">
+      <c r="X68" s="18" t="str">
         <f t="shared" si="45"/>
         <v>04</v>
       </c>
-      <c r="Y68" s="20" t="str">
+      <c r="Y68" s="18" t="str">
         <f t="shared" si="45"/>
         <v>00</v>
       </c>
-      <c r="Z68" s="20" t="str">
+      <c r="Z68" s="18" t="str">
         <f t="shared" si="45"/>
         <v>ef</v>
       </c>
-      <c r="AA68" s="20" t="str">
+      <c r="AA68" s="18" t="str">
         <f t="shared" si="45"/>
         <v>be</v>
       </c>
-      <c r="AB68" s="20" t="str">
+      <c r="AB68" s="18" t="str">
         <f t="shared" si="45"/>
         <v>4e</v>
       </c>
-      <c r="AC68" s="20" t="str">
+      <c r="AC68" s="18" t="str">
         <f t="shared" si="45"/>
         <v>4c</v>
       </c>
-      <c r="AD68" s="18" t="str">
+      <c r="AD68" s="16" t="str">
         <f t="shared" si="45"/>
         <v>70</v>
       </c>
-      <c r="AE68" s="18" t="str">
+      <c r="AE68" s="16" t="str">
         <f t="shared" si="45"/>
         <v>74</v>
       </c>
-      <c r="AF68" s="18" t="str">
+      <c r="AF68" s="16" t="str">
         <f t="shared" si="45"/>
         <v>4e</v>
       </c>
-      <c r="AG68" s="18" t="str">
+      <c r="AG68" s="16" t="str">
         <f t="shared" si="45"/>
         <v>4c</v>
       </c>
-      <c r="AH68" s="18" t="str">
+      <c r="AH68" s="16" t="str">
         <f t="shared" si="45"/>
         <v>70</v>
       </c>
-      <c r="AI68" s="18" t="str">
+      <c r="AI68" s="16" t="str">
         <f t="shared" si="45"/>
         <v>74</v>
       </c>
-      <c r="AJ68" s="18" t="str">
+      <c r="AJ68" s="16" t="str">
         <f t="shared" si="45"/>
         <v>2a</v>
       </c>
-      <c r="AK68" s="18" t="str">
+      <c r="AK68" s="16" t="str">
         <f t="shared" si="45"/>
         <v>00</v>
       </c>
-      <c r="AL68" s="18" t="str">
+      <c r="AL68" s="16" t="str">
         <f t="shared" si="45"/>
         <v>00</v>
       </c>
-      <c r="AM68" s="18" t="str">
+      <c r="AM68" s="16" t="str">
         <f t="shared" si="45"/>
         <v>00</v>
       </c>
-      <c r="AN68" s="18" t="str">
+      <c r="AN68" s="16" t="str">
         <f t="shared" si="45"/>
         <v>83</v>
       </c>
-      <c r="AO68" s="18" t="str">
+      <c r="AO68" s="16" t="str">
         <f t="shared" si="45"/>
         <v>2f</v>
       </c>
-      <c r="AP68" s="18" t="str">
+      <c r="AP68" s="16" t="str">
         <f t="shared" si="45"/>
         <v>12</v>
       </c>
-      <c r="AQ68" s="18" t="str">
+      <c r="AQ68" s="16" t="str">
         <f t="shared" si="45"/>
         <v>00</v>
       </c>
-      <c r="AR68" s="18" t="str">
+      <c r="AR68" s="16" t="str">
         <f t="shared" si="45"/>
         <v>00</v>
       </c>
-      <c r="AS68" s="18" t="str">
+      <c r="AS68" s="16" t="str">
         <f t="shared" si="45"/>
         <v>00</v>
       </c>
-      <c r="AT68" s="18" t="str">
+      <c r="AT68" s="16" t="str">
         <f t="shared" si="45"/>
         <v>09</v>
       </c>
-      <c r="AU68" s="18" t="str">
+      <c r="AU68" s="16" t="str">
         <f t="shared" si="45"/>
         <v>00</v>
       </c>
-      <c r="AV68" s="18" t="str">
+      <c r="AV68" s="16" t="str">
         <f t="shared" si="45"/>
         <v>00</v>
       </c>
-      <c r="AW68" s="18" t="str">
+      <c r="AW68" s="16" t="str">
         <f t="shared" si="45"/>
         <v>00</v>
       </c>
-      <c r="AX68" s="18" t="str">
+      <c r="AX68" s="16" t="str">
         <f t="shared" si="45"/>
         <v>00</v>
       </c>
-      <c r="AY68" s="18" t="str">
+      <c r="AY68" s="16" t="str">
         <f t="shared" si="45"/>
         <v>00</v>
       </c>
-      <c r="AZ68" s="18" t="str">
+      <c r="AZ68" s="16" t="str">
         <f t="shared" si="45"/>
         <v>00</v>
       </c>
-      <c r="BA68" s="18" t="str">
+      <c r="BA68" s="16" t="str">
         <f t="shared" si="45"/>
         <v>00</v>
       </c>
-      <c r="BB68" s="18" t="str">
+      <c r="BB68" s="16" t="str">
         <f t="shared" si="45"/>
         <v>00</v>
       </c>
-      <c r="BC68" s="18" t="str">
+      <c r="BC68" s="16" t="str">
         <f t="shared" si="45"/>
         <v>00</v>
       </c>
-      <c r="BD68" s="18" t="str">
+      <c r="BD68" s="16" t="str">
         <f t="shared" si="45"/>
         <v>00</v>
       </c>
-      <c r="BE68" s="18" t="str">
+      <c r="BE68" s="16" t="str">
         <f t="shared" si="45"/>
         <v>00</v>
       </c>
-      <c r="BF68" s="18" t="str">
+      <c r="BF68" s="16" t="str">
         <f t="shared" si="45"/>
         <v>00</v>
       </c>
-      <c r="BG68" s="18" t="str">
+      <c r="BG68" s="16" t="str">
         <f t="shared" si="45"/>
         <v>00</v>
       </c>
-      <c r="BH68" s="18" t="str">
+      <c r="BH68" s="16" t="str">
         <f t="shared" si="45"/>
         <v>00</v>
       </c>
-      <c r="BI68" s="18" t="str">
+      <c r="BI68" s="16" t="str">
         <f t="shared" si="45"/>
         <v>00</v>
       </c>
-      <c r="BJ68" s="10" t="str">
+      <c r="BJ68" s="8" t="str">
         <f t="shared" si="45"/>
         <v>37</v>
       </c>
-      <c r="BK68" s="10" t="str">
+      <c r="BK68" s="8" t="str">
         <f t="shared" si="45"/>
         <v>00</v>
       </c>
-      <c r="BL68" s="10" t="str">
+      <c r="BL68" s="8" t="str">
         <f t="shared" si="45"/>
         <v>37</v>
       </c>
-      <c r="BM68" s="10" t="str">
+      <c r="BM68" s="8" t="str">
         <f t="shared" si="45"/>
         <v>00</v>
       </c>
-      <c r="BN68" s="10" t="str">
+      <c r="BN68" s="8" t="str">
         <f t="shared" si="45"/>
         <v>37</v>
       </c>
-      <c r="BO68" s="10" t="str">
+      <c r="BO68" s="8" t="str">
         <f t="shared" si="45"/>
         <v>00</v>
       </c>
-      <c r="BP68" s="10" t="str">
+      <c r="BP68" s="8" t="str">
         <f t="shared" si="45"/>
         <v>00</v>
       </c>
-      <c r="BQ68" s="10" t="str">
+      <c r="BQ68" s="8" t="str">
         <f t="shared" si="45"/>
         <v>00</v>
       </c>
-      <c r="BR68" s="18" t="str">
+      <c r="BR68" s="16" t="str">
         <f t="shared" si="45"/>
         <v>12</v>
       </c>
-      <c r="BS68" s="18" t="str">
+      <c r="BS68" s="16" t="str">
         <f t="shared" si="45"/>
         <v>00</v>
       </c>
@@ -10611,97 +10603,97 @@
       <c r="DB68" s="4"/>
       <c r="DC68" s="4"/>
     </row>
-    <row r="69" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A69" s="30"/>
-      <c r="B69" s="31" t="s">
+    <row r="69" spans="1:109">
+      <c r="A69" s="37"/>
+      <c r="B69" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C69" s="32"/>
-      <c r="D69" s="32" t="s">
+      <c r="C69" s="24"/>
+      <c r="D69" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="E69" s="32"/>
-      <c r="F69" s="32"/>
-      <c r="G69" s="32"/>
-      <c r="H69" s="32"/>
-      <c r="I69" s="32"/>
-      <c r="J69" s="32"/>
-      <c r="K69" s="32"/>
-      <c r="L69" s="32"/>
-      <c r="M69" s="32"/>
-      <c r="N69" s="32"/>
-      <c r="O69" s="32"/>
-      <c r="P69" s="32"/>
-      <c r="Q69" s="32"/>
-      <c r="R69" s="32"/>
-      <c r="S69" s="32"/>
-      <c r="T69" s="32"/>
-      <c r="U69" s="32"/>
-      <c r="V69" s="32"/>
-      <c r="W69" s="32"/>
-      <c r="X69" s="32"/>
-      <c r="Y69" s="32"/>
-      <c r="Z69" s="32"/>
-      <c r="AA69" s="32"/>
-      <c r="AB69" s="32"/>
-      <c r="AC69" s="32"/>
-      <c r="AD69" s="32"/>
-      <c r="AE69" s="32"/>
-      <c r="AF69" s="32"/>
-      <c r="AG69" s="32"/>
-      <c r="AH69" s="32"/>
-      <c r="AI69" s="32"/>
-      <c r="AJ69" s="32"/>
-      <c r="AK69" s="32"/>
-      <c r="AL69" s="32"/>
-      <c r="AM69" s="32"/>
-      <c r="AN69" s="32"/>
-      <c r="AO69" s="32"/>
-      <c r="AP69" s="32"/>
-      <c r="AQ69" s="32"/>
-      <c r="AR69" s="32"/>
-      <c r="AS69" s="32"/>
-      <c r="AT69" s="32"/>
-      <c r="AU69" s="32"/>
-      <c r="AV69" s="32"/>
-      <c r="AW69" s="32"/>
-      <c r="AX69" s="32"/>
-      <c r="AY69" s="32"/>
-      <c r="AZ69" s="32"/>
-      <c r="BA69" s="32"/>
-      <c r="BB69" s="32"/>
-      <c r="BC69" s="32"/>
-      <c r="BD69" s="32"/>
-      <c r="BE69" s="32"/>
-      <c r="BF69" s="32"/>
-      <c r="BG69" s="32"/>
-      <c r="BH69" s="32"/>
-      <c r="BI69" s="32"/>
-      <c r="BJ69" s="32"/>
-      <c r="BK69" s="32"/>
-      <c r="BL69" s="32"/>
-      <c r="BM69" s="32"/>
-      <c r="BN69" s="32"/>
-      <c r="BO69" s="32"/>
-      <c r="BP69" s="32"/>
-      <c r="BQ69" s="32"/>
-      <c r="BR69" s="32"/>
-      <c r="BS69" s="32"/>
-      <c r="BT69" s="23"/>
-      <c r="BU69" s="23"/>
-      <c r="BV69" s="23"/>
-      <c r="BW69" s="23"/>
-      <c r="BX69" s="23"/>
-      <c r="BY69" s="23"/>
-      <c r="BZ69" s="23"/>
-      <c r="CA69" s="23"/>
-      <c r="CB69" s="23"/>
-      <c r="CC69" s="23"/>
-      <c r="CD69" s="41"/>
-      <c r="CE69" s="41"/>
-      <c r="CF69" s="41"/>
-      <c r="CG69" s="41"/>
-      <c r="CH69" s="41"/>
+      <c r="E69" s="24"/>
+      <c r="F69" s="24"/>
+      <c r="G69" s="24"/>
+      <c r="H69" s="24"/>
+      <c r="I69" s="24"/>
+      <c r="J69" s="24"/>
+      <c r="K69" s="24"/>
+      <c r="L69" s="24"/>
+      <c r="M69" s="24"/>
+      <c r="N69" s="24"/>
+      <c r="O69" s="24"/>
+      <c r="P69" s="24"/>
+      <c r="Q69" s="24"/>
+      <c r="R69" s="24"/>
+      <c r="S69" s="24"/>
+      <c r="T69" s="24"/>
+      <c r="U69" s="24"/>
+      <c r="V69" s="24"/>
+      <c r="W69" s="24"/>
+      <c r="X69" s="24"/>
+      <c r="Y69" s="24"/>
+      <c r="Z69" s="24"/>
+      <c r="AA69" s="24"/>
+      <c r="AB69" s="24"/>
+      <c r="AC69" s="24"/>
+      <c r="AD69" s="24"/>
+      <c r="AE69" s="24"/>
+      <c r="AF69" s="24"/>
+      <c r="AG69" s="24"/>
+      <c r="AH69" s="24"/>
+      <c r="AI69" s="24"/>
+      <c r="AJ69" s="24"/>
+      <c r="AK69" s="24"/>
+      <c r="AL69" s="24"/>
+      <c r="AM69" s="24"/>
+      <c r="AN69" s="24"/>
+      <c r="AO69" s="24"/>
+      <c r="AP69" s="24"/>
+      <c r="AQ69" s="24"/>
+      <c r="AR69" s="24"/>
+      <c r="AS69" s="24"/>
+      <c r="AT69" s="24"/>
+      <c r="AU69" s="24"/>
+      <c r="AV69" s="24"/>
+      <c r="AW69" s="24"/>
+      <c r="AX69" s="24"/>
+      <c r="AY69" s="24"/>
+      <c r="AZ69" s="24"/>
+      <c r="BA69" s="24"/>
+      <c r="BB69" s="24"/>
+      <c r="BC69" s="24"/>
+      <c r="BD69" s="24"/>
+      <c r="BE69" s="24"/>
+      <c r="BF69" s="24"/>
+      <c r="BG69" s="24"/>
+      <c r="BH69" s="24"/>
+      <c r="BI69" s="24"/>
+      <c r="BJ69" s="24"/>
+      <c r="BK69" s="24"/>
+      <c r="BL69" s="24"/>
+      <c r="BM69" s="24"/>
+      <c r="BN69" s="24"/>
+      <c r="BO69" s="24"/>
+      <c r="BP69" s="24"/>
+      <c r="BQ69" s="24"/>
+      <c r="BR69" s="24"/>
+      <c r="BS69" s="24"/>
+      <c r="BT69" s="21"/>
+      <c r="BU69" s="21"/>
+      <c r="BV69" s="21"/>
+      <c r="BW69" s="21"/>
+      <c r="BX69" s="21"/>
+      <c r="BY69" s="21"/>
+      <c r="BZ69" s="21"/>
+      <c r="CA69" s="21"/>
+      <c r="CB69" s="21"/>
+      <c r="CC69" s="21"/>
+      <c r="CD69" s="22"/>
+      <c r="CE69" s="22"/>
+      <c r="CF69" s="22"/>
+      <c r="CG69" s="22"/>
+      <c r="CH69" s="22"/>
       <c r="CI69" s="4"/>
       <c r="CJ69" s="4"/>
       <c r="CK69" s="4"/>
@@ -10724,75 +10716,75 @@
       <c r="DB69" s="4"/>
       <c r="DC69" s="4"/>
     </row>
-    <row r="70" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A70" s="30"/>
-      <c r="T70" s="24" t="s">
+    <row r="70" spans="1:109">
+      <c r="A70" s="37"/>
+      <c r="T70" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="U70" s="24"/>
-      <c r="V70" s="25" t="s">
+      <c r="U70" s="30"/>
+      <c r="V70" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="W70" s="25"/>
-      <c r="X70" s="25"/>
-      <c r="Y70" s="25"/>
-      <c r="Z70" s="25"/>
-      <c r="AA70" s="25"/>
-      <c r="AB70" s="25"/>
-      <c r="AC70" s="25"/>
-      <c r="AD70" s="25"/>
-      <c r="AE70" s="25"/>
-      <c r="AF70" s="25"/>
-      <c r="AG70" s="25"/>
-      <c r="AH70" s="25"/>
-      <c r="AI70" s="25"/>
-      <c r="AJ70" s="25"/>
-      <c r="AK70" s="25"/>
-      <c r="AL70" s="25"/>
-      <c r="AM70" s="25"/>
-      <c r="AN70" s="25"/>
-      <c r="AO70" s="25"/>
-      <c r="AP70" s="25"/>
-      <c r="AQ70" s="25"/>
-      <c r="AR70" s="25"/>
-      <c r="AS70" s="25"/>
-      <c r="AT70" s="25"/>
-      <c r="AU70" s="25"/>
-      <c r="AV70" s="25"/>
-      <c r="AW70" s="25"/>
-      <c r="AX70" s="25"/>
-      <c r="AY70" s="25"/>
-      <c r="AZ70" s="25"/>
-      <c r="BA70" s="25"/>
-      <c r="BB70" s="25"/>
-      <c r="BC70" s="25"/>
-      <c r="BD70" s="25"/>
-      <c r="BE70" s="25"/>
-      <c r="BF70" s="25"/>
-      <c r="BG70" s="25"/>
-      <c r="BH70" s="25"/>
-      <c r="BI70" s="25"/>
-      <c r="BJ70" s="25"/>
-      <c r="BK70" s="25"/>
-      <c r="BL70" s="25"/>
-      <c r="BM70" s="25"/>
-      <c r="BN70" s="25"/>
-      <c r="BO70" s="25"/>
-      <c r="BP70" s="25"/>
-      <c r="BQ70" s="25"/>
-      <c r="BR70" s="25"/>
-      <c r="BS70" s="25"/>
-      <c r="BT70" s="23"/>
-      <c r="BU70" s="23"/>
+      <c r="W70" s="27"/>
+      <c r="X70" s="27"/>
+      <c r="Y70" s="27"/>
+      <c r="Z70" s="27"/>
+      <c r="AA70" s="27"/>
+      <c r="AB70" s="27"/>
+      <c r="AC70" s="27"/>
+      <c r="AD70" s="27"/>
+      <c r="AE70" s="27"/>
+      <c r="AF70" s="27"/>
+      <c r="AG70" s="27"/>
+      <c r="AH70" s="27"/>
+      <c r="AI70" s="27"/>
+      <c r="AJ70" s="27"/>
+      <c r="AK70" s="27"/>
+      <c r="AL70" s="27"/>
+      <c r="AM70" s="27"/>
+      <c r="AN70" s="27"/>
+      <c r="AO70" s="27"/>
+      <c r="AP70" s="27"/>
+      <c r="AQ70" s="27"/>
+      <c r="AR70" s="27"/>
+      <c r="AS70" s="27"/>
+      <c r="AT70" s="27"/>
+      <c r="AU70" s="27"/>
+      <c r="AV70" s="27"/>
+      <c r="AW70" s="27"/>
+      <c r="AX70" s="27"/>
+      <c r="AY70" s="27"/>
+      <c r="AZ70" s="27"/>
+      <c r="BA70" s="27"/>
+      <c r="BB70" s="27"/>
+      <c r="BC70" s="27"/>
+      <c r="BD70" s="27"/>
+      <c r="BE70" s="27"/>
+      <c r="BF70" s="27"/>
+      <c r="BG70" s="27"/>
+      <c r="BH70" s="27"/>
+      <c r="BI70" s="27"/>
+      <c r="BJ70" s="27"/>
+      <c r="BK70" s="27"/>
+      <c r="BL70" s="27"/>
+      <c r="BM70" s="27"/>
+      <c r="BN70" s="27"/>
+      <c r="BO70" s="27"/>
+      <c r="BP70" s="27"/>
+      <c r="BQ70" s="27"/>
+      <c r="BR70" s="27"/>
+      <c r="BS70" s="27"/>
+      <c r="BT70" s="21"/>
+      <c r="BU70" s="21"/>
     </row>
-    <row r="71" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A71" s="30"/>
+    <row r="71" spans="1:109">
+      <c r="A71" s="37"/>
     </row>
-    <row r="72" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A72" s="30"/>
+    <row r="72" spans="1:109">
+      <c r="A72" s="37"/>
     </row>
-    <row r="73" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A73" s="30"/>
+    <row r="73" spans="1:109">
+      <c r="A73" s="37"/>
       <c r="B73" t="str">
         <f>MID($DE$73,B1+1,1)</f>
         <v>^</v>
@@ -11188,381 +11180,381 @@
         <v>43</v>
       </c>
     </row>
-    <row r="74" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A74" s="30"/>
-      <c r="B74" s="18" t="str">
+    <row r="74" spans="1:109">
+      <c r="A74" s="37"/>
+      <c r="B74" s="16" t="str">
         <f>MID($DD$73,(B1*3)+1,2)</f>
         <v>5e</v>
       </c>
-      <c r="C74" s="18" t="str">
+      <c r="C74" s="16" t="str">
         <f t="shared" ref="C74:I74" si="49">MID($DD$73,(C1*3)+1,2)</f>
         <v>00</v>
       </c>
-      <c r="D74" s="14" t="str">
+      <c r="D74" s="12" t="str">
         <f t="shared" si="49"/>
         <v>32</v>
       </c>
-      <c r="E74" s="14" t="str">
+      <c r="E74" s="12" t="str">
         <f t="shared" si="49"/>
         <v>00</v>
       </c>
-      <c r="F74" s="14" t="str">
+      <c r="F74" s="12" t="str">
         <f t="shared" si="49"/>
         <v>00</v>
       </c>
-      <c r="G74" s="14" t="str">
+      <c r="G74" s="12" t="str">
         <f t="shared" si="49"/>
         <v>00</v>
       </c>
-      <c r="H74" s="14" t="str">
+      <c r="H74" s="12" t="str">
         <f t="shared" si="49"/>
         <v>00</v>
       </c>
-      <c r="I74" s="14" t="str">
+      <c r="I74" s="12" t="str">
         <f t="shared" si="49"/>
         <v>00</v>
       </c>
-      <c r="J74" s="14" t="str">
+      <c r="J74" s="12" t="str">
         <f t="shared" ref="J74:BU74" si="50">MID($DD$73,(J1*3)+1,2)</f>
         <v>4e</v>
       </c>
-      <c r="K74" s="14" t="str">
+      <c r="K74" s="12" t="str">
         <f t="shared" si="50"/>
         <v>4c</v>
       </c>
-      <c r="L74" s="14" t="str">
+      <c r="L74" s="12" t="str">
         <f t="shared" si="50"/>
         <v>78</v>
       </c>
-      <c r="M74" s="14" t="str">
+      <c r="M74" s="12" t="str">
         <f t="shared" si="50"/>
         <v>74</v>
       </c>
-      <c r="N74" s="21" t="str">
+      <c r="N74" s="19" t="str">
         <f t="shared" si="50"/>
         <v>20</v>
       </c>
-      <c r="O74" s="21" t="str">
+      <c r="O74" s="19" t="str">
         <f t="shared" si="50"/>
         <v>00</v>
       </c>
-      <c r="P74" s="10" t="str">
+      <c r="P74" s="8" t="str">
         <f t="shared" si="50"/>
         <v>48</v>
       </c>
-      <c r="Q74" s="10" t="str">
+      <c r="Q74" s="8" t="str">
         <f t="shared" si="50"/>
         <v>69</v>
       </c>
-      <c r="R74" s="10" t="str">
+      <c r="R74" s="8" t="str">
         <f t="shared" si="50"/>
         <v>73</v>
       </c>
-      <c r="S74" s="10" t="str">
+      <c r="S74" s="8" t="str">
         <f t="shared" si="50"/>
         <v>74</v>
       </c>
-      <c r="T74" s="10" t="str">
+      <c r="T74" s="8" t="str">
         <f t="shared" si="50"/>
         <v>6f</v>
       </c>
-      <c r="U74" s="10" t="str">
+      <c r="U74" s="8" t="str">
         <f t="shared" si="50"/>
         <v>72</v>
       </c>
-      <c r="V74" s="10" t="str">
+      <c r="V74" s="8" t="str">
         <f t="shared" si="50"/>
         <v>79</v>
       </c>
-      <c r="W74" s="10" t="str">
+      <c r="W74" s="8" t="str">
         <f t="shared" si="50"/>
         <v>2e</v>
       </c>
-      <c r="X74" s="10" t="str">
+      <c r="X74" s="8" t="str">
         <f t="shared" si="50"/>
         <v>74</v>
       </c>
-      <c r="Y74" s="10" t="str">
+      <c r="Y74" s="8" t="str">
         <f t="shared" si="50"/>
         <v>78</v>
       </c>
-      <c r="Z74" s="10" t="str">
+      <c r="Z74" s="8" t="str">
         <f t="shared" si="50"/>
         <v>74</v>
       </c>
-      <c r="AA74" s="10" t="str">
+      <c r="AA74" s="8" t="str">
         <f t="shared" si="50"/>
         <v>00</v>
       </c>
-      <c r="AB74" s="11" t="str">
+      <c r="AB74" s="9" t="str">
         <f t="shared" si="50"/>
         <v>44</v>
       </c>
-      <c r="AC74" s="11" t="str">
+      <c r="AC74" s="9" t="str">
         <f t="shared" si="50"/>
         <v>00</v>
       </c>
-      <c r="AD74" s="20" t="str">
+      <c r="AD74" s="18" t="str">
         <f t="shared" si="50"/>
         <v>08</v>
       </c>
-      <c r="AE74" s="20" t="str">
+      <c r="AE74" s="18" t="str">
         <f t="shared" si="50"/>
         <v>00</v>
       </c>
-      <c r="AF74" s="20" t="str">
+      <c r="AF74" s="18" t="str">
         <f t="shared" si="50"/>
         <v>04</v>
       </c>
-      <c r="AG74" s="20" t="str">
+      <c r="AG74" s="18" t="str">
         <f t="shared" si="50"/>
         <v>00</v>
       </c>
-      <c r="AH74" s="20" t="str">
+      <c r="AH74" s="18" t="str">
         <f t="shared" si="50"/>
         <v>ef</v>
       </c>
-      <c r="AI74" s="20" t="str">
+      <c r="AI74" s="18" t="str">
         <f t="shared" si="50"/>
         <v>be</v>
       </c>
-      <c r="AJ74" s="20" t="str">
+      <c r="AJ74" s="18" t="str">
         <f t="shared" si="50"/>
         <v>4e</v>
       </c>
-      <c r="AK74" s="20" t="str">
+      <c r="AK74" s="18" t="str">
         <f t="shared" si="50"/>
         <v>4c</v>
       </c>
-      <c r="AL74" s="18" t="str">
+      <c r="AL74" s="16" t="str">
         <f t="shared" si="50"/>
         <v>78</v>
       </c>
-      <c r="AM74" s="18" t="str">
+      <c r="AM74" s="16" t="str">
         <f t="shared" si="50"/>
         <v>74</v>
       </c>
-      <c r="AN74" s="18" t="str">
+      <c r="AN74" s="16" t="str">
         <f t="shared" si="50"/>
         <v>4e</v>
       </c>
-      <c r="AO74" s="18" t="str">
+      <c r="AO74" s="16" t="str">
         <f t="shared" si="50"/>
         <v>4c</v>
       </c>
-      <c r="AP74" s="18" t="str">
+      <c r="AP74" s="16" t="str">
         <f t="shared" si="50"/>
         <v>78</v>
       </c>
-      <c r="AQ74" s="18" t="str">
+      <c r="AQ74" s="16" t="str">
         <f t="shared" si="50"/>
         <v>74</v>
       </c>
-      <c r="AR74" s="18" t="str">
+      <c r="AR74" s="16" t="str">
         <f t="shared" si="50"/>
         <v>2a</v>
       </c>
-      <c r="AS74" s="18" t="str">
+      <c r="AS74" s="16" t="str">
         <f t="shared" si="50"/>
         <v>00</v>
       </c>
-      <c r="AT74" s="18" t="str">
+      <c r="AT74" s="16" t="str">
         <f t="shared" si="50"/>
         <v>00</v>
       </c>
-      <c r="AU74" s="18" t="str">
+      <c r="AU74" s="16" t="str">
         <f t="shared" si="50"/>
         <v>00</v>
       </c>
-      <c r="AV74" s="18" t="str">
+      <c r="AV74" s="16" t="str">
         <f t="shared" si="50"/>
         <v>84</v>
       </c>
-      <c r="AW74" s="18" t="str">
+      <c r="AW74" s="16" t="str">
         <f t="shared" si="50"/>
         <v>2f</v>
       </c>
-      <c r="AX74" s="18" t="str">
+      <c r="AX74" s="16" t="str">
         <f t="shared" si="50"/>
         <v>12</v>
       </c>
-      <c r="AY74" s="18" t="str">
+      <c r="AY74" s="16" t="str">
         <f t="shared" si="50"/>
         <v>00</v>
       </c>
-      <c r="AZ74" s="18" t="str">
+      <c r="AZ74" s="16" t="str">
         <f t="shared" si="50"/>
         <v>00</v>
       </c>
-      <c r="BA74" s="18" t="str">
+      <c r="BA74" s="16" t="str">
         <f t="shared" si="50"/>
         <v>00</v>
       </c>
-      <c r="BB74" s="18" t="str">
+      <c r="BB74" s="16" t="str">
         <f t="shared" si="50"/>
         <v>09</v>
       </c>
-      <c r="BC74" s="18" t="str">
+      <c r="BC74" s="16" t="str">
         <f t="shared" si="50"/>
         <v>00</v>
       </c>
-      <c r="BD74" s="18" t="str">
+      <c r="BD74" s="16" t="str">
         <f t="shared" si="50"/>
         <v>00</v>
       </c>
-      <c r="BE74" s="18" t="str">
+      <c r="BE74" s="16" t="str">
         <f t="shared" si="50"/>
         <v>00</v>
       </c>
-      <c r="BF74" s="18" t="str">
+      <c r="BF74" s="16" t="str">
         <f t="shared" si="50"/>
         <v>00</v>
       </c>
-      <c r="BG74" s="18" t="str">
+      <c r="BG74" s="16" t="str">
         <f t="shared" si="50"/>
         <v>00</v>
       </c>
-      <c r="BH74" s="18" t="str">
+      <c r="BH74" s="16" t="str">
         <f t="shared" si="50"/>
         <v>00</v>
       </c>
-      <c r="BI74" s="18" t="str">
+      <c r="BI74" s="16" t="str">
         <f t="shared" si="50"/>
         <v>00</v>
       </c>
-      <c r="BJ74" s="18" t="str">
+      <c r="BJ74" s="16" t="str">
         <f t="shared" si="50"/>
         <v>00</v>
       </c>
-      <c r="BK74" s="18" t="str">
+      <c r="BK74" s="16" t="str">
         <f t="shared" si="50"/>
         <v>00</v>
       </c>
-      <c r="BL74" s="18" t="str">
+      <c r="BL74" s="16" t="str">
         <f t="shared" si="50"/>
         <v>00</v>
       </c>
-      <c r="BM74" s="18" t="str">
+      <c r="BM74" s="16" t="str">
         <f t="shared" si="50"/>
         <v>00</v>
       </c>
-      <c r="BN74" s="18" t="str">
+      <c r="BN74" s="16" t="str">
         <f t="shared" si="50"/>
         <v>00</v>
       </c>
-      <c r="BO74" s="18" t="str">
+      <c r="BO74" s="16" t="str">
         <f t="shared" si="50"/>
         <v>00</v>
       </c>
-      <c r="BP74" s="18" t="str">
+      <c r="BP74" s="16" t="str">
         <f t="shared" si="50"/>
         <v>00</v>
       </c>
-      <c r="BQ74" s="18" t="str">
+      <c r="BQ74" s="16" t="str">
         <f t="shared" si="50"/>
         <v>00</v>
       </c>
-      <c r="BR74" s="10" t="str">
+      <c r="BR74" s="8" t="str">
         <f t="shared" si="50"/>
         <v>48</v>
       </c>
-      <c r="BS74" s="10" t="str">
+      <c r="BS74" s="8" t="str">
         <f t="shared" si="50"/>
         <v>00</v>
       </c>
-      <c r="BT74" s="10" t="str">
+      <c r="BT74" s="8" t="str">
         <f t="shared" si="50"/>
         <v>69</v>
       </c>
-      <c r="BU74" s="10" t="str">
+      <c r="BU74" s="8" t="str">
         <f t="shared" si="50"/>
         <v>00</v>
       </c>
-      <c r="BV74" s="10" t="str">
+      <c r="BV74" s="8" t="str">
         <f t="shared" ref="BV74:CQ74" si="51">MID($DD$73,(BV1*3)+1,2)</f>
         <v>73</v>
       </c>
-      <c r="BW74" s="10" t="str">
+      <c r="BW74" s="8" t="str">
         <f t="shared" si="51"/>
         <v>00</v>
       </c>
-      <c r="BX74" s="10" t="str">
+      <c r="BX74" s="8" t="str">
         <f t="shared" si="51"/>
         <v>74</v>
       </c>
-      <c r="BY74" s="10" t="str">
+      <c r="BY74" s="8" t="str">
         <f t="shared" si="51"/>
         <v>00</v>
       </c>
-      <c r="BZ74" s="10" t="str">
+      <c r="BZ74" s="8" t="str">
         <f t="shared" si="51"/>
         <v>6f</v>
       </c>
-      <c r="CA74" s="10" t="str">
+      <c r="CA74" s="8" t="str">
         <f t="shared" si="51"/>
         <v>00</v>
       </c>
-      <c r="CB74" s="10" t="str">
+      <c r="CB74" s="8" t="str">
         <f t="shared" si="51"/>
         <v>72</v>
       </c>
-      <c r="CC74" s="10" t="str">
+      <c r="CC74" s="8" t="str">
         <f t="shared" si="51"/>
         <v>00</v>
       </c>
-      <c r="CD74" s="10" t="str">
+      <c r="CD74" s="8" t="str">
         <f t="shared" si="51"/>
         <v>79</v>
       </c>
-      <c r="CE74" s="10" t="str">
+      <c r="CE74" s="8" t="str">
         <f t="shared" si="51"/>
         <v>00</v>
       </c>
-      <c r="CF74" s="10" t="str">
+      <c r="CF74" s="8" t="str">
         <f t="shared" si="51"/>
         <v>2e</v>
       </c>
-      <c r="CG74" s="10" t="str">
+      <c r="CG74" s="8" t="str">
         <f t="shared" si="51"/>
         <v>00</v>
       </c>
-      <c r="CH74" s="10" t="str">
+      <c r="CH74" s="8" t="str">
         <f t="shared" si="51"/>
         <v>74</v>
       </c>
-      <c r="CI74" s="10" t="str">
+      <c r="CI74" s="8" t="str">
         <f t="shared" si="51"/>
         <v>00</v>
       </c>
-      <c r="CJ74" s="10" t="str">
+      <c r="CJ74" s="8" t="str">
         <f t="shared" si="51"/>
         <v>78</v>
       </c>
-      <c r="CK74" s="10" t="str">
+      <c r="CK74" s="8" t="str">
         <f t="shared" si="51"/>
         <v>00</v>
       </c>
-      <c r="CL74" s="10" t="str">
+      <c r="CL74" s="8" t="str">
         <f t="shared" si="51"/>
         <v>74</v>
       </c>
-      <c r="CM74" s="10" t="str">
+      <c r="CM74" s="8" t="str">
         <f t="shared" si="51"/>
         <v>00</v>
       </c>
-      <c r="CN74" s="10" t="str">
+      <c r="CN74" s="8" t="str">
         <f t="shared" si="51"/>
         <v>00</v>
       </c>
-      <c r="CO74" s="10" t="str">
+      <c r="CO74" s="8" t="str">
         <f t="shared" si="51"/>
         <v>00</v>
       </c>
-      <c r="CP74" s="18" t="str">
+      <c r="CP74" s="16" t="str">
         <f t="shared" si="51"/>
         <v>1a</v>
       </c>
-      <c r="CQ74" s="18" t="str">
+      <c r="CQ74" s="16" t="str">
         <f t="shared" si="51"/>
         <v>00</v>
       </c>
@@ -11579,106 +11571,106 @@
       <c r="DB74" s="4"/>
       <c r="DC74" s="4"/>
     </row>
-    <row r="75" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A75" s="30"/>
-      <c r="B75" s="31" t="s">
+    <row r="75" spans="1:109">
+      <c r="A75" s="37"/>
+      <c r="B75" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C75" s="32"/>
-      <c r="D75" s="32" t="s">
+      <c r="C75" s="24"/>
+      <c r="D75" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="E75" s="32"/>
-      <c r="F75" s="32"/>
-      <c r="G75" s="32"/>
-      <c r="H75" s="32"/>
-      <c r="I75" s="32"/>
-      <c r="J75" s="32"/>
-      <c r="K75" s="32"/>
-      <c r="L75" s="32"/>
-      <c r="M75" s="32"/>
-      <c r="N75" s="32"/>
-      <c r="O75" s="32"/>
-      <c r="P75" s="32"/>
-      <c r="Q75" s="32"/>
-      <c r="R75" s="32"/>
-      <c r="S75" s="32"/>
-      <c r="T75" s="32"/>
-      <c r="U75" s="32"/>
-      <c r="V75" s="32"/>
-      <c r="W75" s="32"/>
-      <c r="X75" s="32"/>
-      <c r="Y75" s="32"/>
-      <c r="Z75" s="32"/>
-      <c r="AA75" s="32"/>
-      <c r="AB75" s="32"/>
-      <c r="AC75" s="32"/>
-      <c r="AD75" s="32"/>
-      <c r="AE75" s="32"/>
-      <c r="AF75" s="32"/>
-      <c r="AG75" s="32"/>
-      <c r="AH75" s="32"/>
-      <c r="AI75" s="32"/>
-      <c r="AJ75" s="32"/>
-      <c r="AK75" s="32"/>
-      <c r="AL75" s="32"/>
-      <c r="AM75" s="32"/>
-      <c r="AN75" s="32"/>
-      <c r="AO75" s="32"/>
-      <c r="AP75" s="32"/>
-      <c r="AQ75" s="32"/>
-      <c r="AR75" s="32"/>
-      <c r="AS75" s="32"/>
-      <c r="AT75" s="32"/>
-      <c r="AU75" s="32"/>
-      <c r="AV75" s="32"/>
-      <c r="AW75" s="32"/>
-      <c r="AX75" s="32"/>
-      <c r="AY75" s="32"/>
-      <c r="AZ75" s="32"/>
-      <c r="BA75" s="32"/>
-      <c r="BB75" s="32"/>
-      <c r="BC75" s="32"/>
-      <c r="BD75" s="32"/>
-      <c r="BE75" s="32"/>
-      <c r="BF75" s="32"/>
-      <c r="BG75" s="32"/>
-      <c r="BH75" s="32"/>
-      <c r="BI75" s="32"/>
-      <c r="BJ75" s="32"/>
-      <c r="BK75" s="32"/>
-      <c r="BL75" s="32"/>
-      <c r="BM75" s="32"/>
-      <c r="BN75" s="32"/>
-      <c r="BO75" s="32"/>
-      <c r="BP75" s="32"/>
-      <c r="BQ75" s="32"/>
-      <c r="BR75" s="32"/>
-      <c r="BS75" s="32"/>
-      <c r="BT75" s="32"/>
-      <c r="BU75" s="32"/>
-      <c r="BV75" s="32"/>
-      <c r="BW75" s="32"/>
-      <c r="BX75" s="32"/>
-      <c r="BY75" s="32"/>
-      <c r="BZ75" s="32"/>
-      <c r="CA75" s="32"/>
-      <c r="CB75" s="32"/>
-      <c r="CC75" s="32"/>
-      <c r="CD75" s="32"/>
-      <c r="CE75" s="32"/>
-      <c r="CF75" s="32"/>
-      <c r="CG75" s="32"/>
-      <c r="CH75" s="32"/>
-      <c r="CI75" s="32"/>
-      <c r="CJ75" s="32"/>
-      <c r="CK75" s="32"/>
-      <c r="CL75" s="32"/>
-      <c r="CM75" s="32"/>
-      <c r="CN75" s="32"/>
-      <c r="CO75" s="32"/>
-      <c r="CP75" s="32"/>
-      <c r="CQ75" s="32"/>
+      <c r="E75" s="24"/>
+      <c r="F75" s="24"/>
+      <c r="G75" s="24"/>
+      <c r="H75" s="24"/>
+      <c r="I75" s="24"/>
+      <c r="J75" s="24"/>
+      <c r="K75" s="24"/>
+      <c r="L75" s="24"/>
+      <c r="M75" s="24"/>
+      <c r="N75" s="24"/>
+      <c r="O75" s="24"/>
+      <c r="P75" s="24"/>
+      <c r="Q75" s="24"/>
+      <c r="R75" s="24"/>
+      <c r="S75" s="24"/>
+      <c r="T75" s="24"/>
+      <c r="U75" s="24"/>
+      <c r="V75" s="24"/>
+      <c r="W75" s="24"/>
+      <c r="X75" s="24"/>
+      <c r="Y75" s="24"/>
+      <c r="Z75" s="24"/>
+      <c r="AA75" s="24"/>
+      <c r="AB75" s="24"/>
+      <c r="AC75" s="24"/>
+      <c r="AD75" s="24"/>
+      <c r="AE75" s="24"/>
+      <c r="AF75" s="24"/>
+      <c r="AG75" s="24"/>
+      <c r="AH75" s="24"/>
+      <c r="AI75" s="24"/>
+      <c r="AJ75" s="24"/>
+      <c r="AK75" s="24"/>
+      <c r="AL75" s="24"/>
+      <c r="AM75" s="24"/>
+      <c r="AN75" s="24"/>
+      <c r="AO75" s="24"/>
+      <c r="AP75" s="24"/>
+      <c r="AQ75" s="24"/>
+      <c r="AR75" s="24"/>
+      <c r="AS75" s="24"/>
+      <c r="AT75" s="24"/>
+      <c r="AU75" s="24"/>
+      <c r="AV75" s="24"/>
+      <c r="AW75" s="24"/>
+      <c r="AX75" s="24"/>
+      <c r="AY75" s="24"/>
+      <c r="AZ75" s="24"/>
+      <c r="BA75" s="24"/>
+      <c r="BB75" s="24"/>
+      <c r="BC75" s="24"/>
+      <c r="BD75" s="24"/>
+      <c r="BE75" s="24"/>
+      <c r="BF75" s="24"/>
+      <c r="BG75" s="24"/>
+      <c r="BH75" s="24"/>
+      <c r="BI75" s="24"/>
+      <c r="BJ75" s="24"/>
+      <c r="BK75" s="24"/>
+      <c r="BL75" s="24"/>
+      <c r="BM75" s="24"/>
+      <c r="BN75" s="24"/>
+      <c r="BO75" s="24"/>
+      <c r="BP75" s="24"/>
+      <c r="BQ75" s="24"/>
+      <c r="BR75" s="24"/>
+      <c r="BS75" s="24"/>
+      <c r="BT75" s="24"/>
+      <c r="BU75" s="24"/>
+      <c r="BV75" s="24"/>
+      <c r="BW75" s="24"/>
+      <c r="BX75" s="24"/>
+      <c r="BY75" s="24"/>
+      <c r="BZ75" s="24"/>
+      <c r="CA75" s="24"/>
+      <c r="CB75" s="24"/>
+      <c r="CC75" s="24"/>
+      <c r="CD75" s="24"/>
+      <c r="CE75" s="24"/>
+      <c r="CF75" s="24"/>
+      <c r="CG75" s="24"/>
+      <c r="CH75" s="24"/>
+      <c r="CI75" s="24"/>
+      <c r="CJ75" s="24"/>
+      <c r="CK75" s="24"/>
+      <c r="CL75" s="24"/>
+      <c r="CM75" s="24"/>
+      <c r="CN75" s="24"/>
+      <c r="CO75" s="24"/>
+      <c r="CP75" s="24"/>
+      <c r="CQ75" s="24"/>
       <c r="CR75" s="4"/>
       <c r="CS75" s="4"/>
       <c r="CT75" s="4"/>
@@ -11692,136 +11684,90 @@
       <c r="DB75" s="4"/>
       <c r="DC75" s="4"/>
     </row>
-    <row r="76" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A76" s="30"/>
-      <c r="AB76" s="24" t="s">
+    <row r="76" spans="1:109">
+      <c r="A76" s="37"/>
+      <c r="AB76" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="AC76" s="24"/>
-      <c r="AD76" s="25" t="s">
+      <c r="AC76" s="30"/>
+      <c r="AD76" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="AE76" s="25"/>
-      <c r="AF76" s="25"/>
-      <c r="AG76" s="25"/>
-      <c r="AH76" s="25"/>
-      <c r="AI76" s="25"/>
-      <c r="AJ76" s="25"/>
-      <c r="AK76" s="25"/>
-      <c r="AL76" s="25"/>
-      <c r="AM76" s="25"/>
-      <c r="AN76" s="25"/>
-      <c r="AO76" s="25"/>
-      <c r="AP76" s="25"/>
-      <c r="AQ76" s="25"/>
-      <c r="AR76" s="25"/>
-      <c r="AS76" s="25"/>
-      <c r="AT76" s="25"/>
-      <c r="AU76" s="25"/>
-      <c r="AV76" s="25"/>
-      <c r="AW76" s="25"/>
-      <c r="AX76" s="25"/>
-      <c r="AY76" s="25"/>
-      <c r="AZ76" s="25"/>
-      <c r="BA76" s="25"/>
-      <c r="BB76" s="25"/>
-      <c r="BC76" s="25"/>
-      <c r="BD76" s="25"/>
-      <c r="BE76" s="25"/>
-      <c r="BF76" s="25"/>
-      <c r="BG76" s="25"/>
-      <c r="BH76" s="25"/>
-      <c r="BI76" s="25"/>
-      <c r="BJ76" s="25"/>
-      <c r="BK76" s="25"/>
-      <c r="BL76" s="25"/>
-      <c r="BM76" s="25"/>
-      <c r="BN76" s="25"/>
-      <c r="BO76" s="25"/>
-      <c r="BP76" s="25"/>
-      <c r="BQ76" s="25"/>
-      <c r="BR76" s="25"/>
-      <c r="BS76" s="25"/>
-      <c r="BT76" s="25"/>
-      <c r="BU76" s="25"/>
-      <c r="BV76" s="25"/>
-      <c r="BW76" s="25"/>
-      <c r="BX76" s="25"/>
-      <c r="BY76" s="25"/>
-      <c r="BZ76" s="25"/>
-      <c r="CA76" s="25"/>
-      <c r="CB76" s="25"/>
-      <c r="CC76" s="25"/>
-      <c r="CD76" s="25"/>
-      <c r="CE76" s="25"/>
-      <c r="CF76" s="25"/>
-      <c r="CG76" s="25"/>
-      <c r="CH76" s="25"/>
-      <c r="CI76" s="25"/>
-      <c r="CJ76" s="25"/>
-      <c r="CK76" s="25"/>
-      <c r="CL76" s="25"/>
-      <c r="CM76" s="25"/>
-      <c r="CN76" s="25"/>
-      <c r="CO76" s="25"/>
-      <c r="CP76" s="25"/>
-      <c r="CQ76" s="25"/>
+      <c r="AE76" s="27"/>
+      <c r="AF76" s="27"/>
+      <c r="AG76" s="27"/>
+      <c r="AH76" s="27"/>
+      <c r="AI76" s="27"/>
+      <c r="AJ76" s="27"/>
+      <c r="AK76" s="27"/>
+      <c r="AL76" s="27"/>
+      <c r="AM76" s="27"/>
+      <c r="AN76" s="27"/>
+      <c r="AO76" s="27"/>
+      <c r="AP76" s="27"/>
+      <c r="AQ76" s="27"/>
+      <c r="AR76" s="27"/>
+      <c r="AS76" s="27"/>
+      <c r="AT76" s="27"/>
+      <c r="AU76" s="27"/>
+      <c r="AV76" s="27"/>
+      <c r="AW76" s="27"/>
+      <c r="AX76" s="27"/>
+      <c r="AY76" s="27"/>
+      <c r="AZ76" s="27"/>
+      <c r="BA76" s="27"/>
+      <c r="BB76" s="27"/>
+      <c r="BC76" s="27"/>
+      <c r="BD76" s="27"/>
+      <c r="BE76" s="27"/>
+      <c r="BF76" s="27"/>
+      <c r="BG76" s="27"/>
+      <c r="BH76" s="27"/>
+      <c r="BI76" s="27"/>
+      <c r="BJ76" s="27"/>
+      <c r="BK76" s="27"/>
+      <c r="BL76" s="27"/>
+      <c r="BM76" s="27"/>
+      <c r="BN76" s="27"/>
+      <c r="BO76" s="27"/>
+      <c r="BP76" s="27"/>
+      <c r="BQ76" s="27"/>
+      <c r="BR76" s="27"/>
+      <c r="BS76" s="27"/>
+      <c r="BT76" s="27"/>
+      <c r="BU76" s="27"/>
+      <c r="BV76" s="27"/>
+      <c r="BW76" s="27"/>
+      <c r="BX76" s="27"/>
+      <c r="BY76" s="27"/>
+      <c r="BZ76" s="27"/>
+      <c r="CA76" s="27"/>
+      <c r="CB76" s="27"/>
+      <c r="CC76" s="27"/>
+      <c r="CD76" s="27"/>
+      <c r="CE76" s="27"/>
+      <c r="CF76" s="27"/>
+      <c r="CG76" s="27"/>
+      <c r="CH76" s="27"/>
+      <c r="CI76" s="27"/>
+      <c r="CJ76" s="27"/>
+      <c r="CK76" s="27"/>
+      <c r="CL76" s="27"/>
+      <c r="CM76" s="27"/>
+      <c r="CN76" s="27"/>
+      <c r="CO76" s="27"/>
+      <c r="CP76" s="27"/>
+      <c r="CQ76" s="27"/>
     </row>
-    <row r="77" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A77" s="30"/>
+    <row r="77" spans="1:109">
+      <c r="A77" s="37"/>
     </row>
-    <row r="78" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="A78" s="30"/>
+    <row r="78" spans="1:109">
+      <c r="A78" s="37"/>
     </row>
-    <row r="79" spans="1:109" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" spans="1:109" s="5" customFormat="1" ht="15" customHeight="1"/>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="D63:DA63"/>
-    <mergeCell ref="D69:BS69"/>
-    <mergeCell ref="D75:CQ75"/>
-    <mergeCell ref="B5:BI5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:BI6"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="Z7:BI7"/>
-    <mergeCell ref="AN8:AO8"/>
-    <mergeCell ref="AP8:BG8"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P9:AC9"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:BM13"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="P14:AC14"/>
-    <mergeCell ref="AP14:AQ14"/>
-    <mergeCell ref="AR14:BI14"/>
-    <mergeCell ref="Z15:AA15"/>
-    <mergeCell ref="AB15:BM15"/>
-    <mergeCell ref="X21:Y21"/>
-    <mergeCell ref="Z21:BI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:BI20"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="P22:AS22"/>
-    <mergeCell ref="A25:A48"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:CI42"/>
-    <mergeCell ref="Z43:AA43"/>
-    <mergeCell ref="AB43:CI43"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:CE28"/>
-    <mergeCell ref="X29:Y29"/>
-    <mergeCell ref="Z29:CE29"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="AR37:CE37"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:BW53"/>
-    <mergeCell ref="V54:W54"/>
-    <mergeCell ref="D35:CI35"/>
-    <mergeCell ref="Z36:AA36"/>
-    <mergeCell ref="AB36:CI36"/>
     <mergeCell ref="AB76:AC76"/>
     <mergeCell ref="AD76:CQ76"/>
     <mergeCell ref="A2:A23"/>
@@ -11838,6 +11784,52 @@
     <mergeCell ref="AN30:AO30"/>
     <mergeCell ref="AP30:CC30"/>
     <mergeCell ref="AP37:AQ37"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:BW53"/>
+    <mergeCell ref="V54:W54"/>
+    <mergeCell ref="D35:CI35"/>
+    <mergeCell ref="Z36:AA36"/>
+    <mergeCell ref="AB36:CI36"/>
+    <mergeCell ref="A25:A48"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:CI42"/>
+    <mergeCell ref="Z43:AA43"/>
+    <mergeCell ref="AB43:CI43"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:CE28"/>
+    <mergeCell ref="X29:Y29"/>
+    <mergeCell ref="Z29:CE29"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="AR37:CE37"/>
+    <mergeCell ref="X21:Y21"/>
+    <mergeCell ref="Z21:BI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:BI20"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="P22:AS22"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="P14:AC14"/>
+    <mergeCell ref="AP14:AQ14"/>
+    <mergeCell ref="AR14:BI14"/>
+    <mergeCell ref="Z15:AA15"/>
+    <mergeCell ref="AB15:BM15"/>
+    <mergeCell ref="AN8:AO8"/>
+    <mergeCell ref="AP8:BG8"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P9:AC9"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:BM13"/>
+    <mergeCell ref="B5:BI5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:BI6"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="Z7:BI7"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="D63:DA63"/>
+    <mergeCell ref="D69:BS69"/>
+    <mergeCell ref="D75:CQ75"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
